--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA774A-DD57-4EB7-8793-6E5103D35E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4931216-7216-481B-A811-4EFFF0B9D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="7365" windowHeight="20985" tabRatio="923" activeTab="2" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="923" activeTab="2" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
-    <sheet name="F1a" sheetId="22" r:id="rId2"/>
-    <sheet name="F1b" sheetId="23" r:id="rId3"/>
+    <sheet name="HU_F1a" sheetId="22" r:id="rId2"/>
+    <sheet name="HU_F1b" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,12 +145,6 @@
     <t>22/11/2024 (PB)</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COFFICIENTS</t>
-  </si>
-  <si>
     <t>Dhe</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>HUB</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,16 +653,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>1.0742647701534676</v>
@@ -760,7 +760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82149FD-6EA9-444B-B6E5-162D094F28D3}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -770,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -839,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>0</v>
@@ -2530,7 +2532,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>-0.19308436626093731</v>
@@ -2610,7 +2612,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>-0.14966086233769196</v>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4931216-7216-481B-A811-4EFFF0B9D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F28308-3B15-4E11-9809-F7B8A8EDC818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="923" activeTab="2" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>REGRESSOR</t>
   </si>
   <si>
-    <t>COFFICIENT</t>
+    <t>COEFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,9 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82149FD-6EA9-444B-B6E5-162D094F28D3}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -777,76 +775,76 @@
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2108A-4832-4F86-A8B5-055507F6A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC2538-2A2D-481B-8017-F0CF58BB90A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="F1a" sheetId="3" r:id="rId2"/>
-    <sheet name="F1b" sheetId="4" r:id="rId3"/>
+    <sheet name="PL_F1a" sheetId="3" r:id="rId2"/>
+    <sheet name="PL_F1b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC2538-2A2D-481B-8017-F0CF58BB90A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46F9A3-E633-447F-BD67-A94BB1A5F1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Description:</t>
   </si>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -177,372 +177,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,518 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="78">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1104,85 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="77" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,19 +620,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -1598,166 +646,122 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
-        <v>-0.33916655821377645</v>
+      <c r="B2" s="4">
+        <v>-0.37661099404516546</v>
       </c>
       <c r="C2">
-        <v>6.111841256971633E-3</v>
+        <v>6.8744228642692098E-3</v>
       </c>
       <c r="D2">
-        <v>-7.5066236320306488E-4</v>
+        <v>-7.1635366928175792E-4</v>
       </c>
       <c r="E2">
-        <v>1.8662916202117213E-2</v>
+        <v>2.14977943466194E-2</v>
       </c>
       <c r="F2">
-        <v>8.9499092758883771E-3</v>
+        <v>1.0309468610164258E-2</v>
       </c>
       <c r="G2">
-        <v>-9.2842703008616523E-4</v>
-      </c>
-      <c r="H2">
-        <v>-0.13873046638904271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+        <v>-0.15696247353117262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.29654535896002715</v>
+      <c r="B3" s="4">
+        <v>0.29565171338458979</v>
       </c>
       <c r="C3">
-        <v>-7.5066236320306488E-4</v>
+        <v>-7.1635366928175792E-4</v>
       </c>
       <c r="D3">
-        <v>2.523026172195986E-2</v>
+        <v>2.2604009962385679E-2</v>
       </c>
       <c r="E3">
-        <v>8.4500312677163042E-3</v>
+        <v>1.9171748166481907E-3</v>
       </c>
       <c r="F3">
-        <v>2.5054457283540613E-3</v>
+        <v>-3.5445072466950382E-3</v>
       </c>
       <c r="G3">
-        <v>-3.7236587858572312E-3</v>
-      </c>
-      <c r="H3">
-        <v>-9.2924551450485976E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+        <v>-7.6328800761655519E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
-        <v>-1.1463168087836859</v>
+      <c r="B4" s="4">
+        <v>-1.2877436267939886</v>
       </c>
       <c r="C4">
-        <v>1.8662916202117213E-2</v>
+        <v>2.14977943466194E-2</v>
       </c>
       <c r="D4">
-        <v>8.4500312677163042E-3</v>
+        <v>1.9171748166481907E-3</v>
       </c>
       <c r="E4">
-        <v>0.16299908391486903</v>
+        <v>0.16876364320740661</v>
       </c>
       <c r="F4">
-        <v>0.10315754481021282</v>
+        <v>0.10277178384565339</v>
       </c>
       <c r="G4">
-        <v>2.7654741592334497E-2</v>
-      </c>
-      <c r="H4">
-        <v>-0.54447666184088872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+        <v>-0.57894307910107989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13">
-        <v>-0.63928460994749459</v>
+      <c r="B5" s="4">
+        <v>-0.68166295559751022</v>
       </c>
       <c r="C5">
-        <v>8.9499092758883771E-3</v>
+        <v>1.0309468610164258E-2</v>
       </c>
       <c r="D5">
-        <v>2.5054457283540613E-3</v>
+        <v>-3.5445072466950382E-3</v>
       </c>
       <c r="E5">
-        <v>0.10315754481021282</v>
+        <v>0.10277178384565339</v>
       </c>
       <c r="F5">
-        <v>0.38972406938880771</v>
+        <v>0.38701632380124684</v>
       </c>
       <c r="G5">
-        <v>4.2883100662275797E-2</v>
-      </c>
-      <c r="H5">
-        <v>-0.2933054243144369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.56519628147029832</v>
+        <v>-0.29569525468304469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.6106925921688857</v>
       </c>
       <c r="C6">
-        <v>-9.2842703008616523E-4</v>
+        <v>-0.15696247353117262</v>
       </c>
       <c r="D6">
-        <v>-3.7236587858572312E-3</v>
+        <v>-7.6328800761655519E-2</v>
       </c>
       <c r="E6">
-        <v>2.7654741592334497E-2</v>
+        <v>-0.57894307910107989</v>
       </c>
       <c r="F6">
-        <v>4.2883100662275797E-2</v>
+        <v>-0.29569525468304469</v>
       </c>
       <c r="G6">
-        <v>0.99785791577671279</v>
-      </c>
-      <c r="H6">
-        <v>-7.3348235563108766E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17">
-        <v>6.7504539592317903</v>
-      </c>
-      <c r="C7">
-        <v>-0.13873046638904271</v>
-      </c>
-      <c r="D7">
-        <v>-9.2924551450485976E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.54447666184088872</v>
-      </c>
-      <c r="F7">
-        <v>-0.2933054243144369</v>
-      </c>
-      <c r="G7">
-        <v>-7.3348235563108766E-3</v>
-      </c>
-      <c r="H7">
-        <v>3.7041958543004649</v>
+        <v>4.0358942583844879</v>
       </c>
     </row>
   </sheetData>
@@ -1777,10 +781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -1872,2758 +876,2758 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21">
-        <v>0.16157812339614569</v>
+      <c r="B2" s="4">
+        <v>0.16295553577074731</v>
       </c>
       <c r="C2">
-        <v>7.6854045274860365E-4</v>
+        <v>7.73095598453683E-4</v>
       </c>
       <c r="D2">
-        <v>-1.1002825211260443E-5</v>
+        <v>-1.1070715299150139E-5</v>
       </c>
       <c r="E2">
-        <v>5.4590587403053475E-7</v>
+        <v>1.468121047827611E-4</v>
       </c>
       <c r="F2">
-        <v>-2.0964790348510724E-4</v>
+        <v>-1.3344001464606921E-4</v>
       </c>
       <c r="G2">
-        <v>-3.2289807246209867E-4</v>
+        <v>-2.4602599156696046E-4</v>
       </c>
       <c r="H2">
-        <v>-3.1193808388206936E-4</v>
+        <v>-2.3444984552383656E-4</v>
       </c>
       <c r="I2">
-        <v>-2.4483696711152011E-4</v>
+        <v>-2.4544266217683714E-4</v>
       </c>
       <c r="J2">
-        <v>9.8711266918912778E-5</v>
+        <v>9.8123581147082153E-5</v>
       </c>
       <c r="K2">
-        <v>-3.223512833448218E-5</v>
+        <v>-3.0553990836861347E-5</v>
       </c>
       <c r="L2">
-        <v>-2.5637018753199743E-5</v>
+        <v>-3.1541527078094225E-5</v>
       </c>
       <c r="M2">
-        <v>-2.1153273456630921E-5</v>
+        <v>-2.7613307753013728E-5</v>
       </c>
       <c r="N2">
-        <v>-8.3991328479077546E-5</v>
+        <v>-8.8411873720578571E-5</v>
       </c>
       <c r="O2">
-        <v>1.234822548611212E-5</v>
+        <v>-1.3374487560073936E-5</v>
       </c>
       <c r="P2">
-        <v>-1.1530253781676623E-4</v>
+        <v>-1.2438374410790858E-4</v>
       </c>
       <c r="Q2">
-        <v>2.1825390154670346E-5</v>
+        <v>3.8803979237556942E-5</v>
       </c>
       <c r="R2">
-        <v>-1.7190563026398247E-4</v>
+        <v>-1.6680758625547618E-4</v>
       </c>
       <c r="S2">
-        <v>1.9389383421727614E-4</v>
+        <v>1.947441317754331E-4</v>
       </c>
       <c r="T2">
-        <v>4.3450617127119935E-4</v>
+        <v>4.3471502857014128E-4</v>
       </c>
       <c r="U2">
-        <v>1.9086488021640216E-4</v>
+        <v>1.9357893824640052E-4</v>
       </c>
       <c r="V2">
-        <v>1.078906696481312E-3</v>
+        <v>1.0631072895968168E-3</v>
       </c>
       <c r="W2">
-        <v>7.7966711135561738E-5</v>
+        <v>8.1037235200115409E-5</v>
       </c>
       <c r="X2">
-        <v>2.4730304863120577E-6</v>
+        <v>7.6401917714927301E-6</v>
       </c>
       <c r="Y2">
-        <v>-2.348473540741649E-5</v>
+        <v>-2.1573238966101835E-5</v>
       </c>
       <c r="Z2">
-        <v>1.0037548447849485E-5</v>
+        <v>1.3900332186895571E-5</v>
       </c>
       <c r="AA2">
-        <v>-5.2751708549964981E-6</v>
+        <v>-5.5854141755619108E-7</v>
       </c>
       <c r="AB2">
-        <v>5.6526436453828815E-6</v>
+        <v>5.1311112646154161E-6</v>
       </c>
       <c r="AC2">
-        <v>4.5914890720040458E-5</v>
+        <v>4.9310440773016936E-5</v>
       </c>
       <c r="AD2">
-        <v>1.1232192129867914E-5</v>
+        <v>1.5560913929753024E-5</v>
       </c>
       <c r="AE2">
-        <v>-1.2944943869337699E-2</v>
+        <v>-1.3090621493207819E-2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23">
-        <v>-3.7825844911235861E-3</v>
+      <c r="B3" s="4">
+        <v>-3.8017552159363577E-3</v>
       </c>
       <c r="C3">
-        <v>-1.1002825211260443E-5</v>
+        <v>-1.1070715299150139E-5</v>
       </c>
       <c r="D3">
-        <v>1.5950941357402101E-7</v>
+        <v>1.6051617937173631E-7</v>
       </c>
       <c r="E3">
-        <v>-3.1580489616593924E-7</v>
+        <v>-2.0909476250508728E-6</v>
       </c>
       <c r="F3">
-        <v>2.796301681617079E-6</v>
+        <v>1.9129725489859672E-6</v>
       </c>
       <c r="G3">
-        <v>4.4377330901023354E-6</v>
+        <v>3.5474374532243726E-6</v>
       </c>
       <c r="H3">
-        <v>4.0699572114109396E-6</v>
+        <v>3.173579084800543E-6</v>
       </c>
       <c r="I3">
-        <v>3.5713547696034703E-6</v>
+        <v>3.5846175461654733E-6</v>
       </c>
       <c r="J3">
-        <v>-8.9423051577040748E-7</v>
+        <v>-8.8600019508144353E-7</v>
       </c>
       <c r="K3">
-        <v>8.4521644368241761E-7</v>
+        <v>8.1353378195042386E-7</v>
       </c>
       <c r="L3">
-        <v>1.0675152583685868E-6</v>
+        <v>1.1489927889356724E-6</v>
       </c>
       <c r="M3">
-        <v>1.1629883154236204E-6</v>
+        <v>1.2496043993200965E-6</v>
       </c>
       <c r="N3">
-        <v>2.3508463016525937E-6</v>
+        <v>2.409143294760257E-6</v>
       </c>
       <c r="O3">
-        <v>-3.2323076743185979E-7</v>
+        <v>1.9753100939060454E-8</v>
       </c>
       <c r="P3">
-        <v>1.9447789392182824E-6</v>
+        <v>2.0615162463217119E-6</v>
       </c>
       <c r="Q3">
-        <v>3.4581054733089805E-7</v>
+        <v>1.2487758360248179E-7</v>
       </c>
       <c r="R3">
-        <v>2.8516321757005177E-6</v>
+        <v>2.7836040595898275E-6</v>
       </c>
       <c r="S3">
-        <v>-2.8412203919372529E-6</v>
+        <v>-2.8537664422911215E-6</v>
       </c>
       <c r="T3">
-        <v>-6.1664703314791651E-6</v>
+        <v>-6.1831073483209926E-6</v>
       </c>
       <c r="U3">
-        <v>-2.4163710250259545E-6</v>
+        <v>-2.4669061481880734E-6</v>
       </c>
       <c r="V3">
-        <v>-1.4764796620095758E-5</v>
+        <v>-1.454936170305119E-5</v>
       </c>
       <c r="W3">
-        <v>-8.9210490491208624E-7</v>
+        <v>-9.3142986738973946E-7</v>
       </c>
       <c r="X3">
-        <v>-4.1472575154798325E-8</v>
+        <v>-1.0943144688778381E-7</v>
       </c>
       <c r="Y3">
-        <v>3.0859925173524898E-7</v>
+        <v>2.8548481207330564E-7</v>
       </c>
       <c r="Z3">
-        <v>-4.0543710791380582E-8</v>
+        <v>-8.7333432168652873E-8</v>
       </c>
       <c r="AA3">
-        <v>1.1656362265178702E-7</v>
+        <v>5.8682077286261624E-8</v>
       </c>
       <c r="AB3">
-        <v>-1.126852351555686E-7</v>
+        <v>-1.0565275457517889E-7</v>
       </c>
       <c r="AC3">
-        <v>-7.3275342132701434E-7</v>
+        <v>-7.7762113346806731E-7</v>
       </c>
       <c r="AD3">
-        <v>-2.2940743451155829E-7</v>
+        <v>-2.8387794554843169E-7</v>
       </c>
       <c r="AE3">
-        <v>1.8209438146685978E-4</v>
+        <v>1.840335804362286E-4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="25">
-        <v>0.3349223894334491</v>
+      <c r="B4" s="4">
+        <v>0.21771406097290963</v>
       </c>
       <c r="C4">
-        <v>5.4590587403053475E-7</v>
+        <v>1.468121047827611E-4</v>
       </c>
       <c r="D4">
-        <v>-3.1580489616593924E-7</v>
+        <v>-2.0909476250508728E-6</v>
       </c>
       <c r="E4">
-        <v>1.8969428818030199E-2</v>
+        <v>1.8385409513062143E-2</v>
       </c>
       <c r="F4">
-        <v>1.1306455080570042E-2</v>
+        <v>9.9040125994786267E-3</v>
       </c>
       <c r="G4">
-        <v>1.1291335654576056E-2</v>
+        <v>9.7943537732257981E-3</v>
       </c>
       <c r="H4">
-        <v>1.1322091373498926E-2</v>
+        <v>9.743883742246948E-3</v>
       </c>
       <c r="I4">
-        <v>1.1014415973466349E-4</v>
+        <v>-9.5902147044900159E-5</v>
       </c>
       <c r="J4">
-        <v>-9.7879838654022465E-5</v>
+        <v>6.972756297580953E-5</v>
       </c>
       <c r="K4">
-        <v>2.8807172625837547E-4</v>
+        <v>2.524664651923211E-4</v>
       </c>
       <c r="L4">
-        <v>-2.742759521533614E-4</v>
+        <v>-1.6573855702544998E-4</v>
       </c>
       <c r="M4">
-        <v>-3.1803071448162877E-4</v>
+        <v>-1.6191451412329643E-4</v>
       </c>
       <c r="N4">
-        <v>-2.6818545181369778E-4</v>
+        <v>-9.0764528882350363E-5</v>
       </c>
       <c r="O4">
-        <v>-1.1675905887447826E-3</v>
+        <v>-5.3570796324276145E-4</v>
       </c>
       <c r="P4">
-        <v>-2.0823102968988046E-5</v>
+        <v>-1.5065480844195841E-4</v>
       </c>
       <c r="Q4">
-        <v>1.9489936525361046E-4</v>
+        <v>-8.7821303766875709E-4</v>
       </c>
       <c r="R4">
-        <v>-3.2479251969564672E-4</v>
+        <v>2.4251479184925727E-4</v>
       </c>
       <c r="S4">
-        <v>6.9195568655116394E-5</v>
+        <v>1.0405837846131281E-4</v>
       </c>
       <c r="T4">
-        <v>-5.9561258227260668E-4</v>
+        <v>4.1395703325142544E-5</v>
       </c>
       <c r="U4">
-        <v>-7.8986279718174304E-4</v>
+        <v>-5.8386536153932217E-4</v>
       </c>
       <c r="V4">
-        <v>1.6997991407301908E-3</v>
+        <v>6.773953233228081E-4</v>
       </c>
       <c r="W4">
-        <v>-1.6701666528623677E-5</v>
+        <v>-2.189067059590107E-4</v>
       </c>
       <c r="X4">
-        <v>1.9500699367031786E-4</v>
+        <v>7.3190915759435834E-5</v>
       </c>
       <c r="Y4">
-        <v>3.6341952585025876E-4</v>
+        <v>-1.2731231172225524E-5</v>
       </c>
       <c r="Z4">
-        <v>1.9737276652158326E-4</v>
+        <v>2.5262507725858714E-5</v>
       </c>
       <c r="AA4">
-        <v>3.4066406960525734E-4</v>
+        <v>5.3291173756862646E-5</v>
       </c>
       <c r="AB4">
-        <v>-7.1759541591008035E-6</v>
+        <v>-6.351087645278014E-6</v>
       </c>
       <c r="AC4">
-        <v>2.6024316292654276E-4</v>
+        <v>2.3554687391596227E-4</v>
       </c>
       <c r="AD4">
-        <v>2.9636316036892583E-4</v>
+        <v>2.5657424717500169E-4</v>
       </c>
       <c r="AE4">
-        <v>-9.8294747609900188E-3</v>
+        <v>-1.12109224514612E-2</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="27">
-        <v>0.20508544070031753</v>
+      <c r="B5" s="4">
+        <v>0.13951073845669068</v>
       </c>
       <c r="C5">
-        <v>-2.0964790348510724E-4</v>
+        <v>-1.3344001464606921E-4</v>
       </c>
       <c r="D5">
-        <v>2.796301681617079E-6</v>
+        <v>1.9129725489859672E-6</v>
       </c>
       <c r="E5">
-        <v>1.1306455080570042E-2</v>
+        <v>9.9040125994786267E-3</v>
       </c>
       <c r="F5">
-        <v>1.289936741952582E-2</v>
+        <v>1.1449511614893495E-2</v>
       </c>
       <c r="G5">
-        <v>1.2319730635199689E-2</v>
+        <v>1.0813286018153498E-2</v>
       </c>
       <c r="H5">
-        <v>1.2459593497480537E-2</v>
+        <v>1.0897178939607632E-2</v>
       </c>
       <c r="I5">
-        <v>8.5272786496145723E-5</v>
+        <v>-5.9957715660830316E-5</v>
       </c>
       <c r="J5">
-        <v>-7.2729239184773226E-5</v>
+        <v>4.015276974907037E-5</v>
       </c>
       <c r="K5">
-        <v>-7.2820175347806937E-5</v>
+        <v>-8.4814388509073767E-5</v>
       </c>
       <c r="L5">
-        <v>-4.004522907428156E-4</v>
+        <v>-3.3666525550350582E-4</v>
       </c>
       <c r="M5">
-        <v>-4.4439068376728999E-4</v>
+        <v>-3.4437223261535657E-4</v>
       </c>
       <c r="N5">
-        <v>-3.6798422135009626E-4</v>
+        <v>-2.4654036088536104E-4</v>
       </c>
       <c r="O5">
-        <v>-4.3080604711377788E-4</v>
+        <v>5.0301205081780542E-5</v>
       </c>
       <c r="P5">
-        <v>-9.9372992813265629E-4</v>
+        <v>-9.2488974327337116E-4</v>
       </c>
       <c r="Q5">
-        <v>1.4628433847370696E-3</v>
+        <v>7.1563201571095587E-4</v>
       </c>
       <c r="R5">
-        <v>1.1682022201736815E-3</v>
+        <v>1.4223711804113805E-3</v>
       </c>
       <c r="S5">
-        <v>-4.5044925689812886E-5</v>
+        <v>-3.7015665174828247E-5</v>
       </c>
       <c r="T5">
-        <v>-5.0077166902740889E-4</v>
+        <v>-4.7450991342242767E-6</v>
       </c>
       <c r="U5">
-        <v>-5.9878199517716252E-4</v>
+        <v>-5.2978498675384025E-4</v>
       </c>
       <c r="V5">
-        <v>2.1890251863842585E-3</v>
+        <v>1.5904068474530369E-3</v>
       </c>
       <c r="W5">
-        <v>4.7951450973168612E-4</v>
+        <v>3.4132770771835613E-4</v>
       </c>
       <c r="X5">
-        <v>1.8020981417469746E-4</v>
+        <v>8.4584032308539269E-5</v>
       </c>
       <c r="Y5">
-        <v>3.3559622283552484E-4</v>
+        <v>5.5538075228228482E-5</v>
       </c>
       <c r="Z5">
-        <v>2.0777829182906275E-4</v>
+        <v>7.123593555310797E-5</v>
       </c>
       <c r="AA5">
-        <v>3.2028136970925817E-4</v>
+        <v>1.0395216192110124E-4</v>
       </c>
       <c r="AB5">
-        <v>-7.4777362453162267E-6</v>
+        <v>-5.5481638472540035E-6</v>
       </c>
       <c r="AC5">
-        <v>1.4044365942900931E-5</v>
+        <v>-6.9196469280772763E-6</v>
       </c>
       <c r="AD5">
-        <v>2.3378177325731079E-4</v>
+        <v>1.9994939305393407E-4</v>
       </c>
       <c r="AE5">
-        <v>-7.6409456138628595E-3</v>
+        <v>-7.5765143071815227E-3</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29">
-        <v>0.27774691748877023</v>
+      <c r="B6" s="4">
+        <v>0.21089718664314658</v>
       </c>
       <c r="C6">
-        <v>-3.2289807246209867E-4</v>
+        <v>-2.4602599156696046E-4</v>
       </c>
       <c r="D6">
-        <v>4.4377330901023354E-6</v>
+        <v>3.5474374532243726E-6</v>
       </c>
       <c r="E6">
-        <v>1.1291335654576056E-2</v>
+        <v>9.7943537732257981E-3</v>
       </c>
       <c r="F6">
-        <v>1.2319730635199689E-2</v>
+        <v>1.0813286018153498E-2</v>
       </c>
       <c r="G6">
-        <v>1.3359956886021302E-2</v>
+        <v>1.1796034159354348E-2</v>
       </c>
       <c r="H6">
-        <v>1.2974396966568462E-2</v>
+        <v>1.1354055620894633E-2</v>
       </c>
       <c r="I6">
-        <v>2.0794874750209132E-4</v>
+        <v>6.3445451012477012E-5</v>
       </c>
       <c r="J6">
-        <v>-1.0575282444755946E-4</v>
+        <v>7.3047883384878831E-6</v>
       </c>
       <c r="K6">
-        <v>6.1686695028798522E-4</v>
+        <v>6.1654981279609354E-4</v>
       </c>
       <c r="L6">
-        <v>-2.1574234107778765E-4</v>
+        <v>-1.5367036373404967E-4</v>
       </c>
       <c r="M6">
-        <v>-3.4747551126371916E-4</v>
+        <v>-2.4884395770508527E-4</v>
       </c>
       <c r="N6">
-        <v>-2.1437099830230212E-4</v>
+        <v>-9.460084646641673E-5</v>
       </c>
       <c r="O6">
-        <v>-9.1097676036529761E-5</v>
+        <v>3.9649181941053564E-4</v>
       </c>
       <c r="P6">
-        <v>-1.189560739585511E-3</v>
+        <v>-1.1151659551013769E-3</v>
       </c>
       <c r="Q6">
-        <v>1.4267835289482472E-3</v>
+        <v>6.7674111187977521E-4</v>
       </c>
       <c r="R6">
-        <v>1.5496800106848969E-3</v>
+        <v>1.8029475101716834E-3</v>
       </c>
       <c r="S6">
-        <v>6.9377657403724933E-5</v>
+        <v>7.7781518590809394E-5</v>
       </c>
       <c r="T6">
-        <v>-2.9917956688126069E-4</v>
+        <v>1.9835443114895115E-4</v>
       </c>
       <c r="U6">
-        <v>-5.4888349727362853E-4</v>
+        <v>-4.7313862871178197E-4</v>
       </c>
       <c r="V6">
-        <v>2.2558182249596153E-3</v>
+        <v>1.6867222181433899E-3</v>
       </c>
       <c r="W6">
-        <v>8.0577106028802939E-4</v>
+        <v>6.6771187474433261E-4</v>
       </c>
       <c r="X6">
-        <v>1.2095262700644613E-4</v>
+        <v>2.4070351079366267E-5</v>
       </c>
       <c r="Y6">
-        <v>3.933799412810471E-4</v>
+        <v>1.1587522795252116E-4</v>
       </c>
       <c r="Z6">
-        <v>2.4971443322665057E-4</v>
+        <v>1.1289422358879819E-4</v>
       </c>
       <c r="AA6">
-        <v>4.4200378962946842E-4</v>
+        <v>2.2552768444076372E-4</v>
       </c>
       <c r="AB6">
-        <v>4.667683803598444E-6</v>
+        <v>6.5851923961823272E-6</v>
       </c>
       <c r="AC6">
-        <v>2.3971238226450954E-5</v>
+        <v>2.2127151909517341E-6</v>
       </c>
       <c r="AD6">
-        <v>1.6377736315247677E-4</v>
+        <v>1.2865512342625715E-4</v>
       </c>
       <c r="AE6">
-        <v>-6.9041250078324956E-3</v>
+        <v>-6.8052218685265634E-3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="31">
-        <v>0.39090289497575798</v>
+      <c r="B7" s="4">
+        <v>0.32352230496773549</v>
       </c>
       <c r="C7">
-        <v>-3.1193808388206936E-4</v>
+        <v>-2.3444984552383656E-4</v>
       </c>
       <c r="D7">
-        <v>4.0699572114109396E-6</v>
+        <v>3.173579084800543E-6</v>
       </c>
       <c r="E7">
-        <v>1.1322091373498926E-2</v>
+        <v>9.743883742246948E-3</v>
       </c>
       <c r="F7">
-        <v>1.2459593497480537E-2</v>
+        <v>1.0897178939607632E-2</v>
       </c>
       <c r="G7">
-        <v>1.2974396966568462E-2</v>
+        <v>1.1354055620894633E-2</v>
       </c>
       <c r="H7">
-        <v>1.3889299532319876E-2</v>
+        <v>1.2212460893265061E-2</v>
       </c>
       <c r="I7">
-        <v>2.5896095430018084E-4</v>
+        <v>1.1450152504810637E-4</v>
       </c>
       <c r="J7">
-        <v>-5.4496877109235734E-5</v>
+        <v>5.9597975445118984E-5</v>
       </c>
       <c r="K7">
-        <v>4.3850372006414267E-4</v>
+        <v>4.2879928084830522E-4</v>
       </c>
       <c r="L7">
-        <v>-1.6834629859691086E-4</v>
+        <v>-1.0526251468419897E-4</v>
       </c>
       <c r="M7">
-        <v>-3.2775804405445067E-4</v>
+        <v>-2.2724671934563467E-4</v>
       </c>
       <c r="N7">
-        <v>-2.4531428083442511E-4</v>
+        <v>-1.2404641904570314E-4</v>
       </c>
       <c r="O7">
-        <v>-2.6979178681509411E-4</v>
+        <v>2.1875378804844109E-4</v>
       </c>
       <c r="P7">
-        <v>-1.0616705449550492E-3</v>
+        <v>-9.8346772920043617E-4</v>
       </c>
       <c r="Q7">
-        <v>1.6759863825412695E-3</v>
+        <v>9.2787614503473705E-4</v>
       </c>
       <c r="R7">
-        <v>1.7200153599421068E-3</v>
+        <v>1.9743958653135065E-3</v>
       </c>
       <c r="S7">
-        <v>3.2717141025807883E-4</v>
+        <v>3.3545296529073691E-4</v>
       </c>
       <c r="T7">
-        <v>-5.5245771119650979E-5</v>
+        <v>4.4413110305570411E-4</v>
       </c>
       <c r="U7">
-        <v>-9.3626984333958045E-4</v>
+        <v>-8.5685858290911535E-4</v>
       </c>
       <c r="V7">
-        <v>2.234158002845911E-3</v>
+        <v>1.6602337093677188E-3</v>
       </c>
       <c r="W7">
-        <v>8.923740403822502E-4</v>
+        <v>7.5440267026996057E-4</v>
       </c>
       <c r="X7">
-        <v>9.8163426743324992E-5</v>
+        <v>8.1318688099961487E-7</v>
       </c>
       <c r="Y7">
-        <v>3.0537412191686887E-4</v>
+        <v>2.6831040269583784E-5</v>
       </c>
       <c r="Z7">
-        <v>2.7925028767919702E-4</v>
+        <v>1.415835521625309E-4</v>
       </c>
       <c r="AA7">
-        <v>4.5003047550932107E-4</v>
+        <v>2.3285351149243937E-4</v>
       </c>
       <c r="AB7">
-        <v>1.3474721507124567E-5</v>
+        <v>1.5560584080621925E-5</v>
       </c>
       <c r="AC7">
-        <v>7.7520009906642973E-5</v>
+        <v>5.3833978304202931E-5</v>
       </c>
       <c r="AD7">
-        <v>1.6864224866812438E-4</v>
+        <v>1.3112001741450493E-4</v>
       </c>
       <c r="AE7">
-        <v>-6.9982707560570165E-3</v>
+        <v>-6.8657650352918348E-3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
-        <v>-0.36241336829753473</v>
+      <c r="B8" s="4">
+        <v>-0.36355777370805131</v>
       </c>
       <c r="C8">
-        <v>-2.4483696711152011E-4</v>
+        <v>-2.4544266217683714E-4</v>
       </c>
       <c r="D8">
-        <v>3.5713547696034703E-6</v>
+        <v>3.5846175461654733E-6</v>
       </c>
       <c r="E8">
-        <v>1.1014415973466349E-4</v>
+        <v>-9.5902147044900159E-5</v>
       </c>
       <c r="F8">
-        <v>8.5272786496145723E-5</v>
+        <v>-5.9957715660830316E-5</v>
       </c>
       <c r="G8">
-        <v>2.0794874750209132E-4</v>
+        <v>6.3445451012477012E-5</v>
       </c>
       <c r="H8">
-        <v>2.5896095430018084E-4</v>
+        <v>1.1450152504810637E-4</v>
       </c>
       <c r="I8">
-        <v>5.7601764706774548E-4</v>
+        <v>5.7924808573344799E-4</v>
       </c>
       <c r="J8">
-        <v>-1.8731886572543037E-4</v>
+        <v>-1.8620087677993097E-4</v>
       </c>
       <c r="K8">
-        <v>4.5665279965174976E-4</v>
+        <v>4.5609191091904223E-4</v>
       </c>
       <c r="L8">
-        <v>-3.3257674644283713E-5</v>
+        <v>-2.8844273188870164E-5</v>
       </c>
       <c r="M8">
-        <v>-3.9831277607023407E-5</v>
+        <v>-3.4008886033259651E-5</v>
       </c>
       <c r="N8">
-        <v>-2.7682927803793439E-5</v>
+        <v>-2.3797115805996834E-5</v>
       </c>
       <c r="O8">
-        <v>-2.7858522378121961E-4</v>
+        <v>-2.5639246789684674E-4</v>
       </c>
       <c r="P8">
-        <v>-1.7693032255277686E-4</v>
+        <v>-1.6455550062162666E-4</v>
       </c>
       <c r="Q8">
-        <v>3.6981904280636833E-4</v>
+        <v>3.5449748636697659E-4</v>
       </c>
       <c r="R8">
-        <v>2.8266555688290598E-4</v>
+        <v>2.793967991802116E-4</v>
       </c>
       <c r="S8">
-        <v>-8.8207945672978471E-6</v>
+        <v>-7.3133401155123659E-6</v>
       </c>
       <c r="T8">
-        <v>-1.3269947587620876E-4</v>
+        <v>-1.3389038541586801E-4</v>
       </c>
       <c r="U8">
-        <v>6.3568816871675728E-5</v>
+        <v>7.4629929772399364E-5</v>
       </c>
       <c r="V8">
-        <v>-3.2398186333028474E-4</v>
+        <v>-2.9872660484829718E-4</v>
       </c>
       <c r="W8">
-        <v>-4.175587528855085E-5</v>
+        <v>-4.3978829278430964E-5</v>
       </c>
       <c r="X8">
-        <v>2.3527401299111041E-5</v>
+        <v>2.039673215085291E-5</v>
       </c>
       <c r="Y8">
-        <v>9.7051039118488074E-5</v>
+        <v>9.8581632808485148E-5</v>
       </c>
       <c r="Z8">
-        <v>4.1876606828092973E-5</v>
+        <v>3.9360872424089015E-5</v>
       </c>
       <c r="AA8">
-        <v>3.7209205796994791E-5</v>
+        <v>3.5773310672550116E-5</v>
       </c>
       <c r="AB8">
-        <v>-2.1040441190202396E-6</v>
+        <v>-1.9206985271870794E-6</v>
       </c>
       <c r="AC8">
-        <v>-2.6823864246439588E-5</v>
+        <v>-2.9210038860997102E-5</v>
       </c>
       <c r="AD8">
-        <v>-3.2180750353079943E-5</v>
+        <v>-3.6707225658929557E-5</v>
       </c>
       <c r="AE8">
-        <v>3.1606102639933327E-3</v>
+        <v>3.2841318709231192E-3</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="35">
-        <v>0.52675432498322805</v>
+      <c r="B9" s="4">
+        <v>0.5255695489216281</v>
       </c>
       <c r="C9">
-        <v>9.8711266918912778E-5</v>
+        <v>9.8123581147082153E-5</v>
       </c>
       <c r="D9">
-        <v>-8.9423051577040748E-7</v>
+        <v>-8.8600019508144353E-7</v>
       </c>
       <c r="E9">
-        <v>-9.7879838654022465E-5</v>
+        <v>6.972756297580953E-5</v>
       </c>
       <c r="F9">
-        <v>-7.2729239184773226E-5</v>
+        <v>4.015276974907037E-5</v>
       </c>
       <c r="G9">
-        <v>-1.0575282444755946E-4</v>
+        <v>7.3047883384878831E-6</v>
       </c>
       <c r="H9">
-        <v>-5.4496877109235734E-5</v>
+        <v>5.9597975445118984E-5</v>
       </c>
       <c r="I9">
-        <v>-1.8731886572543037E-4</v>
+        <v>-1.8620087677993097E-4</v>
       </c>
       <c r="J9">
-        <v>9.9620047787008382E-4</v>
+        <v>9.9930451431120507E-4</v>
       </c>
       <c r="K9">
-        <v>-1.919772298748008E-4</v>
+        <v>-1.9590045510350224E-4</v>
       </c>
       <c r="L9">
-        <v>1.2151169300398236E-4</v>
+        <v>1.2073080143495409E-4</v>
       </c>
       <c r="M9">
-        <v>4.7609705535686078E-5</v>
+        <v>4.5505403584093491E-5</v>
       </c>
       <c r="N9">
-        <v>7.370461146889544E-5</v>
+        <v>7.1806095570527508E-5</v>
       </c>
       <c r="O9">
-        <v>-6.1796644159176767E-5</v>
+        <v>-7.6016943082586239E-5</v>
       </c>
       <c r="P9">
-        <v>1.4638420962960594E-4</v>
+        <v>1.3689369312874485E-4</v>
       </c>
       <c r="Q9">
-        <v>2.227347472390722E-4</v>
+        <v>2.3466668338923622E-4</v>
       </c>
       <c r="R9">
-        <v>1.5798242461768138E-4</v>
+        <v>1.6509501313555008E-4</v>
       </c>
       <c r="S9">
-        <v>1.3592558747652173E-4</v>
+        <v>1.3603830131956427E-4</v>
       </c>
       <c r="T9">
-        <v>2.2128617088444761E-4</v>
+        <v>2.173749503133859E-4</v>
       </c>
       <c r="U9">
-        <v>3.3359573112180275E-5</v>
+        <v>2.2839203501109819E-5</v>
       </c>
       <c r="V9">
-        <v>1.7780495786996915E-5</v>
+        <v>9.261436040511415E-6</v>
       </c>
       <c r="W9">
-        <v>-1.3722554738599904E-4</v>
+        <v>-1.3615565908349213E-4</v>
       </c>
       <c r="X9">
-        <v>-1.7301773395648687E-5</v>
+        <v>-1.5727301775685082E-5</v>
       </c>
       <c r="Y9">
-        <v>-6.8793017980129962E-5</v>
+        <v>-6.8043366879415329E-5</v>
       </c>
       <c r="Z9">
-        <v>4.6584778359038396E-5</v>
+        <v>4.9287603916078391E-5</v>
       </c>
       <c r="AA9">
-        <v>-1.7589140442153496E-5</v>
+        <v>-1.5212074111444903E-5</v>
       </c>
       <c r="AB9">
-        <v>-1.5100063547954538E-6</v>
+        <v>-1.6926456153721173E-6</v>
       </c>
       <c r="AC9">
-        <v>-3.3851531098803389E-5</v>
+        <v>-3.2100573464919941E-5</v>
       </c>
       <c r="AD9">
-        <v>-5.59440948525376E-5</v>
+        <v>-5.3013709167717092E-5</v>
       </c>
       <c r="AE9">
-        <v>-2.4300168409355748E-3</v>
+        <v>-2.518792532592672E-3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="37">
-        <v>-0.49231564694363489</v>
+      <c r="B10" s="4">
+        <v>-0.4907855654592797</v>
       </c>
       <c r="C10">
-        <v>-3.223512833448218E-5</v>
+        <v>-3.0553990836861347E-5</v>
       </c>
       <c r="D10">
-        <v>8.4521644368241761E-7</v>
+        <v>8.1353378195042386E-7</v>
       </c>
       <c r="E10">
-        <v>2.8807172625837547E-4</v>
+        <v>2.524664651923211E-4</v>
       </c>
       <c r="F10">
-        <v>-7.2820175347806937E-5</v>
+        <v>-8.4814388509073767E-5</v>
       </c>
       <c r="G10">
-        <v>6.1686695028798522E-4</v>
+        <v>6.1654981279609354E-4</v>
       </c>
       <c r="H10">
-        <v>4.3850372006414267E-4</v>
+        <v>4.2879928084830522E-4</v>
       </c>
       <c r="I10">
-        <v>4.5665279965174976E-4</v>
+        <v>4.5609191091904223E-4</v>
       </c>
       <c r="J10">
-        <v>-1.919772298748008E-4</v>
+        <v>-1.9590045510350224E-4</v>
       </c>
       <c r="K10">
-        <v>0.10246736601282383</v>
+        <v>0.10269921898830914</v>
       </c>
       <c r="L10">
-        <v>8.2875190280757377E-2</v>
+        <v>8.2871834185098969E-2</v>
       </c>
       <c r="M10">
-        <v>8.287963409602693E-2</v>
+        <v>8.2876410299553366E-2</v>
       </c>
       <c r="N10">
-        <v>8.2989299327128216E-2</v>
+        <v>8.2981687765313145E-2</v>
       </c>
       <c r="O10">
-        <v>-3.7139874472083556E-5</v>
+        <v>-2.1051031555095051E-4</v>
       </c>
       <c r="P10">
-        <v>-5.4762594798932196E-6</v>
+        <v>-6.9539869590587444E-5</v>
       </c>
       <c r="Q10">
-        <v>2.4723810014268266E-5</v>
+        <v>1.6222587960817297E-4</v>
       </c>
       <c r="R10">
-        <v>1.4105371823320417E-4</v>
+        <v>1.8417938117399821E-4</v>
       </c>
       <c r="S10">
-        <v>3.6611755867906721E-4</v>
+        <v>3.6739385443292929E-4</v>
       </c>
       <c r="T10">
-        <v>2.70661612497081E-4</v>
+        <v>2.9803460748375511E-4</v>
       </c>
       <c r="U10">
-        <v>6.1121887459281155E-4</v>
+        <v>6.0375735101814154E-4</v>
       </c>
       <c r="V10">
-        <v>-1.7294458818190722E-4</v>
+        <v>1.6125545789099152E-4</v>
       </c>
       <c r="W10">
-        <v>-1.1424868775531533E-4</v>
+        <v>-1.1686118724401999E-4</v>
       </c>
       <c r="X10">
-        <v>-3.2837240402384948E-4</v>
+        <v>-3.3726839032244792E-4</v>
       </c>
       <c r="Y10">
-        <v>-2.292557311840773E-4</v>
+        <v>-2.0988205206258102E-4</v>
       </c>
       <c r="Z10">
-        <v>-7.1165472480547512E-5</v>
+        <v>-6.7777246865836568E-5</v>
       </c>
       <c r="AA10">
-        <v>4.0880391065819567E-4</v>
+        <v>4.0065146049607456E-4</v>
       </c>
       <c r="AB10">
-        <v>-3.1449843944894109E-5</v>
+        <v>-3.2051585561263088E-5</v>
       </c>
       <c r="AC10">
-        <v>9.5771434992414362E-4</v>
+        <v>9.5685469018919056E-4</v>
       </c>
       <c r="AD10">
-        <v>1.5439022577606876E-4</v>
+        <v>1.526384801148542E-4</v>
       </c>
       <c r="AE10">
-        <v>-8.4348276514966902E-2</v>
+        <v>-8.4334134735025712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39">
-        <v>-0.51998719079183642</v>
+      <c r="B11" s="4">
+        <v>-0.52075868405208481</v>
       </c>
       <c r="C11">
-        <v>-2.5637018753199743E-5</v>
+        <v>-3.1541527078094225E-5</v>
       </c>
       <c r="D11">
-        <v>1.0675152583685868E-6</v>
+        <v>1.1489927889356724E-6</v>
       </c>
       <c r="E11">
-        <v>-2.742759521533614E-4</v>
+        <v>-1.6573855702544998E-4</v>
       </c>
       <c r="F11">
-        <v>-4.004522907428156E-4</v>
+        <v>-3.3666525550350582E-4</v>
       </c>
       <c r="G11">
-        <v>-2.1574234107778765E-4</v>
+        <v>-1.5367036373404967E-4</v>
       </c>
       <c r="H11">
-        <v>-1.6834629859691086E-4</v>
+        <v>-1.0526251468419897E-4</v>
       </c>
       <c r="I11">
-        <v>-3.3257674644283713E-5</v>
+        <v>-2.8844273188870164E-5</v>
       </c>
       <c r="J11">
-        <v>1.2151169300398236E-4</v>
+        <v>1.2073080143495409E-4</v>
       </c>
       <c r="K11">
-        <v>8.2875190280757377E-2</v>
+        <v>8.2871834185098969E-2</v>
       </c>
       <c r="L11">
-        <v>8.5421031366206948E-2</v>
+        <v>8.5419971568186495E-2</v>
       </c>
       <c r="M11">
-        <v>8.3280740558860478E-2</v>
+        <v>8.3280128400755854E-2</v>
       </c>
       <c r="N11">
-        <v>8.3341505246540909E-2</v>
+        <v>8.3342217051126724E-2</v>
       </c>
       <c r="O11">
-        <v>7.9103342527565845E-5</v>
+        <v>4.7964444709822085E-5</v>
       </c>
       <c r="P11">
-        <v>1.2525684267591236E-4</v>
+        <v>1.2847329608924041E-4</v>
       </c>
       <c r="Q11">
-        <v>-2.9395514800231726E-5</v>
+        <v>-2.604565973673284E-5</v>
       </c>
       <c r="R11">
-        <v>5.2579632692846545E-5</v>
+        <v>5.3003524418195752E-5</v>
       </c>
       <c r="S11">
-        <v>8.0459690679926185E-5</v>
+        <v>7.9603239912195392E-5</v>
       </c>
       <c r="T11">
-        <v>2.4505059255102921E-4</v>
+        <v>2.4512533527073013E-4</v>
       </c>
       <c r="U11">
-        <v>1.8709314007070432E-4</v>
+        <v>1.7659913241158121E-4</v>
       </c>
       <c r="V11">
-        <v>4.2752235836780034E-4</v>
+        <v>4.1680319736302207E-4</v>
       </c>
       <c r="W11">
-        <v>4.3389515000203348E-4</v>
+        <v>4.3020560688139357E-4</v>
       </c>
       <c r="X11">
-        <v>-3.0322417417188822E-4</v>
+        <v>-3.0566327412224689E-4</v>
       </c>
       <c r="Y11">
-        <v>-2.7045324903951918E-4</v>
+        <v>-2.6948317221866342E-4</v>
       </c>
       <c r="Z11">
-        <v>-9.9574693102759057E-5</v>
+        <v>-9.741845535432038E-5</v>
       </c>
       <c r="AA11">
-        <v>-7.8526351015784784E-5</v>
+        <v>-7.7569982637221147E-5</v>
       </c>
       <c r="AB11">
-        <v>-2.4810899704596355E-5</v>
+        <v>-2.4992694351379417E-5</v>
       </c>
       <c r="AC11">
-        <v>-4.9985619872058851E-7</v>
+        <v>4.4308981341639742E-7</v>
       </c>
       <c r="AD11">
-        <v>6.8269662746121146E-5</v>
+        <v>6.9580543091508906E-5</v>
       </c>
       <c r="AE11">
-        <v>-8.3332024382730796E-2</v>
+        <v>-8.327690990504244E-2</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="41">
-        <v>-0.37238423767910545</v>
+      <c r="B12" s="4">
+        <v>-0.37249630314798254</v>
       </c>
       <c r="C12">
-        <v>-2.1153273456630921E-5</v>
+        <v>-2.7613307753013728E-5</v>
       </c>
       <c r="D12">
-        <v>1.1629883154236204E-6</v>
+        <v>1.2496043993200965E-6</v>
       </c>
       <c r="E12">
-        <v>-3.1803071448162877E-4</v>
+        <v>-1.6191451412329643E-4</v>
       </c>
       <c r="F12">
-        <v>-4.4439068376728999E-4</v>
+        <v>-3.4437223261535657E-4</v>
       </c>
       <c r="G12">
-        <v>-3.4747551126371916E-4</v>
+        <v>-2.4884395770508527E-4</v>
       </c>
       <c r="H12">
-        <v>-3.2775804405445067E-4</v>
+        <v>-2.2724671934563467E-4</v>
       </c>
       <c r="I12">
-        <v>-3.9831277607023407E-5</v>
+        <v>-3.4008886033259651E-5</v>
       </c>
       <c r="J12">
-        <v>4.7609705535686078E-5</v>
+        <v>4.5505403584093491E-5</v>
       </c>
       <c r="K12">
-        <v>8.287963409602693E-2</v>
+        <v>8.2876410299553366E-2</v>
       </c>
       <c r="L12">
-        <v>8.3280740558860478E-2</v>
+        <v>8.3280128400755854E-2</v>
       </c>
       <c r="M12">
-        <v>8.3765211892266128E-2</v>
+        <v>8.3764315412242718E-2</v>
       </c>
       <c r="N12">
-        <v>8.3548809109097538E-2</v>
+        <v>8.3548426388276475E-2</v>
       </c>
       <c r="O12">
-        <v>2.0664245529192216E-4</v>
+        <v>1.6830817657444153E-4</v>
       </c>
       <c r="P12">
-        <v>5.8702771839881651E-4</v>
+        <v>5.8018156920639635E-4</v>
       </c>
       <c r="Q12">
-        <v>-1.0587350931860057E-4</v>
+        <v>-9.3023786312249057E-5</v>
       </c>
       <c r="R12">
-        <v>-1.1709289554449193E-4</v>
+        <v>-1.1092857343964618E-4</v>
       </c>
       <c r="S12">
-        <v>1.3596154862604778E-4</v>
+        <v>1.3502364840170251E-4</v>
       </c>
       <c r="T12">
-        <v>4.8446383571146973E-4</v>
+        <v>4.8251351850275154E-4</v>
       </c>
       <c r="U12">
-        <v>7.0913630020308371E-4</v>
+        <v>6.9425597886171864E-4</v>
       </c>
       <c r="V12">
-        <v>2.0005920868916213E-4</v>
+        <v>2.0518897607303341E-4</v>
       </c>
       <c r="W12">
-        <v>4.4203605759476385E-4</v>
+        <v>4.4099040690802511E-4</v>
       </c>
       <c r="X12">
-        <v>-4.2929904151346732E-4</v>
+        <v>-4.2971129651669764E-4</v>
       </c>
       <c r="Y12">
-        <v>-1.3969527138778877E-4</v>
+        <v>-1.3738435384048724E-4</v>
       </c>
       <c r="Z12">
-        <v>-1.3958439367269329E-4</v>
+        <v>-1.3701046374394767E-4</v>
       </c>
       <c r="AA12">
-        <v>-4.4087971058945005E-5</v>
+        <v>-4.130778628612386E-5</v>
       </c>
       <c r="AB12">
-        <v>-4.0090197302805181E-5</v>
+        <v>-4.0177067824394665E-5</v>
       </c>
       <c r="AC12">
-        <v>-3.2972645652558363E-5</v>
+        <v>-3.2615095376230946E-5</v>
       </c>
       <c r="AD12">
-        <v>1.2998730502776154E-4</v>
+        <v>1.3206213094981226E-4</v>
       </c>
       <c r="AE12">
-        <v>-8.4121295624921322E-2</v>
+        <v>-8.4088537807444963E-2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="43">
-        <v>-0.41142134464859031</v>
+      <c r="B13" s="4">
+        <v>-0.41236573523790104</v>
       </c>
       <c r="C13">
-        <v>-8.3991328479077546E-5</v>
+        <v>-8.8411873720578571E-5</v>
       </c>
       <c r="D13">
-        <v>2.3508463016525937E-6</v>
+        <v>2.409143294760257E-6</v>
       </c>
       <c r="E13">
-        <v>-2.6818545181369778E-4</v>
+        <v>-9.0764528882350363E-5</v>
       </c>
       <c r="F13">
-        <v>-3.6798422135009626E-4</v>
+        <v>-2.4654036088536104E-4</v>
       </c>
       <c r="G13">
-        <v>-2.1437099830230212E-4</v>
+        <v>-9.460084646641673E-5</v>
       </c>
       <c r="H13">
-        <v>-2.4531428083442511E-4</v>
+        <v>-1.2404641904570314E-4</v>
       </c>
       <c r="I13">
-        <v>-2.7682927803793439E-5</v>
+        <v>-2.3797115805996834E-5</v>
       </c>
       <c r="J13">
-        <v>7.370461146889544E-5</v>
+        <v>7.1806095570527508E-5</v>
       </c>
       <c r="K13">
-        <v>8.2989299327128216E-2</v>
+        <v>8.2981687765313145E-2</v>
       </c>
       <c r="L13">
-        <v>8.3341505246540909E-2</v>
+        <v>8.3342217051126724E-2</v>
       </c>
       <c r="M13">
-        <v>8.3548809109097538E-2</v>
+        <v>8.3548426388276475E-2</v>
       </c>
       <c r="N13">
-        <v>8.4512758441725497E-2</v>
+        <v>8.4513626240214496E-2</v>
       </c>
       <c r="O13">
-        <v>6.7269785342537192E-4</v>
+        <v>6.4575275445474811E-4</v>
       </c>
       <c r="P13">
-        <v>5.6138689906955891E-4</v>
+        <v>5.5958593780584126E-4</v>
       </c>
       <c r="Q13">
-        <v>-5.2218890525825706E-4</v>
+        <v>-5.2162143356596774E-4</v>
       </c>
       <c r="R13">
-        <v>1.0063467866180606E-4</v>
+        <v>1.0082987068376487E-4</v>
       </c>
       <c r="S13">
-        <v>1.4000061556326761E-4</v>
+        <v>1.3966227294142275E-4</v>
       </c>
       <c r="T13">
-        <v>5.6247699504126392E-4</v>
+        <v>5.5679838430277087E-4</v>
       </c>
       <c r="U13">
-        <v>4.2530844299737414E-4</v>
+        <v>4.1636436504424723E-4</v>
       </c>
       <c r="V13">
-        <v>1.3054573460295066E-4</v>
+        <v>9.7114099795445052E-5</v>
       </c>
       <c r="W13">
-        <v>4.9102521351839651E-4</v>
+        <v>4.9129340780704016E-4</v>
       </c>
       <c r="X13">
-        <v>-3.7515603437470076E-4</v>
+        <v>-3.7605980529839891E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.2557643891206302E-4</v>
+        <v>-1.2358107971679046E-4</v>
       </c>
       <c r="Z13">
-        <v>-1.4808143195987368E-4</v>
+        <v>-1.4394488598761749E-4</v>
       </c>
       <c r="AA13">
-        <v>2.969788799661241E-5</v>
+        <v>3.3704867494124997E-5</v>
       </c>
       <c r="AB13">
-        <v>-3.5925461942726379E-5</v>
+        <v>-3.6091812418058869E-5</v>
       </c>
       <c r="AC13">
-        <v>-1.1103815602964834E-4</v>
+        <v>-1.103320154097337E-4</v>
       </c>
       <c r="AD13">
-        <v>1.2162221787972646E-4</v>
+        <v>1.2590565861324982E-4</v>
       </c>
       <c r="AE13">
-        <v>-8.3347035282245741E-2</v>
+        <v>-8.3377091554676208E-2</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="45">
-        <v>-1.3633778281576885</v>
+      <c r="B14" s="4">
+        <v>-1.3666981549696571</v>
       </c>
       <c r="C14">
-        <v>1.234822548611212E-5</v>
+        <v>-1.3374487560073936E-5</v>
       </c>
       <c r="D14">
-        <v>-3.2323076743185979E-7</v>
+        <v>1.9753100939060454E-8</v>
       </c>
       <c r="E14">
-        <v>-1.1675905887447826E-3</v>
+        <v>-5.3570796324276145E-4</v>
       </c>
       <c r="F14">
-        <v>-4.3080604711377788E-4</v>
+        <v>5.0301205081780542E-5</v>
       </c>
       <c r="G14">
-        <v>-9.1097676036529761E-5</v>
+        <v>3.9649181941053564E-4</v>
       </c>
       <c r="H14">
-        <v>-2.6979178681509411E-4</v>
+        <v>2.1875378804844109E-4</v>
       </c>
       <c r="I14">
-        <v>-2.7858522378121961E-4</v>
+        <v>-2.5639246789684674E-4</v>
       </c>
       <c r="J14">
-        <v>-6.1796644159176767E-5</v>
+        <v>-7.6016943082586239E-5</v>
       </c>
       <c r="K14">
-        <v>-3.7139874472083556E-5</v>
+        <v>-2.1051031555095051E-4</v>
       </c>
       <c r="L14">
-        <v>7.9103342527565845E-5</v>
+        <v>4.7964444709822085E-5</v>
       </c>
       <c r="M14">
-        <v>2.0664245529192216E-4</v>
+        <v>1.6830817657444153E-4</v>
       </c>
       <c r="N14">
-        <v>6.7269785342537192E-4</v>
+        <v>6.4575275445474811E-4</v>
       </c>
       <c r="O14">
-        <v>3.3609565192407716E-2</v>
+        <v>3.4275187193053627E-2</v>
       </c>
       <c r="P14">
-        <v>5.8987165591850178E-3</v>
+        <v>6.0528440511936456E-3</v>
       </c>
       <c r="Q14">
-        <v>-2.9373616824494062E-2</v>
+        <v>-3.0032539010606794E-2</v>
       </c>
       <c r="R14">
-        <v>-4.3090583016206488E-3</v>
+        <v>-4.4492852454175143E-3</v>
       </c>
       <c r="S14">
-        <v>-1.992207411608786E-5</v>
+        <v>-2.2609138632513956E-5</v>
       </c>
       <c r="T14">
-        <v>4.8981538417444724E-4</v>
+        <v>4.1073535109521807E-4</v>
       </c>
       <c r="U14">
-        <v>-4.3982404666026778E-4</v>
+        <v>-4.670240040958631E-4</v>
       </c>
       <c r="V14">
-        <v>4.652263063509676E-4</v>
+        <v>3.3126512404285224E-4</v>
       </c>
       <c r="W14">
-        <v>1.0078380057327481E-4</v>
+        <v>9.9540523113315346E-5</v>
       </c>
       <c r="X14">
-        <v>1.3561579801893377E-4</v>
+        <v>1.4572904540082705E-4</v>
       </c>
       <c r="Y14">
-        <v>-5.1453682638231298E-5</v>
+        <v>-1.4476023578295129E-5</v>
       </c>
       <c r="Z14">
-        <v>7.836347083914512E-5</v>
+        <v>8.6666523385264233E-5</v>
       </c>
       <c r="AA14">
-        <v>4.8961119311866899E-5</v>
+        <v>7.6975428059357289E-5</v>
       </c>
       <c r="AB14">
-        <v>3.8463455180353778E-5</v>
+        <v>3.7613223708484802E-5</v>
       </c>
       <c r="AC14">
-        <v>-6.8473880849646894E-4</v>
+        <v>-6.7309179495828216E-4</v>
       </c>
       <c r="AD14">
-        <v>-1.3593520936344461E-4</v>
+        <v>-1.1046275051395581E-4</v>
       </c>
       <c r="AE14">
-        <v>3.0767676376209849E-4</v>
+        <v>3.4037936057130288E-4</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47">
-        <v>-0.95221022708584369</v>
+      <c r="B15" s="4">
+        <v>-0.95640972697667948</v>
       </c>
       <c r="C15">
-        <v>-1.1530253781676623E-4</v>
+        <v>-1.2438374410790858E-4</v>
       </c>
       <c r="D15">
-        <v>1.9447789392182824E-6</v>
+        <v>2.0615162463217119E-6</v>
       </c>
       <c r="E15">
-        <v>-2.0823102968988046E-5</v>
+        <v>-1.5065480844195841E-4</v>
       </c>
       <c r="F15">
-        <v>-9.9372992813265629E-4</v>
+        <v>-9.2488974327337116E-4</v>
       </c>
       <c r="G15">
-        <v>-1.189560739585511E-3</v>
+        <v>-1.1151659551013769E-3</v>
       </c>
       <c r="H15">
-        <v>-1.0616705449550492E-3</v>
+        <v>-9.8346772920043617E-4</v>
       </c>
       <c r="I15">
-        <v>-1.7693032255277686E-4</v>
+        <v>-1.6455550062162666E-4</v>
       </c>
       <c r="J15">
-        <v>1.4638420962960594E-4</v>
+        <v>1.3689369312874485E-4</v>
       </c>
       <c r="K15">
-        <v>-5.4762594798932196E-6</v>
+        <v>-6.9539869590587444E-5</v>
       </c>
       <c r="L15">
-        <v>1.2525684267591236E-4</v>
+        <v>1.2847329608924041E-4</v>
       </c>
       <c r="M15">
-        <v>5.8702771839881651E-4</v>
+        <v>5.8018156920639635E-4</v>
       </c>
       <c r="N15">
-        <v>5.6138689906955891E-4</v>
+        <v>5.5958593780584126E-4</v>
       </c>
       <c r="O15">
-        <v>5.8987165591850178E-3</v>
+        <v>6.0528440511936456E-3</v>
       </c>
       <c r="P15">
-        <v>2.1912532250651467E-2</v>
+        <v>2.2193833032580299E-2</v>
       </c>
       <c r="Q15">
-        <v>-6.3216754622687898E-3</v>
+        <v>-6.4034514666916238E-3</v>
       </c>
       <c r="R15">
-        <v>-1.7452659384601062E-2</v>
+        <v>-1.7738744146246741E-2</v>
       </c>
       <c r="S15">
-        <v>-1.1957410610873282E-4</v>
+        <v>-1.2322835828091987E-4</v>
       </c>
       <c r="T15">
-        <v>4.2988783671372641E-4</v>
+        <v>3.4510422344793089E-4</v>
       </c>
       <c r="U15">
-        <v>2.0128566958096728E-3</v>
+        <v>2.0150147237816638E-3</v>
       </c>
       <c r="V15">
-        <v>1.1581321943142153E-4</v>
+        <v>-1.0295864663157516E-5</v>
       </c>
       <c r="W15">
-        <v>2.8828596758281682E-4</v>
+        <v>3.1496395423417125E-4</v>
       </c>
       <c r="X15">
-        <v>-8.1460771950375363E-5</v>
+        <v>-6.3573599325884015E-5</v>
       </c>
       <c r="Y15">
-        <v>5.5630632099236844E-4</v>
+        <v>5.7672157561442644E-4</v>
       </c>
       <c r="Z15">
-        <v>2.0523277303142302E-4</v>
+        <v>2.2223745881774852E-4</v>
       </c>
       <c r="AA15">
-        <v>1.9824562976410592E-5</v>
+        <v>4.1975668259770041E-5</v>
       </c>
       <c r="AB15">
-        <v>-3.7282983393618171E-5</v>
+        <v>-3.8483835404416831E-5</v>
       </c>
       <c r="AC15">
-        <v>2.4583498692334969E-4</v>
+        <v>2.5553188996572555E-4</v>
       </c>
       <c r="AD15">
-        <v>1.2403626087485807E-4</v>
+        <v>1.3684467212457562E-4</v>
       </c>
       <c r="AE15">
-        <v>7.501842000787488E-5</v>
+        <v>1.6130265571838529E-4</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="49">
-        <v>1.2751537783175062</v>
+      <c r="B16" s="4">
+        <v>1.2818423187328909</v>
       </c>
       <c r="C16">
-        <v>2.1825390154670346E-5</v>
+        <v>3.8803979237556942E-5</v>
       </c>
       <c r="D16">
-        <v>3.4581054733089805E-7</v>
+        <v>1.2487758360248179E-7</v>
       </c>
       <c r="E16">
-        <v>1.9489936525361046E-4</v>
+        <v>-8.7821303766875709E-4</v>
       </c>
       <c r="F16">
-        <v>1.4628433847370696E-3</v>
+        <v>7.1563201571095587E-4</v>
       </c>
       <c r="G16">
-        <v>1.4267835289482472E-3</v>
+        <v>6.7674111187977521E-4</v>
       </c>
       <c r="H16">
-        <v>1.6759863825412695E-3</v>
+        <v>9.2787614503473705E-4</v>
       </c>
       <c r="I16">
-        <v>3.6981904280636833E-4</v>
+        <v>3.5449748636697659E-4</v>
       </c>
       <c r="J16">
-        <v>2.227347472390722E-4</v>
+        <v>2.3466668338923622E-4</v>
       </c>
       <c r="K16">
-        <v>2.4723810014268266E-5</v>
+        <v>1.6222587960817297E-4</v>
       </c>
       <c r="L16">
-        <v>-2.9395514800231726E-5</v>
+        <v>-2.604565973673284E-5</v>
       </c>
       <c r="M16">
-        <v>-1.0587350931860057E-4</v>
+        <v>-9.3023786312249057E-5</v>
       </c>
       <c r="N16">
-        <v>-5.2218890525825706E-4</v>
+        <v>-5.2162143356596774E-4</v>
       </c>
       <c r="O16">
-        <v>-2.9373616824494062E-2</v>
+        <v>-3.0032539010606794E-2</v>
       </c>
       <c r="P16">
-        <v>-6.3216754622687898E-3</v>
+        <v>-6.4034514666916238E-3</v>
       </c>
       <c r="Q16">
-        <v>3.0220287104532208E-2</v>
+        <v>3.0885821902589688E-2</v>
       </c>
       <c r="R16">
-        <v>5.3802901025462617E-3</v>
+        <v>5.4542993961123063E-3</v>
       </c>
       <c r="S16">
-        <v>-3.6732713137543125E-5</v>
+        <v>-3.4065929495820203E-5</v>
       </c>
       <c r="T16">
-        <v>-7.6561476285098753E-4</v>
+        <v>-6.9032763023016007E-4</v>
       </c>
       <c r="U16">
-        <v>-1.9637825898570667E-4</v>
+        <v>-1.432839548329741E-4</v>
       </c>
       <c r="V16">
-        <v>-1.3493301984151523E-3</v>
+        <v>-1.2706597483894827E-3</v>
       </c>
       <c r="W16">
-        <v>2.2797268138895297E-4</v>
+        <v>2.2805682392556582E-4</v>
       </c>
       <c r="X16">
-        <v>-3.0011804533896711E-4</v>
+        <v>-3.1984763490598966E-4</v>
       </c>
       <c r="Y16">
-        <v>8.0872951090252894E-6</v>
+        <v>-2.4291874862023512E-5</v>
       </c>
       <c r="Z16">
-        <v>-6.8536467122616367E-5</v>
+        <v>-8.097763906476181E-5</v>
       </c>
       <c r="AA16">
-        <v>-6.0005475086338453E-5</v>
+        <v>-8.9977630353798872E-5</v>
       </c>
       <c r="AB16">
-        <v>-3.6409510258030459E-5</v>
+        <v>-3.459421253747977E-5</v>
       </c>
       <c r="AC16">
-        <v>6.2082760490027897E-4</v>
+        <v>6.0409364286227577E-4</v>
       </c>
       <c r="AD16">
-        <v>1.6540893556114301E-5</v>
+        <v>-1.7066499037643066E-5</v>
       </c>
       <c r="AE16">
-        <v>-2.4180712950002889E-3</v>
+        <v>-2.0661404792009334E-3</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="51">
-        <v>0.67722195507465033</v>
+      <c r="B17" s="4">
+        <v>0.68000310201483605</v>
       </c>
       <c r="C17">
-        <v>-1.7190563026398247E-4</v>
+        <v>-1.6680758625547618E-4</v>
       </c>
       <c r="D17">
-        <v>2.8516321757005177E-6</v>
+        <v>2.7836040595898275E-6</v>
       </c>
       <c r="E17">
-        <v>-3.2479251969564672E-4</v>
+        <v>2.4251479184925727E-4</v>
       </c>
       <c r="F17">
-        <v>1.1682022201736815E-3</v>
+        <v>1.4223711804113805E-3</v>
       </c>
       <c r="G17">
-        <v>1.5496800106848969E-3</v>
+        <v>1.8029475101716834E-3</v>
       </c>
       <c r="H17">
-        <v>1.7200153599421068E-3</v>
+        <v>1.9743958653135065E-3</v>
       </c>
       <c r="I17">
-        <v>2.8266555688290598E-4</v>
+        <v>2.793967991802116E-4</v>
       </c>
       <c r="J17">
-        <v>1.5798242461768138E-4</v>
+        <v>1.6509501313555008E-4</v>
       </c>
       <c r="K17">
-        <v>1.4105371823320417E-4</v>
+        <v>1.8417938117399821E-4</v>
       </c>
       <c r="L17">
-        <v>5.2579632692846545E-5</v>
+        <v>5.3003524418195752E-5</v>
       </c>
       <c r="M17">
-        <v>-1.1709289554449193E-4</v>
+        <v>-1.1092857343964618E-4</v>
       </c>
       <c r="N17">
-        <v>1.0063467866180606E-4</v>
+        <v>1.0082987068376487E-4</v>
       </c>
       <c r="O17">
-        <v>-4.3090583016206488E-3</v>
+        <v>-4.4492852454175143E-3</v>
       </c>
       <c r="P17">
-        <v>-1.7452659384601062E-2</v>
+        <v>-1.7738744146246741E-2</v>
       </c>
       <c r="Q17">
-        <v>5.3802901025462617E-3</v>
+        <v>5.4542993961123063E-3</v>
       </c>
       <c r="R17">
-        <v>1.8195694002490815E-2</v>
+        <v>1.8504837060785345E-2</v>
       </c>
       <c r="S17">
-        <v>6.1121601351327024E-5</v>
+        <v>6.1073415928064007E-5</v>
       </c>
       <c r="T17">
-        <v>-2.8143041964132331E-4</v>
+        <v>-2.324218125046686E-4</v>
       </c>
       <c r="U17">
-        <v>-2.4225286174525077E-3</v>
+        <v>-2.4614746630645316E-3</v>
       </c>
       <c r="V17">
-        <v>-2.6022458391555798E-4</v>
+        <v>-8.6399629170084871E-5</v>
       </c>
       <c r="W17">
-        <v>3.8903146806857432E-6</v>
+        <v>-5.9328063218875107E-6</v>
       </c>
       <c r="X17">
-        <v>1.6332099303579419E-4</v>
+        <v>1.6319947054665488E-4</v>
       </c>
       <c r="Y17">
-        <v>-2.8923199861984039E-4</v>
+        <v>-2.925077307532047E-4</v>
       </c>
       <c r="Z17">
-        <v>-7.1644996800664736E-5</v>
+        <v>-7.1891819530184715E-5</v>
       </c>
       <c r="AA17">
-        <v>1.4333481296080624E-4</v>
+        <v>1.4105864094279046E-4</v>
       </c>
       <c r="AB17">
-        <v>3.4003748582447934E-5</v>
+        <v>3.4298655472778508E-5</v>
       </c>
       <c r="AC17">
-        <v>-3.6154379198901818E-4</v>
+        <v>-3.6694918157151053E-4</v>
       </c>
       <c r="AD17">
-        <v>-2.5436662718069877E-4</v>
+        <v>-2.5446161625342566E-4</v>
       </c>
       <c r="AE17">
-        <v>3.0814129263391239E-3</v>
+        <v>2.7813403910047878E-3</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="53">
-        <v>-0.12712546974661831</v>
+      <c r="B18" s="4">
+        <v>-0.12679534191093184</v>
       </c>
       <c r="C18">
-        <v>1.9389383421727614E-4</v>
+        <v>1.947441317754331E-4</v>
       </c>
       <c r="D18">
-        <v>-2.8412203919372529E-6</v>
+        <v>-2.8537664422911215E-6</v>
       </c>
       <c r="E18">
-        <v>6.9195568655116394E-5</v>
+        <v>1.0405837846131281E-4</v>
       </c>
       <c r="F18">
-        <v>-4.5044925689812886E-5</v>
+        <v>-3.7015665174828247E-5</v>
       </c>
       <c r="G18">
-        <v>6.9377657403724933E-5</v>
+        <v>7.7781518590809394E-5</v>
       </c>
       <c r="H18">
-        <v>3.2717141025807883E-4</v>
+        <v>3.3545296529073691E-4</v>
       </c>
       <c r="I18">
-        <v>-8.8207945672978471E-6</v>
+        <v>-7.3133401155123659E-6</v>
       </c>
       <c r="J18">
-        <v>1.3592558747652173E-4</v>
+        <v>1.3603830131956427E-4</v>
       </c>
       <c r="K18">
-        <v>3.6611755867906721E-4</v>
+        <v>3.6739385443292929E-4</v>
       </c>
       <c r="L18">
-        <v>8.0459690679926185E-5</v>
+        <v>7.9603239912195392E-5</v>
       </c>
       <c r="M18">
-        <v>1.3596154862604778E-4</v>
+        <v>1.3502364840170251E-4</v>
       </c>
       <c r="N18">
-        <v>1.4000061556326761E-4</v>
+        <v>1.3966227294142275E-4</v>
       </c>
       <c r="O18">
-        <v>-1.992207411608786E-5</v>
+        <v>-2.2609138632513956E-5</v>
       </c>
       <c r="P18">
-        <v>-1.1957410610873282E-4</v>
+        <v>-1.2322835828091987E-4</v>
       </c>
       <c r="Q18">
-        <v>-3.6732713137543125E-5</v>
+        <v>-3.4065929495820203E-5</v>
       </c>
       <c r="R18">
-        <v>6.1121601351327024E-5</v>
+        <v>6.1073415928064007E-5</v>
       </c>
       <c r="S18">
-        <v>1.0762747463148889E-3</v>
+        <v>1.0759658833633277E-3</v>
       </c>
       <c r="T18">
-        <v>8.0911208829022416E-4</v>
+        <v>8.0292449449157616E-4</v>
       </c>
       <c r="U18">
-        <v>-1.9157442126631861E-5</v>
+        <v>-1.5669880500687391E-5</v>
       </c>
       <c r="V18">
-        <v>1.7106104631424792E-4</v>
+        <v>1.8037970960489659E-4</v>
       </c>
       <c r="W18">
-        <v>-1.3160585433539916E-4</v>
+        <v>-1.3073860672890771E-4</v>
       </c>
       <c r="X18">
-        <v>-1.1117960392512317E-4</v>
+        <v>-1.0840432266838104E-4</v>
       </c>
       <c r="Y18">
-        <v>-5.8963714150741078E-5</v>
+        <v>-5.6093069739961656E-5</v>
       </c>
       <c r="Z18">
-        <v>-2.5955694487994813E-5</v>
+        <v>-2.4554430232965393E-5</v>
       </c>
       <c r="AA18">
-        <v>3.7448785804710863E-5</v>
+        <v>3.9734733353461192E-5</v>
       </c>
       <c r="AB18">
-        <v>1.5463487519212023E-5</v>
+        <v>1.5155706942442265E-5</v>
       </c>
       <c r="AC18">
-        <v>1.1280617639841423E-4</v>
+        <v>1.1371041802333659E-4</v>
       </c>
       <c r="AD18">
-        <v>6.9057138736022426E-6</v>
+        <v>8.0595371579245166E-6</v>
       </c>
       <c r="AE18">
-        <v>-4.2963695737436094E-3</v>
+        <v>-4.3217647110433202E-3</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="55">
-        <v>5.1091694664677084E-2</v>
+      <c r="B19" s="4">
+        <v>5.241224072958791E-2</v>
       </c>
       <c r="C19">
-        <v>4.3450617127119935E-4</v>
+        <v>4.3471502857014128E-4</v>
       </c>
       <c r="D19">
-        <v>-6.1664703314791651E-6</v>
+        <v>-6.1831073483209926E-6</v>
       </c>
       <c r="E19">
-        <v>-5.9561258227260668E-4</v>
+        <v>4.1395703325142544E-5</v>
       </c>
       <c r="F19">
-        <v>-5.0077166902740889E-4</v>
+        <v>-4.7450991342242767E-6</v>
       </c>
       <c r="G19">
-        <v>-2.9917956688126069E-4</v>
+        <v>1.9835443114895115E-4</v>
       </c>
       <c r="H19">
-        <v>-5.5245771119650979E-5</v>
+        <v>4.4413110305570411E-4</v>
       </c>
       <c r="I19">
-        <v>-1.3269947587620876E-4</v>
+        <v>-1.3389038541586801E-4</v>
       </c>
       <c r="J19">
-        <v>2.2128617088444761E-4</v>
+        <v>2.173749503133859E-4</v>
       </c>
       <c r="K19">
-        <v>2.70661612497081E-4</v>
+        <v>2.9803460748375511E-4</v>
       </c>
       <c r="L19">
-        <v>2.4505059255102921E-4</v>
+        <v>2.4512533527073013E-4</v>
       </c>
       <c r="M19">
-        <v>4.8446383571146973E-4</v>
+        <v>4.8251351850275154E-4</v>
       </c>
       <c r="N19">
-        <v>5.6247699504126392E-4</v>
+        <v>5.5679838430277087E-4</v>
       </c>
       <c r="O19">
-        <v>4.8981538417444724E-4</v>
+        <v>4.1073535109521807E-4</v>
       </c>
       <c r="P19">
-        <v>4.2988783671372641E-4</v>
+        <v>3.4510422344793089E-4</v>
       </c>
       <c r="Q19">
-        <v>-7.6561476285098753E-4</v>
+        <v>-6.9032763023016007E-4</v>
       </c>
       <c r="R19">
-        <v>-2.8143041964132331E-4</v>
+        <v>-2.324218125046686E-4</v>
       </c>
       <c r="S19">
-        <v>8.0911208829022416E-4</v>
+        <v>8.0292449449157616E-4</v>
       </c>
       <c r="T19">
-        <v>4.9416312575264985E-3</v>
+        <v>4.9289015770234978E-3</v>
       </c>
       <c r="U19">
-        <v>6.2772738839817453E-4</v>
+        <v>5.9655935435154808E-4</v>
       </c>
       <c r="V19">
-        <v>1.4396961033033215E-4</v>
+        <v>1.7497935097796243E-4</v>
       </c>
       <c r="W19">
-        <v>-1.8318601931973397E-4</v>
+        <v>-1.7031805515383064E-4</v>
       </c>
       <c r="X19">
-        <v>-2.3644692048998498E-4</v>
+        <v>-2.2551490936946461E-4</v>
       </c>
       <c r="Y19">
-        <v>5.3336433246983542E-5</v>
+        <v>5.9127531784984258E-5</v>
       </c>
       <c r="Z19">
-        <v>-2.7631724145534258E-4</v>
+        <v>-2.5553700816080408E-4</v>
       </c>
       <c r="AA19">
-        <v>-1.8949403070802522E-6</v>
+        <v>1.5704236375953164E-5</v>
       </c>
       <c r="AB19">
-        <v>2.6744772831589058E-5</v>
+        <v>2.7198838766744183E-5</v>
       </c>
       <c r="AC19">
-        <v>2.2465147871436175E-5</v>
+        <v>1.9459314515334666E-5</v>
       </c>
       <c r="AD19">
-        <v>-8.4599209095874602E-6</v>
+        <v>3.1869475301858977E-7</v>
       </c>
       <c r="AE19">
-        <v>-9.3987792149767546E-3</v>
+        <v>-9.8555814007287648E-3</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="57">
-        <v>0.11300823795809738</v>
+      <c r="B20" s="4">
+        <v>0.11063101576622791</v>
       </c>
       <c r="C20">
-        <v>1.9086488021640216E-4</v>
+        <v>1.9357893824640052E-4</v>
       </c>
       <c r="D20">
-        <v>-2.4163710250259545E-6</v>
+        <v>-2.4669061481880734E-6</v>
       </c>
       <c r="E20">
-        <v>-7.8986279718174304E-4</v>
+        <v>-5.8386536153932217E-4</v>
       </c>
       <c r="F20">
-        <v>-5.9878199517716252E-4</v>
+        <v>-5.2978498675384025E-4</v>
       </c>
       <c r="G20">
-        <v>-5.4888349727362853E-4</v>
+        <v>-4.7313862871178197E-4</v>
       </c>
       <c r="H20">
-        <v>-9.3626984333958045E-4</v>
+        <v>-8.5685858290911535E-4</v>
       </c>
       <c r="I20">
-        <v>6.3568816871675728E-5</v>
+        <v>7.4629929772399364E-5</v>
       </c>
       <c r="J20">
-        <v>3.3359573112180275E-5</v>
+        <v>2.2839203501109819E-5</v>
       </c>
       <c r="K20">
-        <v>6.1121887459281155E-4</v>
+        <v>6.0375735101814154E-4</v>
       </c>
       <c r="L20">
-        <v>1.8709314007070432E-4</v>
+        <v>1.7659913241158121E-4</v>
       </c>
       <c r="M20">
-        <v>7.0913630020308371E-4</v>
+        <v>6.9425597886171864E-4</v>
       </c>
       <c r="N20">
-        <v>4.2530844299737414E-4</v>
+        <v>4.1636436504424723E-4</v>
       </c>
       <c r="O20">
-        <v>-4.3982404666026778E-4</v>
+        <v>-4.670240040958631E-4</v>
       </c>
       <c r="P20">
-        <v>2.0128566958096728E-3</v>
+        <v>2.0150147237816638E-3</v>
       </c>
       <c r="Q20">
-        <v>-1.9637825898570667E-4</v>
+        <v>-1.432839548329741E-4</v>
       </c>
       <c r="R20">
-        <v>-2.4225286174525077E-3</v>
+        <v>-2.4614746630645316E-3</v>
       </c>
       <c r="S20">
-        <v>-1.9157442126631861E-5</v>
+        <v>-1.5669880500687391E-5</v>
       </c>
       <c r="T20">
-        <v>6.2772738839817453E-4</v>
+        <v>5.9655935435154808E-4</v>
       </c>
       <c r="U20">
-        <v>6.2399830516832205E-2</v>
+        <v>6.2416381217973604E-2</v>
       </c>
       <c r="V20">
-        <v>-4.7395433111303321E-4</v>
+        <v>-5.5332822571069196E-4</v>
       </c>
       <c r="W20">
-        <v>-1.7132176396601317E-4</v>
+        <v>-1.6582405919078613E-4</v>
       </c>
       <c r="X20">
-        <v>-1.1448393804763552E-4</v>
+        <v>-1.0110544697143359E-4</v>
       </c>
       <c r="Y20">
-        <v>4.7572957865995213E-4</v>
+        <v>5.0825368584891538E-4</v>
       </c>
       <c r="Z20">
-        <v>3.7246535818998613E-4</v>
+        <v>3.8721777011389066E-4</v>
       </c>
       <c r="AA20">
-        <v>4.8037385295333218E-4</v>
+        <v>5.0385381250580511E-4</v>
       </c>
       <c r="AB20">
-        <v>-3.913888052711159E-4</v>
+        <v>-3.9127415409934688E-4</v>
       </c>
       <c r="AC20">
-        <v>-6.8864459864743932E-4</v>
+        <v>-6.8635028850618646E-4</v>
       </c>
       <c r="AD20">
-        <v>3.5538966195090838E-3</v>
+        <v>3.5561337847151743E-3</v>
       </c>
       <c r="AE20">
-        <v>-8.2396922393796479E-2</v>
+        <v>-8.2547430247715436E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="59">
-        <v>0.15376115531248755</v>
+      <c r="B21" s="4">
+        <v>0.19022205113550281</v>
       </c>
       <c r="C21">
-        <v>1.078906696481312E-3</v>
+        <v>1.0631072895968168E-3</v>
       </c>
       <c r="D21">
-        <v>-1.4764796620095758E-5</v>
+        <v>-1.454936170305119E-5</v>
       </c>
       <c r="E21">
-        <v>1.6997991407301908E-3</v>
+        <v>6.773953233228081E-4</v>
       </c>
       <c r="F21">
-        <v>2.1890251863842585E-3</v>
+        <v>1.5904068474530369E-3</v>
       </c>
       <c r="G21">
-        <v>2.2558182249596153E-3</v>
+        <v>1.6867222181433899E-3</v>
       </c>
       <c r="H21">
-        <v>2.234158002845911E-3</v>
+        <v>1.6602337093677188E-3</v>
       </c>
       <c r="I21">
-        <v>-3.2398186333028474E-4</v>
+        <v>-2.9872660484829718E-4</v>
       </c>
       <c r="J21">
-        <v>1.7780495786996915E-5</v>
+        <v>9.261436040511415E-6</v>
       </c>
       <c r="K21">
-        <v>-1.7294458818190722E-4</v>
+        <v>1.6125545789099152E-4</v>
       </c>
       <c r="L21">
-        <v>4.2752235836780034E-4</v>
+        <v>4.1680319736302207E-4</v>
       </c>
       <c r="M21">
-        <v>2.0005920868916213E-4</v>
+        <v>2.0518897607303341E-4</v>
       </c>
       <c r="N21">
-        <v>1.3054573460295066E-4</v>
+        <v>9.7114099795445052E-5</v>
       </c>
       <c r="O21">
-        <v>4.652263063509676E-4</v>
+        <v>3.3126512404285224E-4</v>
       </c>
       <c r="P21">
-        <v>1.1581321943142153E-4</v>
+        <v>-1.0295864663157516E-5</v>
       </c>
       <c r="Q21">
-        <v>-1.3493301984151523E-3</v>
+        <v>-1.2706597483894827E-3</v>
       </c>
       <c r="R21">
-        <v>-2.6022458391555798E-4</v>
+        <v>-8.6399629170084871E-5</v>
       </c>
       <c r="S21">
-        <v>1.7106104631424792E-4</v>
+        <v>1.8037970960489659E-4</v>
       </c>
       <c r="T21">
-        <v>1.4396961033033215E-4</v>
+        <v>1.7497935097796243E-4</v>
       </c>
       <c r="U21">
-        <v>-4.7395433111303321E-4</v>
+        <v>-5.5332822571069196E-4</v>
       </c>
       <c r="V21">
-        <v>2.5723882510138362E-2</v>
+        <v>2.6554586964711607E-2</v>
       </c>
       <c r="W21">
-        <v>8.8179551811456806E-4</v>
+        <v>8.7860549184854645E-4</v>
       </c>
       <c r="X21">
-        <v>5.241664944592001E-5</v>
+        <v>4.8025606296229952E-5</v>
       </c>
       <c r="Y21">
-        <v>-2.7023042697482008E-4</v>
+        <v>-2.6309026299803427E-4</v>
       </c>
       <c r="Z21">
-        <v>6.3500243911231028E-5</v>
+        <v>5.0032542923867307E-5</v>
       </c>
       <c r="AA21">
-        <v>6.5462845618639853E-5</v>
+        <v>5.8385559995398567E-5</v>
       </c>
       <c r="AB21">
-        <v>2.0810508432106609E-5</v>
+        <v>2.2382438987754517E-5</v>
       </c>
       <c r="AC21">
-        <v>-9.1721888776640295E-5</v>
+        <v>-8.6796940181330454E-5</v>
       </c>
       <c r="AD21">
-        <v>2.4317653328421139E-5</v>
+        <v>-4.1270956198926831E-6</v>
       </c>
       <c r="AE21">
-        <v>-2.1283791010560729E-2</v>
+        <v>-2.036382538737308E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="61">
-        <v>-0.11640528145490285</v>
+      <c r="B22" s="4">
+        <v>-0.11594130982018155</v>
       </c>
       <c r="C22">
-        <v>7.7966711135561738E-5</v>
+        <v>8.1037235200115409E-5</v>
       </c>
       <c r="D22">
-        <v>-8.9210490491208624E-7</v>
+        <v>-9.3142986738973946E-7</v>
       </c>
       <c r="E22">
-        <v>-1.6701666528623677E-5</v>
+        <v>-2.189067059590107E-4</v>
       </c>
       <c r="F22">
-        <v>4.7951450973168612E-4</v>
+        <v>3.4132770771835613E-4</v>
       </c>
       <c r="G22">
-        <v>8.0577106028802939E-4</v>
+        <v>6.6771187474433261E-4</v>
       </c>
       <c r="H22">
-        <v>8.923740403822502E-4</v>
+        <v>7.5440267026996057E-4</v>
       </c>
       <c r="I22">
-        <v>-4.175587528855085E-5</v>
+        <v>-4.3978829278430964E-5</v>
       </c>
       <c r="J22">
-        <v>-1.3722554738599904E-4</v>
+        <v>-1.3615565908349213E-4</v>
       </c>
       <c r="K22">
-        <v>-1.1424868775531533E-4</v>
+        <v>-1.1686118724401999E-4</v>
       </c>
       <c r="L22">
-        <v>4.3389515000203348E-4</v>
+        <v>4.3020560688139357E-4</v>
       </c>
       <c r="M22">
-        <v>4.4203605759476385E-4</v>
+        <v>4.4099040690802511E-4</v>
       </c>
       <c r="N22">
-        <v>4.9102521351839651E-4</v>
+        <v>4.9129340780704016E-4</v>
       </c>
       <c r="O22">
-        <v>1.0078380057327481E-4</v>
+        <v>9.9540523113315346E-5</v>
       </c>
       <c r="P22">
-        <v>2.8828596758281682E-4</v>
+        <v>3.1496395423417125E-4</v>
       </c>
       <c r="Q22">
-        <v>2.2797268138895297E-4</v>
+        <v>2.2805682392556582E-4</v>
       </c>
       <c r="R22">
-        <v>3.8903146806857432E-6</v>
+        <v>-5.9328063218875107E-6</v>
       </c>
       <c r="S22">
-        <v>-1.3160585433539916E-4</v>
+        <v>-1.3073860672890771E-4</v>
       </c>
       <c r="T22">
-        <v>-1.8318601931973397E-4</v>
+        <v>-1.7031805515383064E-4</v>
       </c>
       <c r="U22">
-        <v>-1.7132176396601317E-4</v>
+        <v>-1.6582405919078613E-4</v>
       </c>
       <c r="V22">
-        <v>8.8179551811456806E-4</v>
+        <v>8.7860549184854645E-4</v>
       </c>
       <c r="W22">
-        <v>1.3863324602620209E-3</v>
+        <v>1.3873488472551769E-3</v>
       </c>
       <c r="X22">
-        <v>3.8624730795055182E-5</v>
+        <v>3.7195472163956302E-5</v>
       </c>
       <c r="Y22">
-        <v>1.1170449952136607E-4</v>
+        <v>1.08302266616709E-4</v>
       </c>
       <c r="Z22">
-        <v>9.0745623487543779E-5</v>
+        <v>8.8577990854320497E-5</v>
       </c>
       <c r="AA22">
-        <v>6.5376232467583193E-5</v>
+        <v>6.3234820791791587E-5</v>
       </c>
       <c r="AB22">
-        <v>5.7313857068712127E-6</v>
+        <v>5.8217983257112269E-6</v>
       </c>
       <c r="AC22">
-        <v>-8.0155739299330407E-5</v>
+        <v>-8.0948093482850921E-5</v>
       </c>
       <c r="AD22">
-        <v>9.6836269911304779E-6</v>
+        <v>6.689228554806147E-6</v>
       </c>
       <c r="AE22">
-        <v>-2.9008588507073527E-3</v>
+        <v>-2.8261127266593373E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="63">
-        <v>-9.6064291690289183E-2</v>
+      <c r="B23" s="4">
+        <v>-9.7498063104992469E-2</v>
       </c>
       <c r="C23">
-        <v>2.4730304863120577E-6</v>
+        <v>7.6401917714927301E-6</v>
       </c>
       <c r="D23">
-        <v>-4.1472575154798325E-8</v>
+        <v>-1.0943144688778381E-7</v>
       </c>
       <c r="E23">
-        <v>1.9500699367031786E-4</v>
+        <v>7.3190915759435834E-5</v>
       </c>
       <c r="F23">
-        <v>1.8020981417469746E-4</v>
+        <v>8.4584032308539269E-5</v>
       </c>
       <c r="G23">
-        <v>1.2095262700644613E-4</v>
+        <v>2.4070351079366267E-5</v>
       </c>
       <c r="H23">
-        <v>9.8163426743324992E-5</v>
+        <v>8.1318688099961487E-7</v>
       </c>
       <c r="I23">
-        <v>2.3527401299111041E-5</v>
+        <v>2.039673215085291E-5</v>
       </c>
       <c r="J23">
-        <v>-1.7301773395648687E-5</v>
+        <v>-1.5727301775685082E-5</v>
       </c>
       <c r="K23">
-        <v>-3.2837240402384948E-4</v>
+        <v>-3.3726839032244792E-4</v>
       </c>
       <c r="L23">
-        <v>-3.0322417417188822E-4</v>
+        <v>-3.0566327412224689E-4</v>
       </c>
       <c r="M23">
-        <v>-4.2929904151346732E-4</v>
+        <v>-4.2971129651669764E-4</v>
       </c>
       <c r="N23">
-        <v>-3.7515603437470076E-4</v>
+        <v>-3.7605980529839891E-4</v>
       </c>
       <c r="O23">
-        <v>1.3561579801893377E-4</v>
+        <v>1.4572904540082705E-4</v>
       </c>
       <c r="P23">
-        <v>-8.1460771950375363E-5</v>
+        <v>-6.3573599325884015E-5</v>
       </c>
       <c r="Q23">
-        <v>-3.0011804533896711E-4</v>
+        <v>-3.1984763490598966E-4</v>
       </c>
       <c r="R23">
-        <v>1.6332099303579419E-4</v>
+        <v>1.6319947054665488E-4</v>
       </c>
       <c r="S23">
-        <v>-1.1117960392512317E-4</v>
+        <v>-1.0840432266838104E-4</v>
       </c>
       <c r="T23">
-        <v>-2.3644692048998498E-4</v>
+        <v>-2.2551490936946461E-4</v>
       </c>
       <c r="U23">
-        <v>-1.1448393804763552E-4</v>
+        <v>-1.0110544697143359E-4</v>
       </c>
       <c r="V23">
-        <v>5.241664944592001E-5</v>
+        <v>4.8025606296229952E-5</v>
       </c>
       <c r="W23">
-        <v>3.8624730795055182E-5</v>
+        <v>3.7195472163956302E-5</v>
       </c>
       <c r="X23">
-        <v>2.4047884598946026E-3</v>
+        <v>2.3988648480145563E-3</v>
       </c>
       <c r="Y23">
-        <v>1.1340196826400092E-3</v>
+        <v>1.1298185252302893E-3</v>
       </c>
       <c r="Z23">
-        <v>1.1396582505434115E-3</v>
+        <v>1.1344990899822324E-3</v>
       </c>
       <c r="AA23">
-        <v>1.1243066784545346E-3</v>
+        <v>1.1195402555011888E-3</v>
       </c>
       <c r="AB23">
-        <v>-1.2493139459270211E-5</v>
+        <v>-1.2338628439429318E-5</v>
       </c>
       <c r="AC23">
-        <v>-1.2205536298077368E-5</v>
+        <v>-1.1850751924318671E-5</v>
       </c>
       <c r="AD23">
-        <v>2.635977890240828E-5</v>
+        <v>2.3512102786675141E-5</v>
       </c>
       <c r="AE23">
-        <v>-4.8899687727334447E-4</v>
+        <v>-5.0103716181525235E-4</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="65">
-        <v>-8.690130078726821E-2</v>
+      <c r="B24" s="4">
+        <v>-8.7415412364275469E-2</v>
       </c>
       <c r="C24">
-        <v>-2.348473540741649E-5</v>
+        <v>-2.1573238966101835E-5</v>
       </c>
       <c r="D24">
-        <v>3.0859925173524898E-7</v>
+        <v>2.8548481207330564E-7</v>
       </c>
       <c r="E24">
-        <v>3.6341952585025876E-4</v>
+        <v>-1.2731231172225524E-5</v>
       </c>
       <c r="F24">
-        <v>3.3559622283552484E-4</v>
+        <v>5.5538075228228482E-5</v>
       </c>
       <c r="G24">
-        <v>3.933799412810471E-4</v>
+        <v>1.1587522795252116E-4</v>
       </c>
       <c r="H24">
-        <v>3.0537412191686887E-4</v>
+        <v>2.6831040269583784E-5</v>
       </c>
       <c r="I24">
-        <v>9.7051039118488074E-5</v>
+        <v>9.8581632808485148E-5</v>
       </c>
       <c r="J24">
-        <v>-6.8793017980129962E-5</v>
+        <v>-6.8043366879415329E-5</v>
       </c>
       <c r="K24">
-        <v>-2.292557311840773E-4</v>
+        <v>-2.0988205206258102E-4</v>
       </c>
       <c r="L24">
-        <v>-2.7045324903951918E-4</v>
+        <v>-2.6948317221866342E-4</v>
       </c>
       <c r="M24">
-        <v>-1.3969527138778877E-4</v>
+        <v>-1.3738435384048724E-4</v>
       </c>
       <c r="N24">
-        <v>-1.2557643891206302E-4</v>
+        <v>-1.2358107971679046E-4</v>
       </c>
       <c r="O24">
-        <v>-5.1453682638231298E-5</v>
+        <v>-1.4476023578295129E-5</v>
       </c>
       <c r="P24">
-        <v>5.5630632099236844E-4</v>
+        <v>5.7672157561442644E-4</v>
       </c>
       <c r="Q24">
-        <v>8.0872951090252894E-6</v>
+        <v>-2.4291874862023512E-5</v>
       </c>
       <c r="R24">
-        <v>-2.8923199861984039E-4</v>
+        <v>-2.925077307532047E-4</v>
       </c>
       <c r="S24">
-        <v>-5.8963714150741078E-5</v>
+        <v>-5.6093069739961656E-5</v>
       </c>
       <c r="T24">
-        <v>5.3336433246983542E-5</v>
+        <v>5.9127531784984258E-5</v>
       </c>
       <c r="U24">
-        <v>4.7572957865995213E-4</v>
+        <v>5.0825368584891538E-4</v>
       </c>
       <c r="V24">
-        <v>-2.7023042697482008E-4</v>
+        <v>-2.6309026299803427E-4</v>
       </c>
       <c r="W24">
-        <v>1.1170449952136607E-4</v>
+        <v>1.08302266616709E-4</v>
       </c>
       <c r="X24">
-        <v>1.1340196826400092E-3</v>
+        <v>1.1298185252302893E-3</v>
       </c>
       <c r="Y24">
-        <v>3.3018806632288925E-3</v>
+        <v>3.3027994395229353E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1250677290704559E-3</v>
+        <v>1.1179769803640075E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1370567311419235E-3</v>
+        <v>1.131400342136225E-3</v>
       </c>
       <c r="AB24">
-        <v>-1.1785265243589408E-5</v>
+        <v>-1.2180514094837525E-5</v>
       </c>
       <c r="AC24">
-        <v>-8.6755409416198567E-5</v>
+        <v>-8.5826229257655816E-5</v>
       </c>
       <c r="AD24">
-        <v>3.834859084763989E-5</v>
+        <v>3.5171716277078617E-5</v>
       </c>
       <c r="AE24">
-        <v>-1.4563444576424849E-3</v>
+        <v>-1.2550781218273698E-3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="67">
-        <v>5.1645990915794972E-3</v>
+      <c r="B25" s="4">
+        <v>2.9197498088507539E-3</v>
       </c>
       <c r="C25">
-        <v>1.0037548447849485E-5</v>
+        <v>1.3900332186895571E-5</v>
       </c>
       <c r="D25">
-        <v>-4.0543710791380582E-8</v>
+        <v>-8.7333432168652873E-8</v>
       </c>
       <c r="E25">
-        <v>1.9737276652158326E-4</v>
+        <v>2.5262507725858714E-5</v>
       </c>
       <c r="F25">
-        <v>2.0777829182906275E-4</v>
+        <v>7.123593555310797E-5</v>
       </c>
       <c r="G25">
-        <v>2.4971443322665057E-4</v>
+        <v>1.1289422358879819E-4</v>
       </c>
       <c r="H25">
-        <v>2.7925028767919702E-4</v>
+        <v>1.415835521625309E-4</v>
       </c>
       <c r="I25">
-        <v>4.1876606828092973E-5</v>
+        <v>3.9360872424089015E-5</v>
       </c>
       <c r="J25">
-        <v>4.6584778359038396E-5</v>
+        <v>4.9287603916078391E-5</v>
       </c>
       <c r="K25">
-        <v>-7.1165472480547512E-5</v>
+        <v>-6.7777246865836568E-5</v>
       </c>
       <c r="L25">
-        <v>-9.9574693102759057E-5</v>
+        <v>-9.741845535432038E-5</v>
       </c>
       <c r="M25">
-        <v>-1.3958439367269329E-4</v>
+        <v>-1.3701046374394767E-4</v>
       </c>
       <c r="N25">
-        <v>-1.4808143195987368E-4</v>
+        <v>-1.4394488598761749E-4</v>
       </c>
       <c r="O25">
-        <v>7.836347083914512E-5</v>
+        <v>8.6666523385264233E-5</v>
       </c>
       <c r="P25">
-        <v>2.0523277303142302E-4</v>
+        <v>2.2223745881774852E-4</v>
       </c>
       <c r="Q25">
-        <v>-6.8536467122616367E-5</v>
+        <v>-8.097763906476181E-5</v>
       </c>
       <c r="R25">
-        <v>-7.1644996800664736E-5</v>
+        <v>-7.1891819530184715E-5</v>
       </c>
       <c r="S25">
-        <v>-2.5955694487994813E-5</v>
+        <v>-2.4554430232965393E-5</v>
       </c>
       <c r="T25">
-        <v>-2.7631724145534258E-4</v>
+        <v>-2.5553700816080408E-4</v>
       </c>
       <c r="U25">
-        <v>3.7246535818998613E-4</v>
+        <v>3.8721777011389066E-4</v>
       </c>
       <c r="V25">
-        <v>6.3500243911231028E-5</v>
+        <v>5.0032542923867307E-5</v>
       </c>
       <c r="W25">
-        <v>9.0745623487543779E-5</v>
+        <v>8.8577990854320497E-5</v>
       </c>
       <c r="X25">
-        <v>1.1396582505434115E-3</v>
+        <v>1.1344990899822324E-3</v>
       </c>
       <c r="Y25">
-        <v>1.1250677290704559E-3</v>
+        <v>1.1179769803640075E-3</v>
       </c>
       <c r="Z25">
-        <v>2.3982952472577546E-3</v>
+        <v>2.3925432021507484E-3</v>
       </c>
       <c r="AA25">
-        <v>1.136947662322449E-3</v>
+        <v>1.1298820784420775E-3</v>
       </c>
       <c r="AB25">
-        <v>-2.4147270741440847E-5</v>
+        <v>-2.404987355490521E-5</v>
       </c>
       <c r="AC25">
-        <v>2.3254158702418236E-5</v>
+        <v>2.1421254981055025E-5</v>
       </c>
       <c r="AD25">
-        <v>8.0373755421687075E-5</v>
+        <v>7.6873553553568578E-5</v>
       </c>
       <c r="AE25">
-        <v>-1.7282497388312465E-3</v>
+        <v>-1.6845605736282489E-3</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="69">
-        <v>-4.7299374089446317E-2</v>
+      <c r="B26" s="4">
+        <v>-4.9610396018046406E-2</v>
       </c>
       <c r="C26">
-        <v>-5.2751708549964981E-6</v>
+        <v>-5.5854141755619108E-7</v>
       </c>
       <c r="D26">
-        <v>1.1656362265178702E-7</v>
+        <v>5.8682077286261624E-8</v>
       </c>
       <c r="E26">
-        <v>3.4066406960525734E-4</v>
+        <v>5.3291173756862646E-5</v>
       </c>
       <c r="F26">
-        <v>3.2028136970925817E-4</v>
+        <v>1.0395216192110124E-4</v>
       </c>
       <c r="G26">
-        <v>4.4200378962946842E-4</v>
+        <v>2.2552768444076372E-4</v>
       </c>
       <c r="H26">
-        <v>4.5003047550932107E-4</v>
+        <v>2.3285351149243937E-4</v>
       </c>
       <c r="I26">
-        <v>3.7209205796994791E-5</v>
+        <v>3.5773310672550116E-5</v>
       </c>
       <c r="J26">
-        <v>-1.7589140442153496E-5</v>
+        <v>-1.5212074111444903E-5</v>
       </c>
       <c r="K26">
-        <v>4.0880391065819567E-4</v>
+        <v>4.0065146049607456E-4</v>
       </c>
       <c r="L26">
-        <v>-7.8526351015784784E-5</v>
+        <v>-7.7569982637221147E-5</v>
       </c>
       <c r="M26">
-        <v>-4.4087971058945005E-5</v>
+        <v>-4.130778628612386E-5</v>
       </c>
       <c r="N26">
-        <v>2.969788799661241E-5</v>
+        <v>3.3704867494124997E-5</v>
       </c>
       <c r="O26">
-        <v>4.8961119311866899E-5</v>
+        <v>7.6975428059357289E-5</v>
       </c>
       <c r="P26">
-        <v>1.9824562976410592E-5</v>
+        <v>4.1975668259770041E-5</v>
       </c>
       <c r="Q26">
-        <v>-6.0005475086338453E-5</v>
+        <v>-8.9977630353798872E-5</v>
       </c>
       <c r="R26">
-        <v>1.4333481296080624E-4</v>
+        <v>1.4105864094279046E-4</v>
       </c>
       <c r="S26">
-        <v>3.7448785804710863E-5</v>
+        <v>3.9734733353461192E-5</v>
       </c>
       <c r="T26">
-        <v>-1.8949403070802522E-6</v>
+        <v>1.5704236375953164E-5</v>
       </c>
       <c r="U26">
-        <v>4.8037385295333218E-4</v>
+        <v>5.0385381250580511E-4</v>
       </c>
       <c r="V26">
-        <v>6.5462845618639853E-5</v>
+        <v>5.8385559995398567E-5</v>
       </c>
       <c r="W26">
-        <v>6.5376232467583193E-5</v>
+        <v>6.3234820791791587E-5</v>
       </c>
       <c r="X26">
-        <v>1.1243066784545346E-3</v>
+        <v>1.1195402555011888E-3</v>
       </c>
       <c r="Y26">
-        <v>1.1370567311419235E-3</v>
+        <v>1.131400342136225E-3</v>
       </c>
       <c r="Z26">
-        <v>1.136947662322449E-3</v>
+        <v>1.1298820784420775E-3</v>
       </c>
       <c r="AA26">
-        <v>1.6691065352901669E-3</v>
+        <v>1.663850539055204E-3</v>
       </c>
       <c r="AB26">
-        <v>-1.2610836646896859E-5</v>
+        <v>-1.2670577385823783E-5</v>
       </c>
       <c r="AC26">
-        <v>1.0509318026698364E-5</v>
+        <v>9.3723179995067228E-6</v>
       </c>
       <c r="AD26">
-        <v>4.5115512176329971E-5</v>
+        <v>4.0983600742806653E-5</v>
       </c>
       <c r="AE26">
-        <v>-2.0135070578073807E-3</v>
+        <v>-1.9176483189815895E-3</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="71">
-        <v>1.832272264603731E-2</v>
+      <c r="B27" s="4">
+        <v>1.8613969577442189E-2</v>
       </c>
       <c r="C27">
-        <v>5.6526436453828815E-6</v>
+        <v>5.1311112646154161E-6</v>
       </c>
       <c r="D27">
-        <v>-1.126852351555686E-7</v>
+        <v>-1.0565275457517889E-7</v>
       </c>
       <c r="E27">
-        <v>-7.1759541591008035E-6</v>
+        <v>-6.351087645278014E-6</v>
       </c>
       <c r="F27">
-        <v>-7.4777362453162267E-6</v>
+        <v>-5.5481638472540035E-6</v>
       </c>
       <c r="G27">
-        <v>4.667683803598444E-6</v>
+        <v>6.5851923961823272E-6</v>
       </c>
       <c r="H27">
-        <v>1.3474721507124567E-5</v>
+        <v>1.5560584080621925E-5</v>
       </c>
       <c r="I27">
-        <v>-2.1040441190202396E-6</v>
+        <v>-1.9206985271870794E-6</v>
       </c>
       <c r="J27">
-        <v>-1.5100063547954538E-6</v>
+        <v>-1.6926456153721173E-6</v>
       </c>
       <c r="K27">
-        <v>-3.1449843944894109E-5</v>
+        <v>-3.2051585561263088E-5</v>
       </c>
       <c r="L27">
-        <v>-2.4810899704596355E-5</v>
+        <v>-2.4992694351379417E-5</v>
       </c>
       <c r="M27">
-        <v>-4.0090197302805181E-5</v>
+        <v>-4.0177067824394665E-5</v>
       </c>
       <c r="N27">
-        <v>-3.5925461942726379E-5</v>
+        <v>-3.6091812418058869E-5</v>
       </c>
       <c r="O27">
-        <v>3.8463455180353778E-5</v>
+        <v>3.7613223708484802E-5</v>
       </c>
       <c r="P27">
-        <v>-3.7282983393618171E-5</v>
+        <v>-3.8483835404416831E-5</v>
       </c>
       <c r="Q27">
-        <v>-3.6409510258030459E-5</v>
+        <v>-3.459421253747977E-5</v>
       </c>
       <c r="R27">
-        <v>3.4003748582447934E-5</v>
+        <v>3.4298655472778508E-5</v>
       </c>
       <c r="S27">
-        <v>1.5463487519212023E-5</v>
+        <v>1.5155706942442265E-5</v>
       </c>
       <c r="T27">
-        <v>2.6744772831589058E-5</v>
+        <v>2.7198838766744183E-5</v>
       </c>
       <c r="U27">
-        <v>-3.913888052711159E-4</v>
+        <v>-3.9127415409934688E-4</v>
       </c>
       <c r="V27">
-        <v>2.0810508432106609E-5</v>
+        <v>2.2382438987754517E-5</v>
       </c>
       <c r="W27">
-        <v>5.7313857068712127E-6</v>
+        <v>5.8217983257112269E-6</v>
       </c>
       <c r="X27">
-        <v>-1.2493139459270211E-5</v>
+        <v>-1.2338628439429318E-5</v>
       </c>
       <c r="Y27">
-        <v>-1.1785265243589408E-5</v>
+        <v>-1.2180514094837525E-5</v>
       </c>
       <c r="Z27">
-        <v>-2.4147270741440847E-5</v>
+        <v>-2.404987355490521E-5</v>
       </c>
       <c r="AA27">
-        <v>-1.2610836646896859E-5</v>
+        <v>-1.2670577385823783E-5</v>
       </c>
       <c r="AB27">
-        <v>2.6760088498696721E-5</v>
+        <v>2.675970697375465E-5</v>
       </c>
       <c r="AC27">
-        <v>-1.0419046005175479E-4</v>
+        <v>-1.0421065890564911E-4</v>
       </c>
       <c r="AD27">
-        <v>-1.5402326824303801E-4</v>
+        <v>-1.5389983584549014E-4</v>
       </c>
       <c r="AE27">
-        <v>9.5230501351647014E-5</v>
+        <v>1.0251583452235168E-4</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="73">
-        <v>3.8576459625985347E-2</v>
+      <c r="B28" s="4">
+        <v>3.7232439926489405E-2</v>
       </c>
       <c r="C28">
-        <v>4.5914890720040458E-5</v>
+        <v>4.9310440773016936E-5</v>
       </c>
       <c r="D28">
-        <v>-7.3275342132701434E-7</v>
+        <v>-7.7762113346806731E-7</v>
       </c>
       <c r="E28">
-        <v>2.6024316292654276E-4</v>
+        <v>2.3554687391596227E-4</v>
       </c>
       <c r="F28">
-        <v>1.4044365942900931E-5</v>
+        <v>-6.9196469280772763E-6</v>
       </c>
       <c r="G28">
-        <v>2.3971238226450954E-5</v>
+        <v>2.2127151909517341E-6</v>
       </c>
       <c r="H28">
-        <v>7.7520009906642973E-5</v>
+        <v>5.3833978304202931E-5</v>
       </c>
       <c r="I28">
-        <v>-2.6823864246439588E-5</v>
+        <v>-2.9210038860997102E-5</v>
       </c>
       <c r="J28">
-        <v>-3.3851531098803389E-5</v>
+        <v>-3.2100573464919941E-5</v>
       </c>
       <c r="K28">
-        <v>9.5771434992414362E-4</v>
+        <v>9.5685469018919056E-4</v>
       </c>
       <c r="L28">
-        <v>-4.9985619872058851E-7</v>
+        <v>4.4308981341639742E-7</v>
       </c>
       <c r="M28">
-        <v>-3.2972645652558363E-5</v>
+        <v>-3.2615095376230946E-5</v>
       </c>
       <c r="N28">
-        <v>-1.1103815602964834E-4</v>
+        <v>-1.103320154097337E-4</v>
       </c>
       <c r="O28">
-        <v>-6.8473880849646894E-4</v>
+        <v>-6.7309179495828216E-4</v>
       </c>
       <c r="P28">
-        <v>2.4583498692334969E-4</v>
+        <v>2.5553188996572555E-4</v>
       </c>
       <c r="Q28">
-        <v>6.2082760490027897E-4</v>
+        <v>6.0409364286227577E-4</v>
       </c>
       <c r="R28">
-        <v>-3.6154379198901818E-4</v>
+        <v>-3.6694918157151053E-4</v>
       </c>
       <c r="S28">
-        <v>1.1280617639841423E-4</v>
+        <v>1.1371041802333659E-4</v>
       </c>
       <c r="T28">
-        <v>2.2465147871436175E-5</v>
+        <v>1.9459314515334666E-5</v>
       </c>
       <c r="U28">
-        <v>-6.8864459864743932E-4</v>
+        <v>-6.8635028850618646E-4</v>
       </c>
       <c r="V28">
-        <v>-9.1721888776640295E-5</v>
+        <v>-8.6796940181330454E-5</v>
       </c>
       <c r="W28">
-        <v>-8.0155739299330407E-5</v>
+        <v>-8.0948093482850921E-5</v>
       </c>
       <c r="X28">
-        <v>-1.2205536298077368E-5</v>
+        <v>-1.1850751924318671E-5</v>
       </c>
       <c r="Y28">
-        <v>-8.6755409416198567E-5</v>
+        <v>-8.5826229257655816E-5</v>
       </c>
       <c r="Z28">
-        <v>2.3254158702418236E-5</v>
+        <v>2.1421254981055025E-5</v>
       </c>
       <c r="AA28">
-        <v>1.0509318026698364E-5</v>
+        <v>9.3723179995067228E-6</v>
       </c>
       <c r="AB28">
-        <v>-1.0419046005175479E-4</v>
+        <v>-1.0421065890564911E-4</v>
       </c>
       <c r="AC28">
-        <v>3.2009794801584469E-3</v>
+        <v>3.2004292099058291E-3</v>
       </c>
       <c r="AD28">
-        <v>8.3356323063085616E-4</v>
+        <v>8.3219989924899953E-4</v>
       </c>
       <c r="AE28">
-        <v>1.6084460574415449E-3</v>
+        <v>1.5685683802692018E-3</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="75">
-        <v>1.3289920203630179E-2</v>
+      <c r="B29" s="4">
+        <v>9.8062647936576798E-3</v>
       </c>
       <c r="C29">
-        <v>1.1232192129867914E-5</v>
+        <v>1.5560913929753024E-5</v>
       </c>
       <c r="D29">
-        <v>-2.2940743451155829E-7</v>
+        <v>-2.8387794554843169E-7</v>
       </c>
       <c r="E29">
-        <v>2.9636316036892583E-4</v>
+        <v>2.5657424717500169E-4</v>
       </c>
       <c r="F29">
-        <v>2.3378177325731079E-4</v>
+        <v>1.9994939305393407E-4</v>
       </c>
       <c r="G29">
-        <v>1.6377736315247677E-4</v>
+        <v>1.2865512342625715E-4</v>
       </c>
       <c r="H29">
-        <v>1.6864224866812438E-4</v>
+        <v>1.3112001741450493E-4</v>
       </c>
       <c r="I29">
-        <v>-3.2180750353079943E-5</v>
+        <v>-3.6707225658929557E-5</v>
       </c>
       <c r="J29">
-        <v>-5.59440948525376E-5</v>
+        <v>-5.3013709167717092E-5</v>
       </c>
       <c r="K29">
-        <v>1.5439022577606876E-4</v>
+        <v>1.526384801148542E-4</v>
       </c>
       <c r="L29">
-        <v>6.8269662746121146E-5</v>
+        <v>6.9580543091508906E-5</v>
       </c>
       <c r="M29">
-        <v>1.2998730502776154E-4</v>
+        <v>1.3206213094981226E-4</v>
       </c>
       <c r="N29">
-        <v>1.2162221787972646E-4</v>
+        <v>1.2590565861324982E-4</v>
       </c>
       <c r="O29">
-        <v>-1.3593520936344461E-4</v>
+        <v>-1.1046275051395581E-4</v>
       </c>
       <c r="P29">
-        <v>1.2403626087485807E-4</v>
+        <v>1.3684467212457562E-4</v>
       </c>
       <c r="Q29">
-        <v>1.6540893556114301E-5</v>
+        <v>-1.7066499037643066E-5</v>
       </c>
       <c r="R29">
-        <v>-2.5436662718069877E-4</v>
+        <v>-2.5446161625342566E-4</v>
       </c>
       <c r="S29">
-        <v>6.9057138736022426E-6</v>
+        <v>8.0595371579245166E-6</v>
       </c>
       <c r="T29">
-        <v>-8.4599209095874602E-6</v>
+        <v>3.1869475301858977E-7</v>
       </c>
       <c r="U29">
-        <v>3.5538966195090838E-3</v>
+        <v>3.5561337847151743E-3</v>
       </c>
       <c r="V29">
-        <v>2.4317653328421139E-5</v>
+        <v>-4.1270956198926831E-6</v>
       </c>
       <c r="W29">
-        <v>9.6836269911304779E-6</v>
+        <v>6.689228554806147E-6</v>
       </c>
       <c r="X29">
-        <v>2.635977890240828E-5</v>
+        <v>2.3512102786675141E-5</v>
       </c>
       <c r="Y29">
-        <v>3.834859084763989E-5</v>
+        <v>3.5171716277078617E-5</v>
       </c>
       <c r="Z29">
-        <v>8.0373755421687075E-5</v>
+        <v>7.6873553553568578E-5</v>
       </c>
       <c r="AA29">
-        <v>4.5115512176329971E-5</v>
+        <v>4.0983600742806653E-5</v>
       </c>
       <c r="AB29">
-        <v>-1.5402326824303801E-4</v>
+        <v>-1.5389983584549014E-4</v>
       </c>
       <c r="AC29">
-        <v>8.3356323063085616E-4</v>
+        <v>8.3219989924899953E-4</v>
       </c>
       <c r="AD29">
-        <v>3.320963690506995E-3</v>
+        <v>3.3209351437577085E-3</v>
       </c>
       <c r="AE29">
-        <v>-3.0840199046960337E-3</v>
+        <v>-3.1298710563791403E-3</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="77">
-        <v>-2.0497081946165294</v>
+      <c r="B30" s="4">
+        <v>-2.0044614525226834</v>
       </c>
       <c r="C30">
-        <v>-1.2944943869337699E-2</v>
+        <v>-1.3090621493207819E-2</v>
       </c>
       <c r="D30">
-        <v>1.8209438146685978E-4</v>
+        <v>1.840335804362286E-4</v>
       </c>
       <c r="E30">
-        <v>-9.8294747609900188E-3</v>
+        <v>-1.12109224514612E-2</v>
       </c>
       <c r="F30">
-        <v>-7.6409456138628595E-3</v>
+        <v>-7.5765143071815227E-3</v>
       </c>
       <c r="G30">
-        <v>-6.9041250078324956E-3</v>
+        <v>-6.8052218685265634E-3</v>
       </c>
       <c r="H30">
-        <v>-6.9982707560570165E-3</v>
+        <v>-6.8657650352918348E-3</v>
       </c>
       <c r="I30">
-        <v>3.1606102639933327E-3</v>
+        <v>3.2841318709231192E-3</v>
       </c>
       <c r="J30">
-        <v>-2.4300168409355748E-3</v>
+        <v>-2.518792532592672E-3</v>
       </c>
       <c r="K30">
-        <v>-8.4348276514966902E-2</v>
+        <v>-8.4334134735025712E-2</v>
       </c>
       <c r="L30">
-        <v>-8.3332024382730796E-2</v>
+        <v>-8.327690990504244E-2</v>
       </c>
       <c r="M30">
-        <v>-8.4121295624921322E-2</v>
+        <v>-8.4088537807444963E-2</v>
       </c>
       <c r="N30">
-        <v>-8.3347035282245741E-2</v>
+        <v>-8.3377091554676208E-2</v>
       </c>
       <c r="O30">
-        <v>3.0767676376209849E-4</v>
+        <v>3.4037936057130288E-4</v>
       </c>
       <c r="P30">
-        <v>7.501842000787488E-5</v>
+        <v>1.6130265571838529E-4</v>
       </c>
       <c r="Q30">
-        <v>-2.4180712950002889E-3</v>
+        <v>-2.0661404792009334E-3</v>
       </c>
       <c r="R30">
-        <v>3.0814129263391239E-3</v>
+        <v>2.7813403910047878E-3</v>
       </c>
       <c r="S30">
-        <v>-4.2963695737436094E-3</v>
+        <v>-4.3217647110433202E-3</v>
       </c>
       <c r="T30">
-        <v>-9.3987792149767546E-3</v>
+        <v>-9.8555814007287648E-3</v>
       </c>
       <c r="U30">
-        <v>-8.2396922393796479E-2</v>
+        <v>-8.2547430247715436E-2</v>
       </c>
       <c r="V30">
-        <v>-2.1283791010560729E-2</v>
+        <v>-2.036382538737308E-2</v>
       </c>
       <c r="W30">
-        <v>-2.9008588507073527E-3</v>
+        <v>-2.8261127266593373E-3</v>
       </c>
       <c r="X30">
-        <v>-4.8899687727334447E-4</v>
+        <v>-5.0103716181525235E-4</v>
       </c>
       <c r="Y30">
-        <v>-1.4563444576424849E-3</v>
+        <v>-1.2550781218273698E-3</v>
       </c>
       <c r="Z30">
-        <v>-1.7282497388312465E-3</v>
+        <v>-1.6845605736282489E-3</v>
       </c>
       <c r="AA30">
-        <v>-2.0135070578073807E-3</v>
+        <v>-1.9176483189815895E-3</v>
       </c>
       <c r="AB30">
-        <v>9.5230501351647014E-5</v>
+        <v>1.0251583452235168E-4</v>
       </c>
       <c r="AC30">
-        <v>1.6084460574415449E-3</v>
+        <v>1.5685683802692018E-3</v>
       </c>
       <c r="AD30">
-        <v>-3.0840199046960337E-3</v>
+        <v>-3.1298710563791403E-3</v>
       </c>
       <c r="AE30">
-        <v>0.42661484151113704</v>
+        <v>0.42906639914915967</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46F9A3-E633-447F-BD67-A94BB1A5F1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE0001-72D6-44A2-90E3-851A67ECF15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -571,9 +571,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -624,9 +624,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -649,119 +649,119 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>-0.37661099404516546</v>
+        <v>-0.33877183111340214</v>
       </c>
       <c r="C2">
-        <v>6.8744228642692098E-3</v>
+        <v>5.9273678788698009E-3</v>
       </c>
       <c r="D2">
-        <v>-7.1635366928175792E-4</v>
+        <v>-8.0783036999054021E-4</v>
       </c>
       <c r="E2">
-        <v>2.14977943466194E-2</v>
+        <v>1.7426093405267504E-2</v>
       </c>
       <c r="F2">
-        <v>1.0309468610164258E-2</v>
+        <v>7.3003900325152617E-3</v>
       </c>
       <c r="G2">
-        <v>-0.15696247353117262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.13268969440412212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>0.29565171338458979</v>
+        <v>0.32659602149356037</v>
       </c>
       <c r="C3">
-        <v>-7.1635366928175792E-4</v>
+        <v>-8.0783036999054021E-4</v>
       </c>
       <c r="D3">
-        <v>2.2604009962385679E-2</v>
+        <v>2.2626024511415561E-2</v>
       </c>
       <c r="E3">
-        <v>1.9171748166481907E-3</v>
+        <v>5.1077821585816807E-3</v>
       </c>
       <c r="F3">
-        <v>-3.5445072466950382E-3</v>
+        <v>1.253702901665538E-3</v>
       </c>
       <c r="G3">
-        <v>-7.6328800761655519E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-8.0755321463491375E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>-1.2877436267939886</v>
+        <v>-0.9685381140985605</v>
       </c>
       <c r="C4">
-        <v>2.14977943466194E-2</v>
+        <v>1.7426093405267504E-2</v>
       </c>
       <c r="D4">
-        <v>1.9171748166481907E-3</v>
+        <v>5.1077821585816807E-3</v>
       </c>
       <c r="E4">
-        <v>0.16876364320740661</v>
+        <v>0.14779296919533713</v>
       </c>
       <c r="F4">
-        <v>0.10277178384565339</v>
+        <v>9.0841112336906032E-2</v>
       </c>
       <c r="G4">
-        <v>-0.57894307910107989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.49105472984090692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.68166295559751022</v>
+        <v>-0.600922374088946</v>
       </c>
       <c r="C5">
-        <v>1.0309468610164258E-2</v>
+        <v>7.3003900325152617E-3</v>
       </c>
       <c r="D5">
-        <v>-3.5445072466950382E-3</v>
+        <v>1.253702901665538E-3</v>
       </c>
       <c r="E5">
-        <v>0.10277178384565339</v>
+        <v>9.0841112336906032E-2</v>
       </c>
       <c r="F5">
-        <v>0.38701632380124684</v>
+        <v>0.34097859502627081</v>
       </c>
       <c r="G5">
-        <v>-0.29569525468304469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.24174421005555036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>7.6106925921688857</v>
+        <v>6.4673633509546864</v>
       </c>
       <c r="C6">
-        <v>-0.15696247353117262</v>
+        <v>-0.13268969440412212</v>
       </c>
       <c r="D6">
-        <v>-7.6328800761655519E-2</v>
+        <v>-8.0755321463491375E-2</v>
       </c>
       <c r="E6">
-        <v>-0.57894307910107989</v>
+        <v>-0.49105472984090692</v>
       </c>
       <c r="F6">
-        <v>-0.29569525468304469</v>
+        <v>-0.24174421005555036</v>
       </c>
       <c r="G6">
-        <v>4.0358942583844879</v>
+        <v>3.4723866729624824</v>
       </c>
     </row>
   </sheetData>
@@ -775,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -875,2759 +875,2759 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>0.16295553577074731</v>
+        <v>0.2205479906300308</v>
       </c>
       <c r="C2">
-        <v>7.73095598453683E-4</v>
+        <v>8.7606873002788301E-4</v>
       </c>
       <c r="D2">
-        <v>-1.1070715299150139E-5</v>
+        <v>-1.2612304306949079E-5</v>
       </c>
       <c r="E2">
-        <v>1.468121047827611E-4</v>
+        <v>5.7203933753832963E-5</v>
       </c>
       <c r="F2">
-        <v>-1.3344001464606921E-4</v>
+        <v>-2.7492527798981528E-4</v>
       </c>
       <c r="G2">
-        <v>-2.4602599156696046E-4</v>
+        <v>-3.9077591489354563E-4</v>
       </c>
       <c r="H2">
-        <v>-2.3444984552383656E-4</v>
+        <v>-3.9667073177942016E-4</v>
       </c>
       <c r="I2">
-        <v>-2.4544266217683714E-4</v>
+        <v>-3.4606564722542701E-4</v>
       </c>
       <c r="J2">
-        <v>9.8123581147082153E-5</v>
+        <v>1.0311150641513066E-4</v>
       </c>
       <c r="K2">
-        <v>-3.0553990836861347E-5</v>
+        <v>-2.2420644401471151E-4</v>
       </c>
       <c r="L2">
-        <v>-3.1541527078094225E-5</v>
+        <v>-1.158437650670501E-4</v>
       </c>
       <c r="M2">
-        <v>-2.7613307753013728E-5</v>
+        <v>-9.3756790268602688E-5</v>
       </c>
       <c r="N2">
-        <v>-8.8411873720578571E-5</v>
+        <v>-1.5659633020132912E-4</v>
       </c>
       <c r="O2">
-        <v>-1.3374487560073936E-5</v>
+        <v>-7.0337767346173759E-5</v>
       </c>
       <c r="P2">
-        <v>-1.2438374410790858E-4</v>
+        <v>-8.3293698958044129E-5</v>
       </c>
       <c r="Q2">
-        <v>3.8803979237556942E-5</v>
+        <v>3.4578102928374543E-5</v>
       </c>
       <c r="R2">
-        <v>-1.6680758625547618E-4</v>
+        <v>-3.6255938111653258E-4</v>
       </c>
       <c r="S2">
-        <v>1.947441317754331E-4</v>
+        <v>2.0244821819838868E-4</v>
       </c>
       <c r="T2">
-        <v>4.3471502857014128E-4</v>
+        <v>5.1115507346816309E-4</v>
       </c>
       <c r="U2">
-        <v>1.9357893824640052E-4</v>
+        <v>3.1549307267034199E-4</v>
       </c>
       <c r="V2">
-        <v>1.0631072895968168E-3</v>
+        <v>1.0584513860028462E-3</v>
       </c>
       <c r="W2">
-        <v>8.1037235200115409E-5</v>
+        <v>7.4799353775416039E-5</v>
       </c>
       <c r="X2">
-        <v>7.6401917714927301E-6</v>
+        <v>-2.141965003236079E-5</v>
       </c>
       <c r="Y2">
-        <v>-2.1573238966101835E-5</v>
+        <v>-4.554678028819998E-5</v>
       </c>
       <c r="Z2">
-        <v>1.3900332186895571E-5</v>
+        <v>-8.1450460675352955E-6</v>
       </c>
       <c r="AA2">
-        <v>-5.5854141755619108E-7</v>
+        <v>-2.7879193309906787E-5</v>
       </c>
       <c r="AB2">
-        <v>5.1311112646154161E-6</v>
+        <v>5.421659640918793E-6</v>
       </c>
       <c r="AC2">
-        <v>4.9310440773016936E-5</v>
+        <v>6.3579012166735741E-5</v>
       </c>
       <c r="AD2">
-        <v>1.5560913929753024E-5</v>
+        <v>2.9825379258316409E-5</v>
       </c>
       <c r="AE2">
-        <v>-1.3090621493207819E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-1.4584258604706191E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-3.8017552159363577E-3</v>
+        <v>-4.5718032916531141E-3</v>
       </c>
       <c r="C3">
-        <v>-1.1070715299150139E-5</v>
+        <v>-1.2612304306949079E-5</v>
       </c>
       <c r="D3">
-        <v>1.6051617937173631E-7</v>
+        <v>1.8369617095442477E-7</v>
       </c>
       <c r="E3">
-        <v>-2.0909476250508728E-6</v>
+        <v>-1.074637440690825E-6</v>
       </c>
       <c r="F3">
-        <v>1.9129725489859672E-6</v>
+        <v>3.7847427887083891E-6</v>
       </c>
       <c r="G3">
-        <v>3.5474374532243726E-6</v>
+        <v>5.4448348769448498E-6</v>
       </c>
       <c r="H3">
-        <v>3.173579084800543E-6</v>
+        <v>5.3331330610233681E-6</v>
       </c>
       <c r="I3">
-        <v>3.5846175461654733E-6</v>
+        <v>5.0595107769854014E-6</v>
       </c>
       <c r="J3">
-        <v>-8.8600019508144353E-7</v>
+        <v>-8.9141453003874205E-7</v>
       </c>
       <c r="K3">
-        <v>8.1353378195042386E-7</v>
+        <v>3.5792572188501697E-6</v>
       </c>
       <c r="L3">
-        <v>1.1489927889356724E-6</v>
+        <v>2.4529351599740447E-6</v>
       </c>
       <c r="M3">
-        <v>1.2496043993200965E-6</v>
+        <v>2.2713556298081599E-6</v>
       </c>
       <c r="N3">
-        <v>2.409143294760257E-6</v>
+        <v>3.4703110650433785E-6</v>
       </c>
       <c r="O3">
-        <v>1.9753100939060454E-8</v>
+        <v>7.7548792867082031E-7</v>
       </c>
       <c r="P3">
-        <v>2.0615162463217119E-6</v>
+        <v>1.5687152503575808E-6</v>
       </c>
       <c r="Q3">
-        <v>1.2487758360248179E-7</v>
+        <v>3.2385531364596213E-7</v>
       </c>
       <c r="R3">
-        <v>2.7836040595898275E-6</v>
+        <v>5.5889643954354528E-6</v>
       </c>
       <c r="S3">
-        <v>-2.8537664422911215E-6</v>
+        <v>-2.9949002775572693E-6</v>
       </c>
       <c r="T3">
-        <v>-6.1831073483209926E-6</v>
+        <v>-7.3400097822244224E-6</v>
       </c>
       <c r="U3">
-        <v>-2.4669061481880734E-6</v>
+        <v>-4.1952287011245222E-6</v>
       </c>
       <c r="V3">
-        <v>-1.454936170305119E-5</v>
+        <v>-1.4422839913809203E-5</v>
       </c>
       <c r="W3">
-        <v>-9.3142986738973946E-7</v>
+        <v>-8.3463062452722691E-7</v>
       </c>
       <c r="X3">
-        <v>-1.0943144688778381E-7</v>
+        <v>3.0931627974827824E-7</v>
       </c>
       <c r="Y3">
-        <v>2.8548481207330564E-7</v>
+        <v>6.1736848323687481E-7</v>
       </c>
       <c r="Z3">
-        <v>-8.7333432168652873E-8</v>
+        <v>2.4835838041911808E-7</v>
       </c>
       <c r="AA3">
-        <v>5.8682077286261624E-8</v>
+        <v>4.5290184960610858E-7</v>
       </c>
       <c r="AB3">
-        <v>-1.0565275457517889E-7</v>
+        <v>-1.1415322297382747E-7</v>
       </c>
       <c r="AC3">
-        <v>-7.7762113346806731E-7</v>
+        <v>-1.0035496888673715E-6</v>
       </c>
       <c r="AD3">
-        <v>-2.8387794554843169E-7</v>
+        <v>-4.5291039084409304E-7</v>
       </c>
       <c r="AE3">
-        <v>1.840335804362286E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2.064671315070972E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>0.21771406097290963</v>
+        <v>2.1628070237080979E-2</v>
       </c>
       <c r="C4">
-        <v>1.468121047827611E-4</v>
+        <v>5.7203933753832963E-5</v>
       </c>
       <c r="D4">
-        <v>-2.0909476250508728E-6</v>
+        <v>-1.074637440690825E-6</v>
       </c>
       <c r="E4">
-        <v>1.8385409513062143E-2</v>
+        <v>1.8990027122999156E-2</v>
       </c>
       <c r="F4">
-        <v>9.9040125994786267E-3</v>
+        <v>1.0872666447577912E-2</v>
       </c>
       <c r="G4">
-        <v>9.7943537732257981E-3</v>
+        <v>1.082696072489981E-2</v>
       </c>
       <c r="H4">
-        <v>9.743883742246948E-3</v>
+        <v>1.0825920312213234E-2</v>
       </c>
       <c r="I4">
-        <v>-9.5902147044900159E-5</v>
+        <v>1.4199133152043974E-5</v>
       </c>
       <c r="J4">
-        <v>6.972756297580953E-5</v>
+        <v>-1.0831815366020049E-4</v>
       </c>
       <c r="K4">
-        <v>2.524664651923211E-4</v>
+        <v>4.7787700198174878E-4</v>
       </c>
       <c r="L4">
-        <v>-1.6573855702544998E-4</v>
+        <v>8.2262362518761584E-5</v>
       </c>
       <c r="M4">
-        <v>-1.6191451412329643E-4</v>
+        <v>-1.1803068169648299E-4</v>
       </c>
       <c r="N4">
-        <v>-9.0764528882350363E-5</v>
+        <v>-7.1299028563447976E-5</v>
       </c>
       <c r="O4">
-        <v>-5.3570796324276145E-4</v>
+        <v>6.8081113154224316E-4</v>
       </c>
       <c r="P4">
-        <v>-1.5065480844195841E-4</v>
+        <v>-9.0193968064334468E-4</v>
       </c>
       <c r="Q4">
-        <v>-8.7821303766875709E-4</v>
+        <v>-1.4582952767404492E-3</v>
       </c>
       <c r="R4">
-        <v>2.4251479184925727E-4</v>
+        <v>1.4091366691393412E-4</v>
       </c>
       <c r="S4">
-        <v>1.0405837846131281E-4</v>
+        <v>8.9663126885582904E-5</v>
       </c>
       <c r="T4">
-        <v>4.1395703325142544E-5</v>
+        <v>-4.5343016912408301E-4</v>
       </c>
       <c r="U4">
-        <v>-5.8386536153932217E-4</v>
+        <v>-1.1003675921391239E-3</v>
       </c>
       <c r="V4">
-        <v>6.773953233228081E-4</v>
+        <v>3.3699088986800883E-4</v>
       </c>
       <c r="W4">
-        <v>-2.189067059590107E-4</v>
+        <v>-3.1598519528578881E-5</v>
       </c>
       <c r="X4">
-        <v>7.3190915759435834E-5</v>
+        <v>-8.6086262950264836E-6</v>
       </c>
       <c r="Y4">
-        <v>-1.2731231172225524E-5</v>
+        <v>1.3244535448920088E-4</v>
       </c>
       <c r="Z4">
-        <v>2.5262507725858714E-5</v>
+        <v>8.1730981717657815E-5</v>
       </c>
       <c r="AA4">
-        <v>5.3291173756862646E-5</v>
+        <v>2.4735278980638452E-4</v>
       </c>
       <c r="AB4">
-        <v>-6.351087645278014E-6</v>
+        <v>-6.5953979359414418E-6</v>
       </c>
       <c r="AC4">
-        <v>2.3554687391596227E-4</v>
+        <v>1.4624587315184437E-4</v>
       </c>
       <c r="AD4">
-        <v>2.5657424717500169E-4</v>
+        <v>2.7947863644263871E-4</v>
       </c>
       <c r="AE4">
-        <v>-1.12109224514612E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-9.9144180455950151E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>0.13951073845669068</v>
+        <v>6.1391868760145322E-3</v>
       </c>
       <c r="C5">
-        <v>-1.3344001464606921E-4</v>
+        <v>-2.7492527798981528E-4</v>
       </c>
       <c r="D5">
-        <v>1.9129725489859672E-6</v>
+        <v>3.7847427887083891E-6</v>
       </c>
       <c r="E5">
-        <v>9.9040125994786267E-3</v>
+        <v>1.0872666447577912E-2</v>
       </c>
       <c r="F5">
-        <v>1.1449511614893495E-2</v>
+        <v>1.248150620645155E-2</v>
       </c>
       <c r="G5">
-        <v>1.0813286018153498E-2</v>
+        <v>1.1852530204588358E-2</v>
       </c>
       <c r="H5">
-        <v>1.0897178939607632E-2</v>
+        <v>1.1989779517811496E-2</v>
       </c>
       <c r="I5">
-        <v>-5.9957715660830316E-5</v>
+        <v>4.0951134060547773E-5</v>
       </c>
       <c r="J5">
-        <v>4.015276974907037E-5</v>
+        <v>-1.2714464377366159E-4</v>
       </c>
       <c r="K5">
-        <v>-8.4814388509073767E-5</v>
+        <v>-4.1958938066252206E-5</v>
       </c>
       <c r="L5">
-        <v>-3.3666525550350582E-4</v>
+        <v>-7.6396982035131008E-5</v>
       </c>
       <c r="M5">
-        <v>-3.4437223261535657E-4</v>
+        <v>-2.1372171325693599E-4</v>
       </c>
       <c r="N5">
-        <v>-2.4654036088536104E-4</v>
+        <v>-1.8989537602078009E-4</v>
       </c>
       <c r="O5">
-        <v>5.0301205081780542E-5</v>
+        <v>1.2960161943818397E-3</v>
       </c>
       <c r="P5">
-        <v>-9.2488974327337116E-4</v>
+        <v>-1.6443897514249782E-3</v>
       </c>
       <c r="Q5">
-        <v>7.1563201571095587E-4</v>
+        <v>-7.1641241613171203E-6</v>
       </c>
       <c r="R5">
-        <v>1.4223711804113805E-3</v>
+        <v>1.5998660870167845E-3</v>
       </c>
       <c r="S5">
-        <v>-3.7015665174828247E-5</v>
+        <v>-1.2523989593404421E-4</v>
       </c>
       <c r="T5">
-        <v>-4.7450991342242767E-6</v>
+        <v>-4.0338892028050661E-4</v>
       </c>
       <c r="U5">
-        <v>-5.2978498675384025E-4</v>
+        <v>-6.4977632204395522E-4</v>
       </c>
       <c r="V5">
-        <v>1.5904068474530369E-3</v>
+        <v>1.2403882726379173E-3</v>
       </c>
       <c r="W5">
-        <v>3.4132770771835613E-4</v>
+        <v>4.6010790175434661E-4</v>
       </c>
       <c r="X5">
-        <v>8.4584032308539269E-5</v>
+        <v>6.1819002863326071E-5</v>
       </c>
       <c r="Y5">
-        <v>5.5538075228228482E-5</v>
+        <v>1.7307081195449999E-4</v>
       </c>
       <c r="Z5">
-        <v>7.123593555310797E-5</v>
+        <v>1.371948477585203E-4</v>
       </c>
       <c r="AA5">
-        <v>1.0395216192110124E-4</v>
+        <v>2.6736896723420075E-4</v>
       </c>
       <c r="AB5">
-        <v>-5.5481638472540035E-6</v>
+        <v>-1.1020373124667325E-5</v>
       </c>
       <c r="AC5">
-        <v>-6.9196469280772763E-6</v>
+        <v>-1.0493636628469954E-4</v>
       </c>
       <c r="AD5">
-        <v>1.9994939305393407E-4</v>
+        <v>2.0112264304339932E-4</v>
       </c>
       <c r="AE5">
-        <v>-7.5765143071815227E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-6.0147184073278334E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>0.21089718664314658</v>
+        <v>0.11042233609158911</v>
       </c>
       <c r="C6">
-        <v>-2.4602599156696046E-4</v>
+        <v>-3.9077591489354563E-4</v>
       </c>
       <c r="D6">
-        <v>3.5474374532243726E-6</v>
+        <v>5.4448348769448498E-6</v>
       </c>
       <c r="E6">
-        <v>9.7943537732257981E-3</v>
+        <v>1.082696072489981E-2</v>
       </c>
       <c r="F6">
-        <v>1.0813286018153498E-2</v>
+        <v>1.1852530204588358E-2</v>
       </c>
       <c r="G6">
-        <v>1.1796034159354348E-2</v>
+        <v>1.2906410864508909E-2</v>
       </c>
       <c r="H6">
-        <v>1.1354055620894633E-2</v>
+        <v>1.2491230510278816E-2</v>
       </c>
       <c r="I6">
-        <v>6.3445451012477012E-5</v>
+        <v>1.6951544591098958E-4</v>
       </c>
       <c r="J6">
-        <v>7.3047883384878831E-6</v>
+        <v>-1.7991903404458547E-4</v>
       </c>
       <c r="K6">
-        <v>6.1654981279609354E-4</v>
+        <v>8.6706727049488605E-4</v>
       </c>
       <c r="L6">
-        <v>-1.5367036373404967E-4</v>
+        <v>1.2709541490944646E-4</v>
       </c>
       <c r="M6">
-        <v>-2.4884395770508527E-4</v>
+        <v>-8.596955374138562E-5</v>
       </c>
       <c r="N6">
-        <v>-9.460084646641673E-5</v>
+        <v>-5.9627211248247658E-6</v>
       </c>
       <c r="O6">
-        <v>3.9649181941053564E-4</v>
+        <v>1.3997439606959448E-3</v>
       </c>
       <c r="P6">
-        <v>-1.1151659551013769E-3</v>
+        <v>-1.7230880161930914E-3</v>
       </c>
       <c r="Q6">
-        <v>6.7674111187977521E-4</v>
+        <v>1.6171765766988385E-4</v>
       </c>
       <c r="R6">
-        <v>1.8029475101716834E-3</v>
+        <v>1.8369217587112178E-3</v>
       </c>
       <c r="S6">
-        <v>7.7781518590809394E-5</v>
+        <v>2.3125061386102913E-5</v>
       </c>
       <c r="T6">
-        <v>1.9835443114895115E-4</v>
+        <v>-1.5589201098364371E-4</v>
       </c>
       <c r="U6">
-        <v>-4.7313862871178197E-4</v>
+        <v>-6.7572226304235712E-4</v>
       </c>
       <c r="V6">
-        <v>1.6867222181433899E-3</v>
+        <v>1.3395691097155302E-3</v>
       </c>
       <c r="W6">
-        <v>6.6771187474433261E-4</v>
+        <v>7.9768781211407417E-4</v>
       </c>
       <c r="X6">
-        <v>2.4070351079366267E-5</v>
+        <v>-2.1312236526672057E-5</v>
       </c>
       <c r="Y6">
-        <v>1.1587522795252116E-4</v>
+        <v>2.2998492105185336E-4</v>
       </c>
       <c r="Z6">
-        <v>1.1289422358879819E-4</v>
+        <v>1.5505942709368475E-4</v>
       </c>
       <c r="AA6">
-        <v>2.2552768444076372E-4</v>
+        <v>3.848234405092845E-4</v>
       </c>
       <c r="AB6">
-        <v>6.5851923961823272E-6</v>
+        <v>3.6355828030754206E-6</v>
       </c>
       <c r="AC6">
-        <v>2.2127151909517341E-6</v>
+        <v>-6.8393568300322526E-5</v>
       </c>
       <c r="AD6">
-        <v>1.2865512342625715E-4</v>
+        <v>1.240966661213564E-4</v>
       </c>
       <c r="AE6">
-        <v>-6.8052218685265634E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-5.1653409435239162E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>0.32352230496773549</v>
+        <v>0.1973733485394305</v>
       </c>
       <c r="C7">
-        <v>-2.3444984552383656E-4</v>
+        <v>-3.9667073177942016E-4</v>
       </c>
       <c r="D7">
-        <v>3.173579084800543E-6</v>
+        <v>5.3331330610233681E-6</v>
       </c>
       <c r="E7">
-        <v>9.743883742246948E-3</v>
+        <v>1.0825920312213234E-2</v>
       </c>
       <c r="F7">
-        <v>1.0897178939607632E-2</v>
+        <v>1.1989779517811496E-2</v>
       </c>
       <c r="G7">
-        <v>1.1354055620894633E-2</v>
+        <v>1.2491230510278816E-2</v>
       </c>
       <c r="H7">
-        <v>1.2212460893265061E-2</v>
+        <v>1.3450393928590208E-2</v>
       </c>
       <c r="I7">
-        <v>1.1450152504810637E-4</v>
+        <v>2.3493725796473492E-4</v>
       </c>
       <c r="J7">
-        <v>5.9597975445118984E-5</v>
+        <v>-1.093627433282375E-4</v>
       </c>
       <c r="K7">
-        <v>4.2879928084830522E-4</v>
+        <v>6.0167626910920171E-4</v>
       </c>
       <c r="L7">
-        <v>-1.0526251468419897E-4</v>
+        <v>1.2967671786000582E-4</v>
       </c>
       <c r="M7">
-        <v>-2.2724671934563467E-4</v>
+        <v>-8.9439514976835666E-5</v>
       </c>
       <c r="N7">
-        <v>-1.2404641904570314E-4</v>
+        <v>-6.0465431097092917E-5</v>
       </c>
       <c r="O7">
-        <v>2.1875378804844109E-4</v>
+        <v>1.3674507453468585E-3</v>
       </c>
       <c r="P7">
-        <v>-9.8346772920043617E-4</v>
+        <v>-1.5717185738079041E-3</v>
       </c>
       <c r="Q7">
-        <v>9.2787614503473705E-4</v>
+        <v>2.9551683525382358E-4</v>
       </c>
       <c r="R7">
-        <v>1.9743958653135065E-3</v>
+        <v>2.0960181038547432E-3</v>
       </c>
       <c r="S7">
-        <v>3.3545296529073691E-4</v>
+        <v>2.7536908620592231E-4</v>
       </c>
       <c r="T7">
-        <v>4.4413110305570411E-4</v>
+        <v>8.7741075901533443E-5</v>
       </c>
       <c r="U7">
-        <v>-8.5685858290911535E-4</v>
+        <v>-1.144109632787306E-3</v>
       </c>
       <c r="V7">
-        <v>1.6602337093677188E-3</v>
+        <v>1.3154806320097852E-3</v>
       </c>
       <c r="W7">
-        <v>7.5440267026996057E-4</v>
+        <v>8.9504595964762538E-4</v>
       </c>
       <c r="X7">
-        <v>8.1318688099961487E-7</v>
+        <v>-1.6897373774397918E-5</v>
       </c>
       <c r="Y7">
-        <v>2.6831040269583784E-5</v>
+        <v>1.6661274561048732E-4</v>
       </c>
       <c r="Z7">
-        <v>1.415835521625309E-4</v>
+        <v>2.0846949632933538E-4</v>
       </c>
       <c r="AA7">
-        <v>2.3285351149243937E-4</v>
+        <v>4.2271040507972359E-4</v>
       </c>
       <c r="AB7">
-        <v>1.5560584080621925E-5</v>
+        <v>1.2864916744029583E-5</v>
       </c>
       <c r="AC7">
-        <v>5.3833978304202931E-5</v>
+        <v>-2.3451656749649309E-5</v>
       </c>
       <c r="AD7">
-        <v>1.3112001741450493E-4</v>
+        <v>1.0461654827358178E-4</v>
       </c>
       <c r="AE7">
-        <v>-6.8657650352918348E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-4.9083201731670092E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.36355777370805131</v>
+        <v>-0.40708816118459201</v>
       </c>
       <c r="C8">
-        <v>-2.4544266217683714E-4</v>
+        <v>-3.4606564722542701E-4</v>
       </c>
       <c r="D8">
-        <v>3.5846175461654733E-6</v>
+        <v>5.0595107769854014E-6</v>
       </c>
       <c r="E8">
-        <v>-9.5902147044900159E-5</v>
+        <v>1.4199133152043974E-5</v>
       </c>
       <c r="F8">
-        <v>-5.9957715660830316E-5</v>
+        <v>4.0951134060547773E-5</v>
       </c>
       <c r="G8">
-        <v>6.3445451012477012E-5</v>
+        <v>1.6951544591098958E-4</v>
       </c>
       <c r="H8">
-        <v>1.1450152504810637E-4</v>
+        <v>2.3493725796473492E-4</v>
       </c>
       <c r="I8">
-        <v>5.7924808573344799E-4</v>
+        <v>7.1645264278186811E-4</v>
       </c>
       <c r="J8">
-        <v>-1.8620087677993097E-4</v>
+        <v>-2.0696958963569779E-4</v>
       </c>
       <c r="K8">
-        <v>4.5609191091904223E-4</v>
+        <v>7.7142032430185543E-4</v>
       </c>
       <c r="L8">
-        <v>-2.8844273188870164E-5</v>
+        <v>-5.5132370724736987E-6</v>
       </c>
       <c r="M8">
-        <v>-3.4008886033259651E-5</v>
+        <v>-1.4754279372201982E-5</v>
       </c>
       <c r="N8">
-        <v>-2.3797115805996834E-5</v>
+        <v>-9.1321019237858379E-6</v>
       </c>
       <c r="O8">
-        <v>-2.5639246789684674E-4</v>
+        <v>-3.0217829995954207E-4</v>
       </c>
       <c r="P8">
-        <v>-1.6455550062162666E-4</v>
+        <v>-1.9263254129953241E-4</v>
       </c>
       <c r="Q8">
-        <v>3.5449748636697659E-4</v>
+        <v>4.5919909747298344E-4</v>
       </c>
       <c r="R8">
-        <v>2.793967991802116E-4</v>
+        <v>3.9047453887293502E-4</v>
       </c>
       <c r="S8">
-        <v>-7.3133401155123659E-6</v>
+        <v>-3.5225971980116486E-6</v>
       </c>
       <c r="T8">
-        <v>-1.3389038541586801E-4</v>
+        <v>-1.5871967187189886E-4</v>
       </c>
       <c r="U8">
-        <v>7.4629929772399364E-5</v>
+        <v>5.6143894196196073E-5</v>
       </c>
       <c r="V8">
-        <v>-2.9872660484829718E-4</v>
+        <v>-2.3068582711985265E-4</v>
       </c>
       <c r="W8">
-        <v>-4.3978829278430964E-5</v>
+        <v>-3.4610740409644479E-5</v>
       </c>
       <c r="X8">
-        <v>2.039673215085291E-5</v>
+        <v>5.5703011445972905E-5</v>
       </c>
       <c r="Y8">
-        <v>9.8581632808485148E-5</v>
+        <v>1.36604349845743E-4</v>
       </c>
       <c r="Z8">
-        <v>3.9360872424089015E-5</v>
+        <v>6.9422452893638323E-5</v>
       </c>
       <c r="AA8">
-        <v>3.5773310672550116E-5</v>
+        <v>7.1359421035897084E-5</v>
       </c>
       <c r="AB8">
-        <v>-1.9206985271870794E-6</v>
+        <v>-5.9856865652064842E-6</v>
       </c>
       <c r="AC8">
-        <v>-2.9210038860997102E-5</v>
+        <v>-2.1612612411783675E-5</v>
       </c>
       <c r="AD8">
-        <v>-3.6707225658929557E-5</v>
+        <v>-3.5253330163000085E-5</v>
       </c>
       <c r="AE8">
-        <v>3.2841318709231192E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>4.7432872193144474E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>0.5255695489216281</v>
+        <v>0.55654840426804886</v>
       </c>
       <c r="C9">
-        <v>9.8123581147082153E-5</v>
+        <v>1.0311150641513066E-4</v>
       </c>
       <c r="D9">
-        <v>-8.8600019508144353E-7</v>
+        <v>-8.9141453003874205E-7</v>
       </c>
       <c r="E9">
-        <v>6.972756297580953E-5</v>
+        <v>-1.0831815366020049E-4</v>
       </c>
       <c r="F9">
-        <v>4.015276974907037E-5</v>
+        <v>-1.2714464377366159E-4</v>
       </c>
       <c r="G9">
-        <v>7.3047883384878831E-6</v>
+        <v>-1.7991903404458547E-4</v>
       </c>
       <c r="H9">
-        <v>5.9597975445118984E-5</v>
+        <v>-1.093627433282375E-4</v>
       </c>
       <c r="I9">
-        <v>-1.8620087677993097E-4</v>
+        <v>-2.0696958963569779E-4</v>
       </c>
       <c r="J9">
-        <v>9.9930451431120507E-4</v>
+        <v>1.1378558345158194E-3</v>
       </c>
       <c r="K9">
-        <v>-1.9590045510350224E-4</v>
+        <v>-3.9610780146482174E-4</v>
       </c>
       <c r="L9">
-        <v>1.2073080143495409E-4</v>
+        <v>1.1451326577535486E-4</v>
       </c>
       <c r="M9">
-        <v>4.5505403584093491E-5</v>
+        <v>2.104149771582197E-5</v>
       </c>
       <c r="N9">
-        <v>7.1806095570527508E-5</v>
+        <v>5.4501188631921808E-5</v>
       </c>
       <c r="O9">
-        <v>-7.6016943082586239E-5</v>
+        <v>-8.1631102355720665E-5</v>
       </c>
       <c r="P9">
-        <v>1.3689369312874485E-4</v>
+        <v>2.9069926556007995E-4</v>
       </c>
       <c r="Q9">
-        <v>2.3466668338923622E-4</v>
+        <v>2.4559290259101234E-4</v>
       </c>
       <c r="R9">
-        <v>1.6509501313555008E-4</v>
+        <v>1.075206386883167E-4</v>
       </c>
       <c r="S9">
-        <v>1.3603830131956427E-4</v>
+        <v>1.6390653414245847E-4</v>
       </c>
       <c r="T9">
-        <v>2.173749503133859E-4</v>
+        <v>2.6277999830140594E-4</v>
       </c>
       <c r="U9">
-        <v>2.2839203501109819E-5</v>
+        <v>7.6766952158743157E-6</v>
       </c>
       <c r="V9">
-        <v>9.261436040511415E-6</v>
+        <v>-4.2269863612068412E-5</v>
       </c>
       <c r="W9">
-        <v>-1.3615565908349213E-4</v>
+        <v>-1.7390450590261522E-4</v>
       </c>
       <c r="X9">
-        <v>-1.5727301775685082E-5</v>
+        <v>-4.0983901604894256E-5</v>
       </c>
       <c r="Y9">
-        <v>-6.8043366879415329E-5</v>
+        <v>-1.0323295767327505E-4</v>
       </c>
       <c r="Z9">
-        <v>4.9287603916078391E-5</v>
+        <v>4.2027742880025124E-5</v>
       </c>
       <c r="AA9">
-        <v>-1.5212074111444903E-5</v>
+        <v>-3.1886054298620639E-5</v>
       </c>
       <c r="AB9">
-        <v>-1.6926456153721173E-6</v>
+        <v>-1.7490710265850139E-6</v>
       </c>
       <c r="AC9">
-        <v>-3.2100573464919941E-5</v>
+        <v>-3.2051521032759535E-5</v>
       </c>
       <c r="AD9">
-        <v>-5.3013709167717092E-5</v>
+        <v>-3.3745626086008188E-5</v>
       </c>
       <c r="AE9">
-        <v>-2.518792532592672E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-2.4751847126966171E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>-0.4907855654592797</v>
+        <v>-0.65593712483165645</v>
       </c>
       <c r="C10">
-        <v>-3.0553990836861347E-5</v>
+        <v>-2.2420644401471151E-4</v>
       </c>
       <c r="D10">
-        <v>8.1353378195042386E-7</v>
+        <v>3.5792572188501697E-6</v>
       </c>
       <c r="E10">
-        <v>2.524664651923211E-4</v>
+        <v>4.7787700198174878E-4</v>
       </c>
       <c r="F10">
-        <v>-8.4814388509073767E-5</v>
+        <v>-4.1958938066252206E-5</v>
       </c>
       <c r="G10">
-        <v>6.1654981279609354E-4</v>
+        <v>8.6706727049488605E-4</v>
       </c>
       <c r="H10">
-        <v>4.2879928084830522E-4</v>
+        <v>6.0167626910920171E-4</v>
       </c>
       <c r="I10">
-        <v>4.5609191091904223E-4</v>
+        <v>7.7142032430185543E-4</v>
       </c>
       <c r="J10">
-        <v>-1.9590045510350224E-4</v>
+        <v>-3.9610780146482174E-4</v>
       </c>
       <c r="K10">
-        <v>0.10269921898830914</v>
+        <v>0.11238311959979209</v>
       </c>
       <c r="L10">
-        <v>8.2871834185098969E-2</v>
+        <v>8.3408563028535554E-2</v>
       </c>
       <c r="M10">
-        <v>8.2876410299553366E-2</v>
+        <v>8.3356417175164385E-2</v>
       </c>
       <c r="N10">
-        <v>8.2981687765313145E-2</v>
+        <v>8.348927995138844E-2</v>
       </c>
       <c r="O10">
-        <v>-2.1051031555095051E-4</v>
+        <v>-4.1770566702561962E-4</v>
       </c>
       <c r="P10">
-        <v>-6.9539869590587444E-5</v>
+        <v>-1.579586392915569E-4</v>
       </c>
       <c r="Q10">
-        <v>1.6222587960817297E-4</v>
+        <v>4.2891509356212179E-4</v>
       </c>
       <c r="R10">
-        <v>1.8417938117399821E-4</v>
+        <v>3.5770944295009793E-4</v>
       </c>
       <c r="S10">
-        <v>3.6739385443292929E-4</v>
+        <v>4.9874497267640965E-4</v>
       </c>
       <c r="T10">
-        <v>2.9803460748375511E-4</v>
+        <v>5.2687166398304036E-5</v>
       </c>
       <c r="U10">
-        <v>6.0375735101814154E-4</v>
+        <v>5.0160279715311118E-4</v>
       </c>
       <c r="V10">
-        <v>1.6125545789099152E-4</v>
+        <v>-2.5140153895613152E-4</v>
       </c>
       <c r="W10">
-        <v>-1.1686118724401999E-4</v>
+        <v>-2.3047462583939901E-4</v>
       </c>
       <c r="X10">
-        <v>-3.3726839032244792E-4</v>
+        <v>-2.9498342873946967E-4</v>
       </c>
       <c r="Y10">
-        <v>-2.0988205206258102E-4</v>
+        <v>-1.8350964829420054E-4</v>
       </c>
       <c r="Z10">
-        <v>-6.7777246865836568E-5</v>
+        <v>-3.1001252241920178E-5</v>
       </c>
       <c r="AA10">
-        <v>4.0065146049607456E-4</v>
+        <v>6.2292476934466129E-4</v>
       </c>
       <c r="AB10">
-        <v>-3.2051585561263088E-5</v>
+        <v>-2.6787280646954474E-5</v>
       </c>
       <c r="AC10">
-        <v>9.5685469018919056E-4</v>
+        <v>1.5355947257847322E-3</v>
       </c>
       <c r="AD10">
-        <v>1.526384801148542E-4</v>
+        <v>2.0415111251077811E-4</v>
       </c>
       <c r="AE10">
-        <v>-8.4334134735025712E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.2115549661650467E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.52075868405208481</v>
+        <v>-0.55589023306489593</v>
       </c>
       <c r="C11">
-        <v>-3.1541527078094225E-5</v>
+        <v>-1.158437650670501E-4</v>
       </c>
       <c r="D11">
-        <v>1.1489927889356724E-6</v>
+        <v>2.4529351599740447E-6</v>
       </c>
       <c r="E11">
-        <v>-1.6573855702544998E-4</v>
+        <v>8.2262362518761584E-5</v>
       </c>
       <c r="F11">
-        <v>-3.3666525550350582E-4</v>
+        <v>-7.6396982035131008E-5</v>
       </c>
       <c r="G11">
-        <v>-1.5367036373404967E-4</v>
+        <v>1.2709541490944646E-4</v>
       </c>
       <c r="H11">
-        <v>-1.0526251468419897E-4</v>
+        <v>1.2967671786000582E-4</v>
       </c>
       <c r="I11">
-        <v>-2.8844273188870164E-5</v>
+        <v>-5.5132370724736987E-6</v>
       </c>
       <c r="J11">
-        <v>1.2073080143495409E-4</v>
+        <v>1.1451326577535486E-4</v>
       </c>
       <c r="K11">
-        <v>8.2871834185098969E-2</v>
+        <v>8.3408563028535554E-2</v>
       </c>
       <c r="L11">
-        <v>8.5419971568186495E-2</v>
+        <v>8.6106651704431214E-2</v>
       </c>
       <c r="M11">
-        <v>8.3280128400755854E-2</v>
+        <v>8.3819081451079358E-2</v>
       </c>
       <c r="N11">
-        <v>8.3342217051126724E-2</v>
+        <v>8.3883546684103014E-2</v>
       </c>
       <c r="O11">
-        <v>4.7964444709822085E-5</v>
+        <v>-6.7058549687165625E-5</v>
       </c>
       <c r="P11">
-        <v>1.2847329608924041E-4</v>
+        <v>1.9525670477280738E-4</v>
       </c>
       <c r="Q11">
-        <v>-2.604565973673284E-5</v>
+        <v>4.728088511282702E-5</v>
       </c>
       <c r="R11">
-        <v>5.3003524418195752E-5</v>
+        <v>-2.356233457315865E-5</v>
       </c>
       <c r="S11">
-        <v>7.9603239912195392E-5</v>
+        <v>3.3209018976997681E-5</v>
       </c>
       <c r="T11">
-        <v>2.4512533527073013E-4</v>
+        <v>2.8896839069420324E-4</v>
       </c>
       <c r="U11">
-        <v>1.7659913241158121E-4</v>
+        <v>5.0939359587415245E-5</v>
       </c>
       <c r="V11">
-        <v>4.1680319736302207E-4</v>
+        <v>3.6952569133921406E-4</v>
       </c>
       <c r="W11">
-        <v>4.3020560688139357E-4</v>
+        <v>4.0816138927024861E-4</v>
       </c>
       <c r="X11">
-        <v>-3.0566327412224689E-4</v>
+        <v>-3.5661409280766422E-4</v>
       </c>
       <c r="Y11">
-        <v>-2.6948317221866342E-4</v>
+        <v>-3.5498763262628401E-4</v>
       </c>
       <c r="Z11">
-        <v>-9.741845535432038E-5</v>
+        <v>-9.31338569076616E-5</v>
       </c>
       <c r="AA11">
-        <v>-7.7569982637221147E-5</v>
+        <v>-8.5703873638610581E-5</v>
       </c>
       <c r="AB11">
-        <v>-2.4992694351379417E-5</v>
+        <v>-2.3095956873329156E-5</v>
       </c>
       <c r="AC11">
-        <v>4.4308981341639742E-7</v>
+        <v>-1.8163658014058032E-5</v>
       </c>
       <c r="AD11">
-        <v>6.9580543091508906E-5</v>
+        <v>5.5295882842584104E-5</v>
       </c>
       <c r="AE11">
-        <v>-8.327690990504244E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.259433036280639E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4">
-        <v>-0.37249630314798254</v>
+        <v>-0.39335495558941203</v>
       </c>
       <c r="C12">
-        <v>-2.7613307753013728E-5</v>
+        <v>-9.3756790268602688E-5</v>
       </c>
       <c r="D12">
-        <v>1.2496043993200965E-6</v>
+        <v>2.2713556298081599E-6</v>
       </c>
       <c r="E12">
-        <v>-1.6191451412329643E-4</v>
+        <v>-1.1803068169648299E-4</v>
       </c>
       <c r="F12">
-        <v>-3.4437223261535657E-4</v>
+        <v>-2.1372171325693599E-4</v>
       </c>
       <c r="G12">
-        <v>-2.4884395770508527E-4</v>
+        <v>-8.596955374138562E-5</v>
       </c>
       <c r="H12">
-        <v>-2.2724671934563467E-4</v>
+        <v>-8.9439514976835666E-5</v>
       </c>
       <c r="I12">
-        <v>-3.4008886033259651E-5</v>
+        <v>-1.4754279372201982E-5</v>
       </c>
       <c r="J12">
-        <v>4.5505403584093491E-5</v>
+        <v>2.104149771582197E-5</v>
       </c>
       <c r="K12">
-        <v>8.2876410299553366E-2</v>
+        <v>8.3356417175164385E-2</v>
       </c>
       <c r="L12">
-        <v>8.3280128400755854E-2</v>
+        <v>8.3819081451079358E-2</v>
       </c>
       <c r="M12">
-        <v>8.3764315412242718E-2</v>
+        <v>8.4328738790195118E-2</v>
       </c>
       <c r="N12">
-        <v>8.3548426388276475E-2</v>
+        <v>8.4099734434106233E-2</v>
       </c>
       <c r="O12">
-        <v>1.6830817657444153E-4</v>
+        <v>1.2106335254669087E-4</v>
       </c>
       <c r="P12">
-        <v>5.8018156920639635E-4</v>
+        <v>5.9956195877155366E-4</v>
       </c>
       <c r="Q12">
-        <v>-9.3023786312249057E-5</v>
+        <v>-7.793156919214117E-5</v>
       </c>
       <c r="R12">
-        <v>-1.1092857343964618E-4</v>
+        <v>-9.0901459688264019E-5</v>
       </c>
       <c r="S12">
-        <v>1.3502364840170251E-4</v>
+        <v>8.9269379990214535E-5</v>
       </c>
       <c r="T12">
-        <v>4.8251351850275154E-4</v>
+        <v>5.3414085498131036E-4</v>
       </c>
       <c r="U12">
-        <v>6.9425597886171864E-4</v>
+        <v>6.5229693387577892E-4</v>
       </c>
       <c r="V12">
-        <v>2.0518897607303341E-4</v>
+        <v>2.228112377216547E-4</v>
       </c>
       <c r="W12">
-        <v>4.4099040690802511E-4</v>
+        <v>4.4627528852833782E-4</v>
       </c>
       <c r="X12">
-        <v>-4.2971129651669764E-4</v>
+        <v>-4.5531603851499229E-4</v>
       </c>
       <c r="Y12">
-        <v>-1.3738435384048724E-4</v>
+        <v>-1.9196081110558344E-4</v>
       </c>
       <c r="Z12">
-        <v>-1.3701046374394767E-4</v>
+        <v>-1.4499512629527218E-4</v>
       </c>
       <c r="AA12">
-        <v>-4.130778628612386E-5</v>
+        <v>-5.1542098648878036E-5</v>
       </c>
       <c r="AB12">
-        <v>-4.0177067824394665E-5</v>
+        <v>-4.0237440784966511E-5</v>
       </c>
       <c r="AC12">
-        <v>-3.2615095376230946E-5</v>
+        <v>-5.3477398588887282E-5</v>
       </c>
       <c r="AD12">
-        <v>1.3206213094981226E-4</v>
+        <v>1.3815132907012834E-4</v>
       </c>
       <c r="AE12">
-        <v>-8.4088537807444963E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.3674929689867894E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.41236573523790104</v>
+        <v>-0.42167878542724613</v>
       </c>
       <c r="C13">
-        <v>-8.8411873720578571E-5</v>
+        <v>-1.5659633020132912E-4</v>
       </c>
       <c r="D13">
-        <v>2.409143294760257E-6</v>
+        <v>3.4703110650433785E-6</v>
       </c>
       <c r="E13">
-        <v>-9.0764528882350363E-5</v>
+        <v>-7.1299028563447976E-5</v>
       </c>
       <c r="F13">
-        <v>-2.4654036088536104E-4</v>
+        <v>-1.8989537602078009E-4</v>
       </c>
       <c r="G13">
-        <v>-9.460084646641673E-5</v>
+        <v>-5.9627211248247658E-6</v>
       </c>
       <c r="H13">
-        <v>-1.2404641904570314E-4</v>
+        <v>-6.0465431097092917E-5</v>
       </c>
       <c r="I13">
-        <v>-2.3797115805996834E-5</v>
+        <v>-9.1321019237858379E-6</v>
       </c>
       <c r="J13">
-        <v>7.1806095570527508E-5</v>
+        <v>5.4501188631921808E-5</v>
       </c>
       <c r="K13">
-        <v>8.2981687765313145E-2</v>
+        <v>8.348927995138844E-2</v>
       </c>
       <c r="L13">
-        <v>8.3342217051126724E-2</v>
+        <v>8.3883546684103014E-2</v>
       </c>
       <c r="M13">
-        <v>8.3548426388276475E-2</v>
+        <v>8.4099734434106233E-2</v>
       </c>
       <c r="N13">
-        <v>8.4513626240214496E-2</v>
+        <v>8.5099531458320415E-2</v>
       </c>
       <c r="O13">
-        <v>6.4575275445474811E-4</v>
+        <v>3.2004891603197583E-4</v>
       </c>
       <c r="P13">
-        <v>5.5958593780584126E-4</v>
+        <v>6.823721907931804E-4</v>
       </c>
       <c r="Q13">
-        <v>-5.2162143356596774E-4</v>
+        <v>-2.3470830768380219E-4</v>
       </c>
       <c r="R13">
-        <v>1.0082987068376487E-4</v>
+        <v>6.0584531920815365E-5</v>
       </c>
       <c r="S13">
-        <v>1.3966227294142275E-4</v>
+        <v>9.9495820303539297E-5</v>
       </c>
       <c r="T13">
-        <v>5.5679838430277087E-4</v>
+        <v>6.1061363287487694E-4</v>
       </c>
       <c r="U13">
-        <v>4.1636436504424723E-4</v>
+        <v>4.8811599514153592E-4</v>
       </c>
       <c r="V13">
-        <v>9.7114099795445052E-5</v>
+        <v>1.1556462561882613E-4</v>
       </c>
       <c r="W13">
-        <v>4.9129340780704016E-4</v>
+        <v>4.9452823199923508E-4</v>
       </c>
       <c r="X13">
-        <v>-3.7605980529839891E-4</v>
+        <v>-3.9417206637571561E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.2358107971679046E-4</v>
+        <v>-1.614051387855359E-4</v>
       </c>
       <c r="Z13">
-        <v>-1.4394488598761749E-4</v>
+        <v>-1.428579643992095E-4</v>
       </c>
       <c r="AA13">
-        <v>3.3704867494124997E-5</v>
+        <v>3.5902416460376584E-5</v>
       </c>
       <c r="AB13">
-        <v>-3.6091812418058869E-5</v>
+        <v>-3.754389811499656E-5</v>
       </c>
       <c r="AC13">
-        <v>-1.103320154097337E-4</v>
+        <v>-1.0959209065759118E-4</v>
       </c>
       <c r="AD13">
-        <v>1.2590565861324982E-4</v>
+        <v>1.3834937854787302E-4</v>
       </c>
       <c r="AE13">
-        <v>-8.3377091554676208E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.3014960296850515E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>-1.3666981549696571</v>
+        <v>-1.3905505176012805</v>
       </c>
       <c r="C14">
-        <v>-1.3374487560073936E-5</v>
+        <v>-7.0337767346173759E-5</v>
       </c>
       <c r="D14">
-        <v>1.9753100939060454E-8</v>
+        <v>7.7548792867082031E-7</v>
       </c>
       <c r="E14">
-        <v>-5.3570796324276145E-4</v>
+        <v>6.8081113154224316E-4</v>
       </c>
       <c r="F14">
-        <v>5.0301205081780542E-5</v>
+        <v>1.2960161943818397E-3</v>
       </c>
       <c r="G14">
-        <v>3.9649181941053564E-4</v>
+        <v>1.3997439606959448E-3</v>
       </c>
       <c r="H14">
-        <v>2.1875378804844109E-4</v>
+        <v>1.3674507453468585E-3</v>
       </c>
       <c r="I14">
-        <v>-2.5639246789684674E-4</v>
+        <v>-3.0217829995954207E-4</v>
       </c>
       <c r="J14">
-        <v>-7.6016943082586239E-5</v>
+        <v>-8.1631102355720665E-5</v>
       </c>
       <c r="K14">
-        <v>-2.1051031555095051E-4</v>
+        <v>-4.1770566702561962E-4</v>
       </c>
       <c r="L14">
-        <v>4.7964444709822085E-5</v>
+        <v>-6.7058549687165625E-5</v>
       </c>
       <c r="M14">
-        <v>1.6830817657444153E-4</v>
+        <v>1.2106335254669087E-4</v>
       </c>
       <c r="N14">
-        <v>6.4575275445474811E-4</v>
+        <v>3.2004891603197583E-4</v>
       </c>
       <c r="O14">
-        <v>3.4275187193053627E-2</v>
+        <v>3.0019837900602697E-2</v>
       </c>
       <c r="P14">
-        <v>6.0528440511936456E-3</v>
+        <v>7.3715171803905967E-3</v>
       </c>
       <c r="Q14">
-        <v>-3.0032539010606794E-2</v>
+        <v>-2.6089285681614782E-2</v>
       </c>
       <c r="R14">
-        <v>-4.4492852454175143E-3</v>
+        <v>-5.8045829185234864E-3</v>
       </c>
       <c r="S14">
-        <v>-2.2609138632513956E-5</v>
+        <v>-1.7028883384515988E-4</v>
       </c>
       <c r="T14">
-        <v>4.1073535109521807E-4</v>
+        <v>4.8112766369078774E-4</v>
       </c>
       <c r="U14">
-        <v>-4.670240040958631E-4</v>
+        <v>6.6462186514621574E-4</v>
       </c>
       <c r="V14">
-        <v>3.3126512404285224E-4</v>
+        <v>2.8711583551464364E-4</v>
       </c>
       <c r="W14">
-        <v>9.9540523113315346E-5</v>
+        <v>1.5979472672772191E-4</v>
       </c>
       <c r="X14">
-        <v>1.4572904540082705E-4</v>
+        <v>-1.5665502466423312E-4</v>
       </c>
       <c r="Y14">
-        <v>-1.4476023578295129E-5</v>
+        <v>1.0321597835227728E-4</v>
       </c>
       <c r="Z14">
-        <v>8.6666523385264233E-5</v>
+        <v>2.6566951125058727E-5</v>
       </c>
       <c r="AA14">
-        <v>7.6975428059357289E-5</v>
+        <v>-2.3280769800746809E-6</v>
       </c>
       <c r="AB14">
-        <v>3.7613223708484802E-5</v>
+        <v>-5.742081227232421E-6</v>
       </c>
       <c r="AC14">
-        <v>-6.7309179495828216E-4</v>
+        <v>-1.6479736535241987E-4</v>
       </c>
       <c r="AD14">
-        <v>-1.1046275051395581E-4</v>
+        <v>1.203300114543026E-4</v>
       </c>
       <c r="AE14">
-        <v>3.4037936057130288E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-3.4052143995714004E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>-0.95640972697667948</v>
+        <v>-0.782357772092662</v>
       </c>
       <c r="C15">
-        <v>-1.2438374410790858E-4</v>
+        <v>-8.3293698958044129E-5</v>
       </c>
       <c r="D15">
-        <v>2.0615162463217119E-6</v>
+        <v>1.5687152503575808E-6</v>
       </c>
       <c r="E15">
-        <v>-1.5065480844195841E-4</v>
+        <v>-9.0193968064334468E-4</v>
       </c>
       <c r="F15">
-        <v>-9.2488974327337116E-4</v>
+        <v>-1.6443897514249782E-3</v>
       </c>
       <c r="G15">
-        <v>-1.1151659551013769E-3</v>
+        <v>-1.7230880161930914E-3</v>
       </c>
       <c r="H15">
-        <v>-9.8346772920043617E-4</v>
+        <v>-1.5717185738079041E-3</v>
       </c>
       <c r="I15">
-        <v>-1.6455550062162666E-4</v>
+        <v>-1.9263254129953241E-4</v>
       </c>
       <c r="J15">
-        <v>1.3689369312874485E-4</v>
+        <v>2.9069926556007995E-4</v>
       </c>
       <c r="K15">
-        <v>-6.9539869590587444E-5</v>
+        <v>-1.579586392915569E-4</v>
       </c>
       <c r="L15">
-        <v>1.2847329608924041E-4</v>
+        <v>1.9525670477280738E-4</v>
       </c>
       <c r="M15">
-        <v>5.8018156920639635E-4</v>
+        <v>5.9956195877155366E-4</v>
       </c>
       <c r="N15">
-        <v>5.5958593780584126E-4</v>
+        <v>6.823721907931804E-4</v>
       </c>
       <c r="O15">
-        <v>6.0528440511936456E-3</v>
+        <v>7.3715171803905967E-3</v>
       </c>
       <c r="P15">
-        <v>2.2193833032580299E-2</v>
+        <v>2.469931032555894E-2</v>
       </c>
       <c r="Q15">
-        <v>-6.4034514666916238E-3</v>
+        <v>-7.8117618688699712E-3</v>
       </c>
       <c r="R15">
-        <v>-1.7738744146246741E-2</v>
+        <v>-1.9844727632498678E-2</v>
       </c>
       <c r="S15">
-        <v>-1.2322835828091987E-4</v>
+        <v>6.0954458646771386E-5</v>
       </c>
       <c r="T15">
-        <v>3.4510422344793089E-4</v>
+        <v>5.8362318386861816E-4</v>
       </c>
       <c r="U15">
-        <v>2.0150147237816638E-3</v>
+        <v>1.7852280796275145E-3</v>
       </c>
       <c r="V15">
-        <v>-1.0295864663157516E-5</v>
+        <v>2.8659560442748463E-4</v>
       </c>
       <c r="W15">
-        <v>3.1496395423417125E-4</v>
+        <v>2.8554611482415389E-4</v>
       </c>
       <c r="X15">
-        <v>-6.3573599325884015E-5</v>
+        <v>-1.2347906443622259E-4</v>
       </c>
       <c r="Y15">
-        <v>5.7672157561442644E-4</v>
+        <v>5.0528443117587012E-4</v>
       </c>
       <c r="Z15">
-        <v>2.2223745881774852E-4</v>
+        <v>2.2830426423424535E-4</v>
       </c>
       <c r="AA15">
-        <v>4.1975668259770041E-5</v>
+        <v>5.3483554656324805E-5</v>
       </c>
       <c r="AB15">
-        <v>-3.8483835404416831E-5</v>
+        <v>-2.5569093645597616E-5</v>
       </c>
       <c r="AC15">
-        <v>2.5553188996572555E-4</v>
+        <v>7.2954643292397398E-5</v>
       </c>
       <c r="AD15">
-        <v>1.3684467212457562E-4</v>
+        <v>6.3742160318513768E-5</v>
       </c>
       <c r="AE15">
-        <v>1.6130265571838529E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.0226506502288544E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>1.2818423187328909</v>
+        <v>1.2514357061375931</v>
       </c>
       <c r="C16">
-        <v>3.8803979237556942E-5</v>
+        <v>3.4578102928374543E-5</v>
       </c>
       <c r="D16">
-        <v>1.2487758360248179E-7</v>
+        <v>3.2385531364596213E-7</v>
       </c>
       <c r="E16">
-        <v>-8.7821303766875709E-4</v>
+        <v>-1.4582952767404492E-3</v>
       </c>
       <c r="F16">
-        <v>7.1563201571095587E-4</v>
+        <v>-7.1641241613171203E-6</v>
       </c>
       <c r="G16">
-        <v>6.7674111187977521E-4</v>
+        <v>1.6171765766988385E-4</v>
       </c>
       <c r="H16">
-        <v>9.2787614503473705E-4</v>
+        <v>2.9551683525382358E-4</v>
       </c>
       <c r="I16">
-        <v>3.5449748636697659E-4</v>
+        <v>4.5919909747298344E-4</v>
       </c>
       <c r="J16">
-        <v>2.3466668338923622E-4</v>
+        <v>2.4559290259101234E-4</v>
       </c>
       <c r="K16">
-        <v>1.6222587960817297E-4</v>
+        <v>4.2891509356212179E-4</v>
       </c>
       <c r="L16">
-        <v>-2.604565973673284E-5</v>
+        <v>4.728088511282702E-5</v>
       </c>
       <c r="M16">
-        <v>-9.3023786312249057E-5</v>
+        <v>-7.793156919214117E-5</v>
       </c>
       <c r="N16">
-        <v>-5.2162143356596774E-4</v>
+        <v>-2.3470830768380219E-4</v>
       </c>
       <c r="O16">
-        <v>-3.0032539010606794E-2</v>
+        <v>-2.6089285681614782E-2</v>
       </c>
       <c r="P16">
-        <v>-6.4034514666916238E-3</v>
+        <v>-7.8117618688699712E-3</v>
       </c>
       <c r="Q16">
-        <v>3.0885821902589688E-2</v>
+        <v>2.7176385252101313E-2</v>
       </c>
       <c r="R16">
-        <v>5.4542993961123063E-3</v>
+        <v>6.8573393068152447E-3</v>
       </c>
       <c r="S16">
-        <v>-3.4065929495820203E-5</v>
+        <v>6.6510798759006988E-5</v>
       </c>
       <c r="T16">
-        <v>-6.9032763023016007E-4</v>
+        <v>-7.9942511813590328E-4</v>
       </c>
       <c r="U16">
-        <v>-1.432839548329741E-4</v>
+        <v>-1.255235196077723E-3</v>
       </c>
       <c r="V16">
-        <v>-1.2706597483894827E-3</v>
+        <v>-1.0407610541415459E-3</v>
       </c>
       <c r="W16">
-        <v>2.2805682392556582E-4</v>
+        <v>1.9637868908789757E-4</v>
       </c>
       <c r="X16">
-        <v>-3.1984763490598966E-4</v>
+        <v>-6.7455200221197542E-5</v>
       </c>
       <c r="Y16">
-        <v>-2.4291874862023512E-5</v>
+        <v>-1.2934470279799183E-4</v>
       </c>
       <c r="Z16">
-        <v>-8.097763906476181E-5</v>
+        <v>-4.0423775953017053E-6</v>
       </c>
       <c r="AA16">
-        <v>-8.9977630353798872E-5</v>
+        <v>1.1543495768952456E-5</v>
       </c>
       <c r="AB16">
-        <v>-3.459421253747977E-5</v>
+        <v>-2.1703148503561558E-6</v>
       </c>
       <c r="AC16">
-        <v>6.0409364286227577E-4</v>
+        <v>1.3371961543185763E-4</v>
       </c>
       <c r="AD16">
-        <v>-1.7066499037643066E-5</v>
+        <v>-1.9846476691890574E-4</v>
       </c>
       <c r="AE16">
-        <v>-2.0661404792009334E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.3700124395734085E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4">
-        <v>0.68000310201483605</v>
+        <v>0.4991038964092826</v>
       </c>
       <c r="C17">
-        <v>-1.6680758625547618E-4</v>
+        <v>-3.6255938111653258E-4</v>
       </c>
       <c r="D17">
-        <v>2.7836040595898275E-6</v>
+        <v>5.5889643954354528E-6</v>
       </c>
       <c r="E17">
-        <v>2.4251479184925727E-4</v>
+        <v>1.4091366691393412E-4</v>
       </c>
       <c r="F17">
-        <v>1.4223711804113805E-3</v>
+        <v>1.5998660870167845E-3</v>
       </c>
       <c r="G17">
-        <v>1.8029475101716834E-3</v>
+        <v>1.8369217587112178E-3</v>
       </c>
       <c r="H17">
-        <v>1.9743958653135065E-3</v>
+        <v>2.0960181038547432E-3</v>
       </c>
       <c r="I17">
-        <v>2.793967991802116E-4</v>
+        <v>3.9047453887293502E-4</v>
       </c>
       <c r="J17">
-        <v>1.6509501313555008E-4</v>
+        <v>1.075206386883167E-4</v>
       </c>
       <c r="K17">
-        <v>1.8417938117399821E-4</v>
+        <v>3.5770944295009793E-4</v>
       </c>
       <c r="L17">
-        <v>5.3003524418195752E-5</v>
+        <v>-2.356233457315865E-5</v>
       </c>
       <c r="M17">
-        <v>-1.1092857343964618E-4</v>
+        <v>-9.0901459688264019E-5</v>
       </c>
       <c r="N17">
-        <v>1.0082987068376487E-4</v>
+        <v>6.0584531920815365E-5</v>
       </c>
       <c r="O17">
-        <v>-4.4492852454175143E-3</v>
+        <v>-5.8045829185234864E-3</v>
       </c>
       <c r="P17">
-        <v>-1.7738744146246741E-2</v>
+        <v>-1.9844727632498678E-2</v>
       </c>
       <c r="Q17">
-        <v>5.4542993961123063E-3</v>
+        <v>6.8573393068152447E-3</v>
       </c>
       <c r="R17">
-        <v>1.8504837060785345E-2</v>
+        <v>2.126296197141872E-2</v>
       </c>
       <c r="S17">
-        <v>6.1073415928064007E-5</v>
+        <v>-5.7878883310831614E-5</v>
       </c>
       <c r="T17">
-        <v>-2.324218125046686E-4</v>
+        <v>-2.981116417850087E-4</v>
       </c>
       <c r="U17">
-        <v>-2.4614746630645316E-3</v>
+        <v>-2.273584430046893E-3</v>
       </c>
       <c r="V17">
-        <v>-8.6399629170084871E-5</v>
+        <v>-5.2506883980776929E-4</v>
       </c>
       <c r="W17">
-        <v>-5.9328063218875107E-6</v>
+        <v>-8.13393983407668E-5</v>
       </c>
       <c r="X17">
-        <v>1.6319947054665488E-4</v>
+        <v>1.6796314600488828E-4</v>
       </c>
       <c r="Y17">
-        <v>-2.925077307532047E-4</v>
+        <v>-2.0332203625611188E-4</v>
       </c>
       <c r="Z17">
-        <v>-7.1891819530184715E-5</v>
+        <v>-1.4726659844930241E-4</v>
       </c>
       <c r="AA17">
-        <v>1.4105864094279046E-4</v>
+        <v>1.3214594824524208E-4</v>
       </c>
       <c r="AB17">
-        <v>3.4298655472778508E-5</v>
+        <v>1.3681385188342712E-5</v>
       </c>
       <c r="AC17">
-        <v>-3.6694918157151053E-4</v>
+        <v>-2.0739589873307464E-4</v>
       </c>
       <c r="AD17">
-        <v>-2.5446161625342566E-4</v>
+        <v>-2.1692115241732168E-4</v>
       </c>
       <c r="AE17">
-        <v>2.7813403910047878E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+        <v>6.0643790476199123E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4">
-        <v>-0.12679534191093184</v>
+        <v>-0.11895989789393525</v>
       </c>
       <c r="C18">
-        <v>1.947441317754331E-4</v>
+        <v>2.0244821819838868E-4</v>
       </c>
       <c r="D18">
-        <v>-2.8537664422911215E-6</v>
+        <v>-2.9949002775572693E-6</v>
       </c>
       <c r="E18">
-        <v>1.0405837846131281E-4</v>
+        <v>8.9663126885582904E-5</v>
       </c>
       <c r="F18">
-        <v>-3.7015665174828247E-5</v>
+        <v>-1.2523989593404421E-4</v>
       </c>
       <c r="G18">
-        <v>7.7781518590809394E-5</v>
+        <v>2.3125061386102913E-5</v>
       </c>
       <c r="H18">
-        <v>3.3545296529073691E-4</v>
+        <v>2.7536908620592231E-4</v>
       </c>
       <c r="I18">
-        <v>-7.3133401155123659E-6</v>
+        <v>-3.5225971980116486E-6</v>
       </c>
       <c r="J18">
-        <v>1.3603830131956427E-4</v>
+        <v>1.6390653414245847E-4</v>
       </c>
       <c r="K18">
-        <v>3.6739385443292929E-4</v>
+        <v>4.9874497267640965E-4</v>
       </c>
       <c r="L18">
-        <v>7.9603239912195392E-5</v>
+        <v>3.3209018976997681E-5</v>
       </c>
       <c r="M18">
-        <v>1.3502364840170251E-4</v>
+        <v>8.9269379990214535E-5</v>
       </c>
       <c r="N18">
-        <v>1.3966227294142275E-4</v>
+        <v>9.9495820303539297E-5</v>
       </c>
       <c r="O18">
-        <v>-2.2609138632513956E-5</v>
+        <v>-1.7028883384515988E-4</v>
       </c>
       <c r="P18">
-        <v>-1.2322835828091987E-4</v>
+        <v>6.0954458646771386E-5</v>
       </c>
       <c r="Q18">
-        <v>-3.4065929495820203E-5</v>
+        <v>6.6510798759006988E-5</v>
       </c>
       <c r="R18">
-        <v>6.1073415928064007E-5</v>
+        <v>-5.7878883310831614E-5</v>
       </c>
       <c r="S18">
-        <v>1.0759658833633277E-3</v>
+        <v>1.137594078613077E-3</v>
       </c>
       <c r="T18">
-        <v>8.0292449449157616E-4</v>
+        <v>8.8063731253770555E-4</v>
       </c>
       <c r="U18">
-        <v>-1.5669880500687391E-5</v>
+        <v>1.3902382611647411E-4</v>
       </c>
       <c r="V18">
-        <v>1.8037970960489659E-4</v>
+        <v>1.4710589904572569E-4</v>
       </c>
       <c r="W18">
-        <v>-1.3073860672890771E-4</v>
+        <v>-1.6462157696393756E-4</v>
       </c>
       <c r="X18">
-        <v>-1.0840432266838104E-4</v>
+        <v>-1.3270636512702059E-4</v>
       </c>
       <c r="Y18">
-        <v>-5.6093069739961656E-5</v>
+        <v>-5.2945164681329705E-5</v>
       </c>
       <c r="Z18">
-        <v>-2.4554430232965393E-5</v>
+        <v>-3.0940804837179784E-5</v>
       </c>
       <c r="AA18">
-        <v>3.9734733353461192E-5</v>
+        <v>4.578867480759102E-5</v>
       </c>
       <c r="AB18">
-        <v>1.5155706942442265E-5</v>
+        <v>1.6104011822982094E-5</v>
       </c>
       <c r="AC18">
-        <v>1.1371041802333659E-4</v>
+        <v>1.4169447776430223E-4</v>
       </c>
       <c r="AD18">
-        <v>8.0595371579245166E-6</v>
+        <v>8.9914177586291992E-6</v>
       </c>
       <c r="AE18">
-        <v>-4.3217647110433202E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-4.5603044500566493E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="4">
-        <v>5.241224072958791E-2</v>
+        <v>7.7582214540788771E-2</v>
       </c>
       <c r="C19">
-        <v>4.3471502857014128E-4</v>
+        <v>5.1115507346816309E-4</v>
       </c>
       <c r="D19">
-        <v>-6.1831073483209926E-6</v>
+        <v>-7.3400097822244224E-6</v>
       </c>
       <c r="E19">
-        <v>4.1395703325142544E-5</v>
+        <v>-4.5343016912408301E-4</v>
       </c>
       <c r="F19">
-        <v>-4.7450991342242767E-6</v>
+        <v>-4.0338892028050661E-4</v>
       </c>
       <c r="G19">
-        <v>1.9835443114895115E-4</v>
+        <v>-1.5589201098364371E-4</v>
       </c>
       <c r="H19">
-        <v>4.4413110305570411E-4</v>
+        <v>8.7741075901533443E-5</v>
       </c>
       <c r="I19">
-        <v>-1.3389038541586801E-4</v>
+        <v>-1.5871967187189886E-4</v>
       </c>
       <c r="J19">
-        <v>2.173749503133859E-4</v>
+        <v>2.6277999830140594E-4</v>
       </c>
       <c r="K19">
-        <v>2.9803460748375511E-4</v>
+        <v>5.2687166398304036E-5</v>
       </c>
       <c r="L19">
-        <v>2.4512533527073013E-4</v>
+        <v>2.8896839069420324E-4</v>
       </c>
       <c r="M19">
-        <v>4.8251351850275154E-4</v>
+        <v>5.3414085498131036E-4</v>
       </c>
       <c r="N19">
-        <v>5.5679838430277087E-4</v>
+        <v>6.1061363287487694E-4</v>
       </c>
       <c r="O19">
-        <v>4.1073535109521807E-4</v>
+        <v>4.8112766369078774E-4</v>
       </c>
       <c r="P19">
-        <v>3.4510422344793089E-4</v>
+        <v>5.8362318386861816E-4</v>
       </c>
       <c r="Q19">
-        <v>-6.9032763023016007E-4</v>
+        <v>-7.9942511813590328E-4</v>
       </c>
       <c r="R19">
-        <v>-2.324218125046686E-4</v>
+        <v>-2.981116417850087E-4</v>
       </c>
       <c r="S19">
-        <v>8.0292449449157616E-4</v>
+        <v>8.8063731253770555E-4</v>
       </c>
       <c r="T19">
-        <v>4.9289015770234978E-3</v>
+        <v>5.5692533987320852E-3</v>
       </c>
       <c r="U19">
-        <v>5.9655935435154808E-4</v>
+        <v>7.0255513293782448E-4</v>
       </c>
       <c r="V19">
-        <v>1.7497935097796243E-4</v>
+        <v>1.5289174867102106E-4</v>
       </c>
       <c r="W19">
-        <v>-1.7031805515383064E-4</v>
+        <v>-2.4289571105343144E-4</v>
       </c>
       <c r="X19">
-        <v>-2.2551490936946461E-4</v>
+        <v>-3.0207062735271815E-4</v>
       </c>
       <c r="Y19">
-        <v>5.9127531784984258E-5</v>
+        <v>6.2342945728170263E-5</v>
       </c>
       <c r="Z19">
-        <v>-2.5553700816080408E-4</v>
+        <v>-3.4334907251378952E-4</v>
       </c>
       <c r="AA19">
-        <v>1.5704236375953164E-5</v>
+        <v>-1.2798129174576643E-5</v>
       </c>
       <c r="AB19">
-        <v>2.7198838766744183E-5</v>
+        <v>3.228905098529677E-5</v>
       </c>
       <c r="AC19">
-        <v>1.9459314515334666E-5</v>
+        <v>7.1530833624467837E-5</v>
       </c>
       <c r="AD19">
-        <v>3.1869475301858977E-7</v>
+        <v>1.0549778538135107E-5</v>
       </c>
       <c r="AE19">
-        <v>-9.8555814007287648E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-1.0971584647945974E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="4">
-        <v>0.11063101576622791</v>
+        <v>0.14448540653345693</v>
       </c>
       <c r="C20">
-        <v>1.9357893824640052E-4</v>
+        <v>3.1549307267034199E-4</v>
       </c>
       <c r="D20">
-        <v>-2.4669061481880734E-6</v>
+        <v>-4.1952287011245222E-6</v>
       </c>
       <c r="E20">
-        <v>-5.8386536153932217E-4</v>
+        <v>-1.1003675921391239E-3</v>
       </c>
       <c r="F20">
-        <v>-5.2978498675384025E-4</v>
+        <v>-6.4977632204395522E-4</v>
       </c>
       <c r="G20">
-        <v>-4.7313862871178197E-4</v>
+        <v>-6.7572226304235712E-4</v>
       </c>
       <c r="H20">
-        <v>-8.5685858290911535E-4</v>
+        <v>-1.144109632787306E-3</v>
       </c>
       <c r="I20">
-        <v>7.4629929772399364E-5</v>
+        <v>5.6143894196196073E-5</v>
       </c>
       <c r="J20">
-        <v>2.2839203501109819E-5</v>
+        <v>7.6766952158743157E-6</v>
       </c>
       <c r="K20">
-        <v>6.0375735101814154E-4</v>
+        <v>5.0160279715311118E-4</v>
       </c>
       <c r="L20">
-        <v>1.7659913241158121E-4</v>
+        <v>5.0939359587415245E-5</v>
       </c>
       <c r="M20">
-        <v>6.9425597886171864E-4</v>
+        <v>6.5229693387577892E-4</v>
       </c>
       <c r="N20">
-        <v>4.1636436504424723E-4</v>
+        <v>4.8811599514153592E-4</v>
       </c>
       <c r="O20">
-        <v>-4.670240040958631E-4</v>
+        <v>6.6462186514621574E-4</v>
       </c>
       <c r="P20">
-        <v>2.0150147237816638E-3</v>
+        <v>1.7852280796275145E-3</v>
       </c>
       <c r="Q20">
-        <v>-1.432839548329741E-4</v>
+        <v>-1.255235196077723E-3</v>
       </c>
       <c r="R20">
-        <v>-2.4614746630645316E-3</v>
+        <v>-2.273584430046893E-3</v>
       </c>
       <c r="S20">
-        <v>-1.5669880500687391E-5</v>
+        <v>1.3902382611647411E-4</v>
       </c>
       <c r="T20">
-        <v>5.9655935435154808E-4</v>
+        <v>7.0255513293782448E-4</v>
       </c>
       <c r="U20">
-        <v>6.2416381217973604E-2</v>
+        <v>6.5651319754219034E-2</v>
       </c>
       <c r="V20">
-        <v>-5.5332822571069196E-4</v>
+        <v>-1.3498242125529678E-4</v>
       </c>
       <c r="W20">
-        <v>-1.6582405919078613E-4</v>
+        <v>-2.6248904534658529E-4</v>
       </c>
       <c r="X20">
-        <v>-1.0110544697143359E-4</v>
+        <v>3.4789616885904685E-5</v>
       </c>
       <c r="Y20">
-        <v>5.0825368584891538E-4</v>
+        <v>4.3336293474365451E-4</v>
       </c>
       <c r="Z20">
-        <v>3.8721777011389066E-4</v>
+        <v>4.2237190165875455E-4</v>
       </c>
       <c r="AA20">
-        <v>5.0385381250580511E-4</v>
+        <v>5.2334233900151609E-4</v>
       </c>
       <c r="AB20">
-        <v>-3.9127415409934688E-4</v>
+        <v>-4.0549270223684655E-4</v>
       </c>
       <c r="AC20">
-        <v>-6.8635028850618646E-4</v>
+        <v>-7.8785914883360703E-4</v>
       </c>
       <c r="AD20">
-        <v>3.5561337847151743E-3</v>
+        <v>3.6610256137662861E-3</v>
       </c>
       <c r="AE20">
-        <v>-8.2547430247715436E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.8577819672190861E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="4">
-        <v>0.19022205113550281</v>
+        <v>8.1386377636812543E-2</v>
       </c>
       <c r="C21">
-        <v>1.0631072895968168E-3</v>
+        <v>1.0584513860028462E-3</v>
       </c>
       <c r="D21">
-        <v>-1.454936170305119E-5</v>
+        <v>-1.4422839913809203E-5</v>
       </c>
       <c r="E21">
-        <v>6.773953233228081E-4</v>
+        <v>3.3699088986800883E-4</v>
       </c>
       <c r="F21">
-        <v>1.5904068474530369E-3</v>
+        <v>1.2403882726379173E-3</v>
       </c>
       <c r="G21">
-        <v>1.6867222181433899E-3</v>
+        <v>1.3395691097155302E-3</v>
       </c>
       <c r="H21">
-        <v>1.6602337093677188E-3</v>
+        <v>1.3154806320097852E-3</v>
       </c>
       <c r="I21">
-        <v>-2.9872660484829718E-4</v>
+        <v>-2.3068582711985265E-4</v>
       </c>
       <c r="J21">
-        <v>9.261436040511415E-6</v>
+        <v>-4.2269863612068412E-5</v>
       </c>
       <c r="K21">
-        <v>1.6125545789099152E-4</v>
+        <v>-2.5140153895613152E-4</v>
       </c>
       <c r="L21">
-        <v>4.1680319736302207E-4</v>
+        <v>3.6952569133921406E-4</v>
       </c>
       <c r="M21">
-        <v>2.0518897607303341E-4</v>
+        <v>2.228112377216547E-4</v>
       </c>
       <c r="N21">
-        <v>9.7114099795445052E-5</v>
+        <v>1.1556462561882613E-4</v>
       </c>
       <c r="O21">
-        <v>3.3126512404285224E-4</v>
+        <v>2.8711583551464364E-4</v>
       </c>
       <c r="P21">
-        <v>-1.0295864663157516E-5</v>
+        <v>2.8659560442748463E-4</v>
       </c>
       <c r="Q21">
-        <v>-1.2706597483894827E-3</v>
+        <v>-1.0407610541415459E-3</v>
       </c>
       <c r="R21">
-        <v>-8.6399629170084871E-5</v>
+        <v>-5.2506883980776929E-4</v>
       </c>
       <c r="S21">
-        <v>1.8037970960489659E-4</v>
+        <v>1.4710589904572569E-4</v>
       </c>
       <c r="T21">
-        <v>1.7497935097796243E-4</v>
+        <v>1.5289174867102106E-4</v>
       </c>
       <c r="U21">
-        <v>-5.5332822571069196E-4</v>
+        <v>-1.3498242125529678E-4</v>
       </c>
       <c r="V21">
-        <v>2.6554586964711607E-2</v>
+        <v>2.5513084365640416E-2</v>
       </c>
       <c r="W21">
-        <v>8.7860549184854645E-4</v>
+        <v>9.208017939467514E-4</v>
       </c>
       <c r="X21">
-        <v>4.8025606296229952E-5</v>
+        <v>8.0017973537814535E-5</v>
       </c>
       <c r="Y21">
-        <v>-2.6309026299803427E-4</v>
+        <v>-2.5248743567831224E-4</v>
       </c>
       <c r="Z21">
-        <v>5.0032542923867307E-5</v>
+        <v>9.7163229883987434E-5</v>
       </c>
       <c r="AA21">
-        <v>5.8385559995398567E-5</v>
+        <v>7.7618509730101445E-5</v>
       </c>
       <c r="AB21">
-        <v>2.2382438987754517E-5</v>
+        <v>2.1679146108655712E-5</v>
       </c>
       <c r="AC21">
-        <v>-8.6796940181330454E-5</v>
+        <v>-5.8726776009524265E-6</v>
       </c>
       <c r="AD21">
-        <v>-4.1270956198926831E-6</v>
+        <v>3.4567471619621065E-5</v>
       </c>
       <c r="AE21">
-        <v>-2.036382538737308E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-2.0703109780716655E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="4">
-        <v>-0.11594130982018155</v>
+        <v>-0.10958072772627631</v>
       </c>
       <c r="C22">
-        <v>8.1037235200115409E-5</v>
+        <v>7.4799353775416039E-5</v>
       </c>
       <c r="D22">
-        <v>-9.3142986738973946E-7</v>
+        <v>-8.3463062452722691E-7</v>
       </c>
       <c r="E22">
-        <v>-2.189067059590107E-4</v>
+        <v>-3.1598519528578881E-5</v>
       </c>
       <c r="F22">
-        <v>3.4132770771835613E-4</v>
+        <v>4.6010790175434661E-4</v>
       </c>
       <c r="G22">
-        <v>6.6771187474433261E-4</v>
+        <v>7.9768781211407417E-4</v>
       </c>
       <c r="H22">
-        <v>7.5440267026996057E-4</v>
+        <v>8.9504595964762538E-4</v>
       </c>
       <c r="I22">
-        <v>-4.3978829278430964E-5</v>
+        <v>-3.4610740409644479E-5</v>
       </c>
       <c r="J22">
-        <v>-1.3615565908349213E-4</v>
+        <v>-1.7390450590261522E-4</v>
       </c>
       <c r="K22">
-        <v>-1.1686118724401999E-4</v>
+        <v>-2.3047462583939901E-4</v>
       </c>
       <c r="L22">
-        <v>4.3020560688139357E-4</v>
+        <v>4.0816138927024861E-4</v>
       </c>
       <c r="M22">
-        <v>4.4099040690802511E-4</v>
+        <v>4.4627528852833782E-4</v>
       </c>
       <c r="N22">
-        <v>4.9129340780704016E-4</v>
+        <v>4.9452823199923508E-4</v>
       </c>
       <c r="O22">
-        <v>9.9540523113315346E-5</v>
+        <v>1.5979472672772191E-4</v>
       </c>
       <c r="P22">
-        <v>3.1496395423417125E-4</v>
+        <v>2.8554611482415389E-4</v>
       </c>
       <c r="Q22">
-        <v>2.2805682392556582E-4</v>
+        <v>1.9637868908789757E-4</v>
       </c>
       <c r="R22">
-        <v>-5.9328063218875107E-6</v>
+        <v>-8.13393983407668E-5</v>
       </c>
       <c r="S22">
-        <v>-1.3073860672890771E-4</v>
+        <v>-1.6462157696393756E-4</v>
       </c>
       <c r="T22">
-        <v>-1.7031805515383064E-4</v>
+        <v>-2.4289571105343144E-4</v>
       </c>
       <c r="U22">
-        <v>-1.6582405919078613E-4</v>
+        <v>-2.6248904534658529E-4</v>
       </c>
       <c r="V22">
-        <v>8.7860549184854645E-4</v>
+        <v>9.208017939467514E-4</v>
       </c>
       <c r="W22">
-        <v>1.3873488472551769E-3</v>
+        <v>1.4342445815262294E-3</v>
       </c>
       <c r="X22">
-        <v>3.7195472163956302E-5</v>
+        <v>6.4076411211942306E-5</v>
       </c>
       <c r="Y22">
-        <v>1.08302266616709E-4</v>
+        <v>1.3654345751414995E-4</v>
       </c>
       <c r="Z22">
-        <v>8.8577990854320497E-5</v>
+        <v>1.1598520803813443E-4</v>
       </c>
       <c r="AA22">
-        <v>6.3234820791791587E-5</v>
+        <v>8.6666969157887569E-5</v>
       </c>
       <c r="AB22">
-        <v>5.8217983257112269E-6</v>
+        <v>5.5313052118987556E-6</v>
       </c>
       <c r="AC22">
-        <v>-8.0948093482850921E-5</v>
+        <v>-1.2439440974154766E-4</v>
       </c>
       <c r="AD22">
-        <v>6.689228554806147E-6</v>
+        <v>-1.7986701012400364E-5</v>
       </c>
       <c r="AE22">
-        <v>-2.8261127266593373E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-2.7540267658700476E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4">
-        <v>-9.7498063104992469E-2</v>
+        <v>-0.11201617428072587</v>
       </c>
       <c r="C23">
-        <v>7.6401917714927301E-6</v>
+        <v>-2.141965003236079E-5</v>
       </c>
       <c r="D23">
-        <v>-1.0943144688778381E-7</v>
+        <v>3.0931627974827824E-7</v>
       </c>
       <c r="E23">
-        <v>7.3190915759435834E-5</v>
+        <v>-8.6086262950264836E-6</v>
       </c>
       <c r="F23">
-        <v>8.4584032308539269E-5</v>
+        <v>6.1819002863326071E-5</v>
       </c>
       <c r="G23">
-        <v>2.4070351079366267E-5</v>
+        <v>-2.1312236526672057E-5</v>
       </c>
       <c r="H23">
-        <v>8.1318688099961487E-7</v>
+        <v>-1.6897373774397918E-5</v>
       </c>
       <c r="I23">
-        <v>2.039673215085291E-5</v>
+        <v>5.5703011445972905E-5</v>
       </c>
       <c r="J23">
-        <v>-1.5727301775685082E-5</v>
+        <v>-4.0983901604894256E-5</v>
       </c>
       <c r="K23">
-        <v>-3.3726839032244792E-4</v>
+        <v>-2.9498342873946967E-4</v>
       </c>
       <c r="L23">
-        <v>-3.0566327412224689E-4</v>
+        <v>-3.5661409280766422E-4</v>
       </c>
       <c r="M23">
-        <v>-4.2971129651669764E-4</v>
+        <v>-4.5531603851499229E-4</v>
       </c>
       <c r="N23">
-        <v>-3.7605980529839891E-4</v>
+        <v>-3.9417206637571561E-4</v>
       </c>
       <c r="O23">
-        <v>1.4572904540082705E-4</v>
+        <v>-1.5665502466423312E-4</v>
       </c>
       <c r="P23">
-        <v>-6.3573599325884015E-5</v>
+        <v>-1.2347906443622259E-4</v>
       </c>
       <c r="Q23">
-        <v>-3.1984763490598966E-4</v>
+        <v>-6.7455200221197542E-5</v>
       </c>
       <c r="R23">
-        <v>1.6319947054665488E-4</v>
+        <v>1.6796314600488828E-4</v>
       </c>
       <c r="S23">
-        <v>-1.0840432266838104E-4</v>
+        <v>-1.3270636512702059E-4</v>
       </c>
       <c r="T23">
-        <v>-2.2551490936946461E-4</v>
+        <v>-3.0207062735271815E-4</v>
       </c>
       <c r="U23">
-        <v>-1.0110544697143359E-4</v>
+        <v>3.4789616885904685E-5</v>
       </c>
       <c r="V23">
-        <v>4.8025606296229952E-5</v>
+        <v>8.0017973537814535E-5</v>
       </c>
       <c r="W23">
-        <v>3.7195472163956302E-5</v>
+        <v>6.4076411211942306E-5</v>
       </c>
       <c r="X23">
-        <v>2.3988648480145563E-3</v>
+        <v>2.5649205471039173E-3</v>
       </c>
       <c r="Y23">
-        <v>1.1298185252302893E-3</v>
+        <v>1.2313576985818427E-3</v>
       </c>
       <c r="Z23">
-        <v>1.1344990899822324E-3</v>
+        <v>1.2318360547448994E-3</v>
       </c>
       <c r="AA23">
-        <v>1.1195402555011888E-3</v>
+        <v>1.2170742779416765E-3</v>
       </c>
       <c r="AB23">
-        <v>-1.2338628439429318E-5</v>
+        <v>-1.7516237114680483E-5</v>
       </c>
       <c r="AC23">
-        <v>-1.1850751924318671E-5</v>
+        <v>-2.8662482840621155E-6</v>
       </c>
       <c r="AD23">
-        <v>2.3512102786675141E-5</v>
+        <v>5.6265968278130097E-5</v>
       </c>
       <c r="AE23">
-        <v>-5.0103716181525235E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-1.8059689487154133E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4">
-        <v>-8.7415412364275469E-2</v>
+        <v>-9.4988644502095501E-2</v>
       </c>
       <c r="C24">
-        <v>-2.1573238966101835E-5</v>
+        <v>-4.554678028819998E-5</v>
       </c>
       <c r="D24">
-        <v>2.8548481207330564E-7</v>
+        <v>6.1736848323687481E-7</v>
       </c>
       <c r="E24">
-        <v>-1.2731231172225524E-5</v>
+        <v>1.3244535448920088E-4</v>
       </c>
       <c r="F24">
-        <v>5.5538075228228482E-5</v>
+        <v>1.7307081195449999E-4</v>
       </c>
       <c r="G24">
-        <v>1.1587522795252116E-4</v>
+        <v>2.2998492105185336E-4</v>
       </c>
       <c r="H24">
-        <v>2.6831040269583784E-5</v>
+        <v>1.6661274561048732E-4</v>
       </c>
       <c r="I24">
-        <v>9.8581632808485148E-5</v>
+        <v>1.36604349845743E-4</v>
       </c>
       <c r="J24">
-        <v>-6.8043366879415329E-5</v>
+        <v>-1.0323295767327505E-4</v>
       </c>
       <c r="K24">
-        <v>-2.0988205206258102E-4</v>
+        <v>-1.8350964829420054E-4</v>
       </c>
       <c r="L24">
-        <v>-2.6948317221866342E-4</v>
+        <v>-3.5498763262628401E-4</v>
       </c>
       <c r="M24">
-        <v>-1.3738435384048724E-4</v>
+        <v>-1.9196081110558344E-4</v>
       </c>
       <c r="N24">
-        <v>-1.2358107971679046E-4</v>
+        <v>-1.614051387855359E-4</v>
       </c>
       <c r="O24">
-        <v>-1.4476023578295129E-5</v>
+        <v>1.0321597835227728E-4</v>
       </c>
       <c r="P24">
-        <v>5.7672157561442644E-4</v>
+        <v>5.0528443117587012E-4</v>
       </c>
       <c r="Q24">
-        <v>-2.4291874862023512E-5</v>
+        <v>-1.2934470279799183E-4</v>
       </c>
       <c r="R24">
-        <v>-2.925077307532047E-4</v>
+        <v>-2.0332203625611188E-4</v>
       </c>
       <c r="S24">
-        <v>-5.6093069739961656E-5</v>
+        <v>-5.2945164681329705E-5</v>
       </c>
       <c r="T24">
-        <v>5.9127531784984258E-5</v>
+        <v>6.2342945728170263E-5</v>
       </c>
       <c r="U24">
-        <v>5.0825368584891538E-4</v>
+        <v>4.3336293474365451E-4</v>
       </c>
       <c r="V24">
-        <v>-2.6309026299803427E-4</v>
+        <v>-2.5248743567831224E-4</v>
       </c>
       <c r="W24">
-        <v>1.08302266616709E-4</v>
+        <v>1.3654345751414995E-4</v>
       </c>
       <c r="X24">
-        <v>1.1298185252302893E-3</v>
+        <v>1.2313576985818427E-3</v>
       </c>
       <c r="Y24">
-        <v>3.3027994395229353E-3</v>
+        <v>3.5362662149054352E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1179769803640075E-3</v>
+        <v>1.2190058216788777E-3</v>
       </c>
       <c r="AA24">
-        <v>1.131400342136225E-3</v>
+        <v>1.2332353184284725E-3</v>
       </c>
       <c r="AB24">
-        <v>-1.2180514094837525E-5</v>
+        <v>-1.2067402734889788E-5</v>
       </c>
       <c r="AC24">
-        <v>-8.5826229257655816E-5</v>
+        <v>-1.3666947866350148E-4</v>
       </c>
       <c r="AD24">
-        <v>3.5171716277078617E-5</v>
+        <v>2.9670126582058595E-5</v>
       </c>
       <c r="AE24">
-        <v>-1.2550781218273698E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-9.4394229366565117E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="4">
-        <v>2.9197498088507539E-3</v>
+        <v>7.8156145117614529E-3</v>
       </c>
       <c r="C25">
-        <v>1.3900332186895571E-5</v>
+        <v>-8.1450460675352955E-6</v>
       </c>
       <c r="D25">
-        <v>-8.7333432168652873E-8</v>
+        <v>2.4835838041911808E-7</v>
       </c>
       <c r="E25">
-        <v>2.5262507725858714E-5</v>
+        <v>8.1730981717657815E-5</v>
       </c>
       <c r="F25">
-        <v>7.123593555310797E-5</v>
+        <v>1.371948477585203E-4</v>
       </c>
       <c r="G25">
-        <v>1.1289422358879819E-4</v>
+        <v>1.5505942709368475E-4</v>
       </c>
       <c r="H25">
-        <v>1.415835521625309E-4</v>
+        <v>2.0846949632933538E-4</v>
       </c>
       <c r="I25">
-        <v>3.9360872424089015E-5</v>
+        <v>6.9422452893638323E-5</v>
       </c>
       <c r="J25">
-        <v>4.9287603916078391E-5</v>
+        <v>4.2027742880025124E-5</v>
       </c>
       <c r="K25">
-        <v>-6.7777246865836568E-5</v>
+        <v>-3.1001252241920178E-5</v>
       </c>
       <c r="L25">
-        <v>-9.741845535432038E-5</v>
+        <v>-9.31338569076616E-5</v>
       </c>
       <c r="M25">
-        <v>-1.3701046374394767E-4</v>
+        <v>-1.4499512629527218E-4</v>
       </c>
       <c r="N25">
-        <v>-1.4394488598761749E-4</v>
+        <v>-1.428579643992095E-4</v>
       </c>
       <c r="O25">
-        <v>8.6666523385264233E-5</v>
+        <v>2.6566951125058727E-5</v>
       </c>
       <c r="P25">
-        <v>2.2223745881774852E-4</v>
+        <v>2.2830426423424535E-4</v>
       </c>
       <c r="Q25">
-        <v>-8.097763906476181E-5</v>
+        <v>-4.0423775953017053E-6</v>
       </c>
       <c r="R25">
-        <v>-7.1891819530184715E-5</v>
+        <v>-1.4726659844930241E-4</v>
       </c>
       <c r="S25">
-        <v>-2.4554430232965393E-5</v>
+        <v>-3.0940804837179784E-5</v>
       </c>
       <c r="T25">
-        <v>-2.5553700816080408E-4</v>
+        <v>-3.4334907251378952E-4</v>
       </c>
       <c r="U25">
-        <v>3.8721777011389066E-4</v>
+        <v>4.2237190165875455E-4</v>
       </c>
       <c r="V25">
-        <v>5.0032542923867307E-5</v>
+        <v>9.7163229883987434E-5</v>
       </c>
       <c r="W25">
-        <v>8.8577990854320497E-5</v>
+        <v>1.1598520803813443E-4</v>
       </c>
       <c r="X25">
-        <v>1.1344990899822324E-3</v>
+        <v>1.2318360547448994E-3</v>
       </c>
       <c r="Y25">
-        <v>1.1179769803640075E-3</v>
+        <v>1.2190058216788777E-3</v>
       </c>
       <c r="Z25">
-        <v>2.3925432021507484E-3</v>
+        <v>2.5413437244037407E-3</v>
       </c>
       <c r="AA25">
-        <v>1.1298820784420775E-3</v>
+        <v>1.2293734696990767E-3</v>
       </c>
       <c r="AB25">
-        <v>-2.404987355490521E-5</v>
+        <v>-2.6036381208637715E-5</v>
       </c>
       <c r="AC25">
-        <v>2.1421254981055025E-5</v>
+        <v>-1.8163016032944038E-5</v>
       </c>
       <c r="AD25">
-        <v>7.6873553553568578E-5</v>
+        <v>7.2852561481653747E-5</v>
       </c>
       <c r="AE25">
-        <v>-1.6845605736282489E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-1.5296689369368489E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4">
-        <v>-4.9610396018046406E-2</v>
+        <v>-4.9462149892548116E-2</v>
       </c>
       <c r="C26">
-        <v>-5.5854141755619108E-7</v>
+        <v>-2.7879193309906787E-5</v>
       </c>
       <c r="D26">
-        <v>5.8682077286261624E-8</v>
+        <v>4.5290184960610858E-7</v>
       </c>
       <c r="E26">
-        <v>5.3291173756862646E-5</v>
+        <v>2.4735278980638452E-4</v>
       </c>
       <c r="F26">
-        <v>1.0395216192110124E-4</v>
+        <v>2.6736896723420075E-4</v>
       </c>
       <c r="G26">
-        <v>2.2552768444076372E-4</v>
+        <v>3.848234405092845E-4</v>
       </c>
       <c r="H26">
-        <v>2.3285351149243937E-4</v>
+        <v>4.2271040507972359E-4</v>
       </c>
       <c r="I26">
-        <v>3.5773310672550116E-5</v>
+        <v>7.1359421035897084E-5</v>
       </c>
       <c r="J26">
-        <v>-1.5212074111444903E-5</v>
+        <v>-3.1886054298620639E-5</v>
       </c>
       <c r="K26">
-        <v>4.0065146049607456E-4</v>
+        <v>6.2292476934466129E-4</v>
       </c>
       <c r="L26">
-        <v>-7.7569982637221147E-5</v>
+        <v>-8.5703873638610581E-5</v>
       </c>
       <c r="M26">
-        <v>-4.130778628612386E-5</v>
+        <v>-5.1542098648878036E-5</v>
       </c>
       <c r="N26">
-        <v>3.3704867494124997E-5</v>
+        <v>3.5902416460376584E-5</v>
       </c>
       <c r="O26">
-        <v>7.6975428059357289E-5</v>
+        <v>-2.3280769800746809E-6</v>
       </c>
       <c r="P26">
-        <v>4.1975668259770041E-5</v>
+        <v>5.3483554656324805E-5</v>
       </c>
       <c r="Q26">
-        <v>-8.9977630353798872E-5</v>
+        <v>1.1543495768952456E-5</v>
       </c>
       <c r="R26">
-        <v>1.4105864094279046E-4</v>
+        <v>1.3214594824524208E-4</v>
       </c>
       <c r="S26">
-        <v>3.9734733353461192E-5</v>
+        <v>4.578867480759102E-5</v>
       </c>
       <c r="T26">
-        <v>1.5704236375953164E-5</v>
+        <v>-1.2798129174576643E-5</v>
       </c>
       <c r="U26">
-        <v>5.0385381250580511E-4</v>
+        <v>5.2334233900151609E-4</v>
       </c>
       <c r="V26">
-        <v>5.8385559995398567E-5</v>
+        <v>7.7618509730101445E-5</v>
       </c>
       <c r="W26">
-        <v>6.3234820791791587E-5</v>
+        <v>8.6666969157887569E-5</v>
       </c>
       <c r="X26">
-        <v>1.1195402555011888E-3</v>
+        <v>1.2170742779416765E-3</v>
       </c>
       <c r="Y26">
-        <v>1.131400342136225E-3</v>
+        <v>1.2332353184284725E-3</v>
       </c>
       <c r="Z26">
-        <v>1.1298820784420775E-3</v>
+        <v>1.2293734696990767E-3</v>
       </c>
       <c r="AA26">
-        <v>1.663850539055204E-3</v>
+        <v>1.7889128027494335E-3</v>
       </c>
       <c r="AB26">
-        <v>-1.2670577385823783E-5</v>
+        <v>-1.2942064213776946E-5</v>
       </c>
       <c r="AC26">
-        <v>9.3723179995067228E-6</v>
+        <v>-7.7060794019654278E-6</v>
       </c>
       <c r="AD26">
-        <v>4.0983600742806653E-5</v>
+        <v>1.5007129640255982E-5</v>
       </c>
       <c r="AE26">
-        <v>-1.9176483189815895E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-1.7863110535419318E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="4">
-        <v>1.8613969577442189E-2</v>
+        <v>1.8028110051913279E-2</v>
       </c>
       <c r="C27">
-        <v>5.1311112646154161E-6</v>
+        <v>5.421659640918793E-6</v>
       </c>
       <c r="D27">
-        <v>-1.0565275457517889E-7</v>
+        <v>-1.1415322297382747E-7</v>
       </c>
       <c r="E27">
-        <v>-6.351087645278014E-6</v>
+        <v>-6.5953979359414418E-6</v>
       </c>
       <c r="F27">
-        <v>-5.5481638472540035E-6</v>
+        <v>-1.1020373124667325E-5</v>
       </c>
       <c r="G27">
-        <v>6.5851923961823272E-6</v>
+        <v>3.6355828030754206E-6</v>
       </c>
       <c r="H27">
-        <v>1.5560584080621925E-5</v>
+        <v>1.2864916744029583E-5</v>
       </c>
       <c r="I27">
-        <v>-1.9206985271870794E-6</v>
+        <v>-5.9856865652064842E-6</v>
       </c>
       <c r="J27">
-        <v>-1.6926456153721173E-6</v>
+        <v>-1.7490710265850139E-6</v>
       </c>
       <c r="K27">
-        <v>-3.2051585561263088E-5</v>
+        <v>-2.6787280646954474E-5</v>
       </c>
       <c r="L27">
-        <v>-2.4992694351379417E-5</v>
+        <v>-2.3095956873329156E-5</v>
       </c>
       <c r="M27">
-        <v>-4.0177067824394665E-5</v>
+        <v>-4.0237440784966511E-5</v>
       </c>
       <c r="N27">
-        <v>-3.6091812418058869E-5</v>
+        <v>-3.754389811499656E-5</v>
       </c>
       <c r="O27">
-        <v>3.7613223708484802E-5</v>
+        <v>-5.742081227232421E-6</v>
       </c>
       <c r="P27">
-        <v>-3.8483835404416831E-5</v>
+        <v>-2.5569093645597616E-5</v>
       </c>
       <c r="Q27">
-        <v>-3.459421253747977E-5</v>
+        <v>-2.1703148503561558E-6</v>
       </c>
       <c r="R27">
-        <v>3.4298655472778508E-5</v>
+        <v>1.3681385188342712E-5</v>
       </c>
       <c r="S27">
-        <v>1.5155706942442265E-5</v>
+        <v>1.6104011822982094E-5</v>
       </c>
       <c r="T27">
-        <v>2.7198838766744183E-5</v>
+        <v>3.228905098529677E-5</v>
       </c>
       <c r="U27">
-        <v>-3.9127415409934688E-4</v>
+        <v>-4.0549270223684655E-4</v>
       </c>
       <c r="V27">
-        <v>2.2382438987754517E-5</v>
+        <v>2.1679146108655712E-5</v>
       </c>
       <c r="W27">
-        <v>5.8217983257112269E-6</v>
+        <v>5.5313052118987556E-6</v>
       </c>
       <c r="X27">
-        <v>-1.2338628439429318E-5</v>
+        <v>-1.7516237114680483E-5</v>
       </c>
       <c r="Y27">
-        <v>-1.2180514094837525E-5</v>
+        <v>-1.2067402734889788E-5</v>
       </c>
       <c r="Z27">
-        <v>-2.404987355490521E-5</v>
+        <v>-2.6036381208637715E-5</v>
       </c>
       <c r="AA27">
-        <v>-1.2670577385823783E-5</v>
+        <v>-1.2942064213776946E-5</v>
       </c>
       <c r="AB27">
-        <v>2.675970697375465E-5</v>
+        <v>2.7940665740346409E-5</v>
       </c>
       <c r="AC27">
-        <v>-1.0421065890564911E-4</v>
+        <v>-1.0749992749718718E-4</v>
       </c>
       <c r="AD27">
-        <v>-1.5389983584549014E-4</v>
+        <v>-1.6024384939049334E-4</v>
       </c>
       <c r="AE27">
-        <v>1.0251583452235168E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1.1405120870786739E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4">
-        <v>3.7232439926489405E-2</v>
+        <v>5.3852723069694394E-2</v>
       </c>
       <c r="C28">
-        <v>4.9310440773016936E-5</v>
+        <v>6.3579012166735741E-5</v>
       </c>
       <c r="D28">
-        <v>-7.7762113346806731E-7</v>
+        <v>-1.0035496888673715E-6</v>
       </c>
       <c r="E28">
-        <v>2.3554687391596227E-4</v>
+        <v>1.4624587315184437E-4</v>
       </c>
       <c r="F28">
-        <v>-6.9196469280772763E-6</v>
+        <v>-1.0493636628469954E-4</v>
       </c>
       <c r="G28">
-        <v>2.2127151909517341E-6</v>
+        <v>-6.8393568300322526E-5</v>
       </c>
       <c r="H28">
-        <v>5.3833978304202931E-5</v>
+        <v>-2.3451656749649309E-5</v>
       </c>
       <c r="I28">
-        <v>-2.9210038860997102E-5</v>
+        <v>-2.1612612411783675E-5</v>
       </c>
       <c r="J28">
-        <v>-3.2100573464919941E-5</v>
+        <v>-3.2051521032759535E-5</v>
       </c>
       <c r="K28">
-        <v>9.5685469018919056E-4</v>
+        <v>1.5355947257847322E-3</v>
       </c>
       <c r="L28">
-        <v>4.4308981341639742E-7</v>
+        <v>-1.8163658014058032E-5</v>
       </c>
       <c r="M28">
-        <v>-3.2615095376230946E-5</v>
+        <v>-5.3477398588887282E-5</v>
       </c>
       <c r="N28">
-        <v>-1.103320154097337E-4</v>
+        <v>-1.0959209065759118E-4</v>
       </c>
       <c r="O28">
-        <v>-6.7309179495828216E-4</v>
+        <v>-1.6479736535241987E-4</v>
       </c>
       <c r="P28">
-        <v>2.5553188996572555E-4</v>
+        <v>7.2954643292397398E-5</v>
       </c>
       <c r="Q28">
-        <v>6.0409364286227577E-4</v>
+        <v>1.3371961543185763E-4</v>
       </c>
       <c r="R28">
-        <v>-3.6694918157151053E-4</v>
+        <v>-2.0739589873307464E-4</v>
       </c>
       <c r="S28">
-        <v>1.1371041802333659E-4</v>
+        <v>1.4169447776430223E-4</v>
       </c>
       <c r="T28">
-        <v>1.9459314515334666E-5</v>
+        <v>7.1530833624467837E-5</v>
       </c>
       <c r="U28">
-        <v>-6.8635028850618646E-4</v>
+        <v>-7.8785914883360703E-4</v>
       </c>
       <c r="V28">
-        <v>-8.6796940181330454E-5</v>
+        <v>-5.8726776009524265E-6</v>
       </c>
       <c r="W28">
-        <v>-8.0948093482850921E-5</v>
+        <v>-1.2439440974154766E-4</v>
       </c>
       <c r="X28">
-        <v>-1.1850751924318671E-5</v>
+        <v>-2.8662482840621155E-6</v>
       </c>
       <c r="Y28">
-        <v>-8.5826229257655816E-5</v>
+        <v>-1.3666947866350148E-4</v>
       </c>
       <c r="Z28">
-        <v>2.1421254981055025E-5</v>
+        <v>-1.8163016032944038E-5</v>
       </c>
       <c r="AA28">
-        <v>9.3723179995067228E-6</v>
+        <v>-7.7060794019654278E-6</v>
       </c>
       <c r="AB28">
-        <v>-1.0421065890564911E-4</v>
+        <v>-1.0749992749718718E-4</v>
       </c>
       <c r="AC28">
-        <v>3.2004292099058291E-3</v>
+        <v>3.5295908680828504E-3</v>
       </c>
       <c r="AD28">
-        <v>8.3219989924899953E-4</v>
+        <v>8.6607560860356317E-4</v>
       </c>
       <c r="AE28">
-        <v>1.5685683802692018E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1.6200200712007968E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="4">
-        <v>9.8062647936576798E-3</v>
+        <v>1.5990723947326247E-2</v>
       </c>
       <c r="C29">
-        <v>1.5560913929753024E-5</v>
+        <v>2.9825379258316409E-5</v>
       </c>
       <c r="D29">
-        <v>-2.8387794554843169E-7</v>
+        <v>-4.5291039084409304E-7</v>
       </c>
       <c r="E29">
-        <v>2.5657424717500169E-4</v>
+        <v>2.7947863644263871E-4</v>
       </c>
       <c r="F29">
-        <v>1.9994939305393407E-4</v>
+        <v>2.0112264304339932E-4</v>
       </c>
       <c r="G29">
-        <v>1.2865512342625715E-4</v>
+        <v>1.240966661213564E-4</v>
       </c>
       <c r="H29">
-        <v>1.3112001741450493E-4</v>
+        <v>1.0461654827358178E-4</v>
       </c>
       <c r="I29">
-        <v>-3.6707225658929557E-5</v>
+        <v>-3.5253330163000085E-5</v>
       </c>
       <c r="J29">
-        <v>-5.3013709167717092E-5</v>
+        <v>-3.3745626086008188E-5</v>
       </c>
       <c r="K29">
-        <v>1.526384801148542E-4</v>
+        <v>2.0415111251077811E-4</v>
       </c>
       <c r="L29">
-        <v>6.9580543091508906E-5</v>
+        <v>5.5295882842584104E-5</v>
       </c>
       <c r="M29">
-        <v>1.3206213094981226E-4</v>
+        <v>1.3815132907012834E-4</v>
       </c>
       <c r="N29">
-        <v>1.2590565861324982E-4</v>
+        <v>1.3834937854787302E-4</v>
       </c>
       <c r="O29">
-        <v>-1.1046275051395581E-4</v>
+        <v>1.203300114543026E-4</v>
       </c>
       <c r="P29">
-        <v>1.3684467212457562E-4</v>
+        <v>6.3742160318513768E-5</v>
       </c>
       <c r="Q29">
-        <v>-1.7066499037643066E-5</v>
+        <v>-1.9846476691890574E-4</v>
       </c>
       <c r="R29">
-        <v>-2.5446161625342566E-4</v>
+        <v>-2.1692115241732168E-4</v>
       </c>
       <c r="S29">
-        <v>8.0595371579245166E-6</v>
+        <v>8.9914177586291992E-6</v>
       </c>
       <c r="T29">
-        <v>3.1869475301858977E-7</v>
+        <v>1.0549778538135107E-5</v>
       </c>
       <c r="U29">
-        <v>3.5561337847151743E-3</v>
+        <v>3.6610256137662861E-3</v>
       </c>
       <c r="V29">
-        <v>-4.1270956198926831E-6</v>
+        <v>3.4567471619621065E-5</v>
       </c>
       <c r="W29">
-        <v>6.689228554806147E-6</v>
+        <v>-1.7986701012400364E-5</v>
       </c>
       <c r="X29">
-        <v>2.3512102786675141E-5</v>
+        <v>5.6265968278130097E-5</v>
       </c>
       <c r="Y29">
-        <v>3.5171716277078617E-5</v>
+        <v>2.9670126582058595E-5</v>
       </c>
       <c r="Z29">
-        <v>7.6873553553568578E-5</v>
+        <v>7.2852561481653747E-5</v>
       </c>
       <c r="AA29">
-        <v>4.0983600742806653E-5</v>
+        <v>1.5007129640255982E-5</v>
       </c>
       <c r="AB29">
-        <v>-1.5389983584549014E-4</v>
+        <v>-1.6024384939049334E-4</v>
       </c>
       <c r="AC29">
-        <v>8.3219989924899953E-4</v>
+        <v>8.6607560860356317E-4</v>
       </c>
       <c r="AD29">
-        <v>3.3209351437577085E-3</v>
+        <v>3.4326412466764581E-3</v>
       </c>
       <c r="AE29">
-        <v>-3.1298710563791403E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-3.4649688000100501E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4">
-        <v>-2.0044614525226834</v>
+        <v>-2.913409408550844</v>
       </c>
       <c r="C30">
-        <v>-1.3090621493207819E-2</v>
+        <v>-1.4584258604706191E-2</v>
       </c>
       <c r="D30">
-        <v>1.840335804362286E-4</v>
+        <v>2.064671315070972E-4</v>
       </c>
       <c r="E30">
-        <v>-1.12109224514612E-2</v>
+        <v>-9.9144180455950151E-3</v>
       </c>
       <c r="F30">
-        <v>-7.5765143071815227E-3</v>
+        <v>-6.0147184073278334E-3</v>
       </c>
       <c r="G30">
-        <v>-6.8052218685265634E-3</v>
+        <v>-5.1653409435239162E-3</v>
       </c>
       <c r="H30">
-        <v>-6.8657650352918348E-3</v>
+        <v>-4.9083201731670092E-3</v>
       </c>
       <c r="I30">
-        <v>3.2841318709231192E-3</v>
+        <v>4.7432872193144474E-3</v>
       </c>
       <c r="J30">
-        <v>-2.518792532592672E-3</v>
+        <v>-2.4751847126966171E-3</v>
       </c>
       <c r="K30">
-        <v>-8.4334134735025712E-2</v>
+        <v>-8.2115549661650467E-2</v>
       </c>
       <c r="L30">
-        <v>-8.327690990504244E-2</v>
+        <v>-8.259433036280639E-2</v>
       </c>
       <c r="M30">
-        <v>-8.4088537807444963E-2</v>
+        <v>-8.3674929689867894E-2</v>
       </c>
       <c r="N30">
-        <v>-8.3377091554676208E-2</v>
+        <v>-8.3014960296850515E-2</v>
       </c>
       <c r="O30">
-        <v>3.4037936057130288E-4</v>
+        <v>-3.4052143995714004E-4</v>
       </c>
       <c r="P30">
-        <v>1.6130265571838529E-4</v>
+        <v>-8.0226506502288544E-5</v>
       </c>
       <c r="Q30">
-        <v>-2.0661404792009334E-3</v>
+        <v>-8.3700124395734085E-4</v>
       </c>
       <c r="R30">
-        <v>2.7813403910047878E-3</v>
+        <v>6.0643790476199123E-3</v>
       </c>
       <c r="S30">
-        <v>-4.3217647110433202E-3</v>
+        <v>-4.5603044500566493E-3</v>
       </c>
       <c r="T30">
-        <v>-9.8555814007287648E-3</v>
+        <v>-1.0971584647945974E-2</v>
       </c>
       <c r="U30">
-        <v>-8.2547430247715436E-2</v>
+        <v>-8.8577819672190861E-2</v>
       </c>
       <c r="V30">
-        <v>-2.036382538737308E-2</v>
+        <v>-2.0703109780716655E-2</v>
       </c>
       <c r="W30">
-        <v>-2.8261127266593373E-3</v>
+        <v>-2.7540267658700476E-3</v>
       </c>
       <c r="X30">
-        <v>-5.0103716181525235E-4</v>
+        <v>-1.8059689487154133E-4</v>
       </c>
       <c r="Y30">
-        <v>-1.2550781218273698E-3</v>
+        <v>-9.4394229366565117E-4</v>
       </c>
       <c r="Z30">
-        <v>-1.6845605736282489E-3</v>
+        <v>-1.5296689369368489E-3</v>
       </c>
       <c r="AA30">
-        <v>-1.9176483189815895E-3</v>
+        <v>-1.7863110535419318E-3</v>
       </c>
       <c r="AB30">
-        <v>1.0251583452235168E-4</v>
+        <v>1.1405120870786739E-4</v>
       </c>
       <c r="AC30">
-        <v>1.5685683802692018E-3</v>
+        <v>1.6200200712007968E-3</v>
       </c>
       <c r="AD30">
-        <v>-3.1298710563791403E-3</v>
+        <v>-3.4649688000100501E-3</v>
       </c>
       <c r="AE30">
-        <v>0.42906639914915967</v>
+        <v>0.45724871212192753</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE0001-72D6-44A2-90E3-851A67ECF15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FF51FC-7431-4262-8C45-7FA56BE9F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,22 +654,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>-0.33877183111340214</v>
+        <v>-0.33877183111340164</v>
       </c>
       <c r="C2">
-        <v>5.9273678788698009E-3</v>
+        <v>5.9273678788696743E-3</v>
       </c>
       <c r="D2">
-        <v>-8.0783036999054021E-4</v>
+        <v>-8.0783036998965723E-4</v>
       </c>
       <c r="E2">
-        <v>1.7426093405267504E-2</v>
+        <v>1.7426093405267219E-2</v>
       </c>
       <c r="F2">
-        <v>7.3003900325152617E-3</v>
+        <v>7.3003900325142018E-3</v>
       </c>
       <c r="G2">
-        <v>-0.13268969440412212</v>
+        <v>-0.13268969440411649</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -677,22 +677,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>0.32659602149356037</v>
+        <v>0.32659602149356004</v>
       </c>
       <c r="C3">
-        <v>-8.0783036999054021E-4</v>
+        <v>-8.0783036998965723E-4</v>
       </c>
       <c r="D3">
-        <v>2.2626024511415561E-2</v>
+        <v>2.2626024511415942E-2</v>
       </c>
       <c r="E3">
-        <v>5.1077821585816807E-3</v>
+        <v>5.10778215858438E-3</v>
       </c>
       <c r="F3">
-        <v>1.253702901665538E-3</v>
+        <v>1.2537029016663603E-3</v>
       </c>
       <c r="G3">
-        <v>-8.0755321463491375E-2</v>
+        <v>-8.0755321463503574E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -700,22 +700,22 @@
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.9685381140985605</v>
+        <v>-0.96853811409855861</v>
       </c>
       <c r="C4">
-        <v>1.7426093405267504E-2</v>
+        <v>1.7426093405267219E-2</v>
       </c>
       <c r="D4">
-        <v>5.1077821585816807E-3</v>
+        <v>5.10778215858438E-3</v>
       </c>
       <c r="E4">
-        <v>0.14779296919533713</v>
+        <v>0.14779296919533721</v>
       </c>
       <c r="F4">
-        <v>9.0841112336906032E-2</v>
+        <v>9.0841112336903243E-2</v>
       </c>
       <c r="G4">
-        <v>-0.49105472984090692</v>
+        <v>-0.49105472984089227</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -723,22 +723,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.600922374088946</v>
+        <v>-0.60092237408894833</v>
       </c>
       <c r="C5">
-        <v>7.3003900325152617E-3</v>
+        <v>7.3003900325142018E-3</v>
       </c>
       <c r="D5">
-        <v>1.253702901665538E-3</v>
+        <v>1.2537029016663603E-3</v>
       </c>
       <c r="E5">
-        <v>9.0841112336906032E-2</v>
+        <v>9.0841112336903243E-2</v>
       </c>
       <c r="F5">
-        <v>0.34097859502627081</v>
+        <v>0.34097859502626987</v>
       </c>
       <c r="G5">
-        <v>-0.24174421005555036</v>
+        <v>-0.24174421005554725</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -746,22 +746,22 @@
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>6.4673633509546864</v>
+        <v>6.4673633509546748</v>
       </c>
       <c r="C6">
-        <v>-0.13268969440412212</v>
+        <v>-0.13268969440411649</v>
       </c>
       <c r="D6">
-        <v>-8.0755321463491375E-2</v>
+        <v>-8.0755321463503574E-2</v>
       </c>
       <c r="E6">
-        <v>-0.49105472984090692</v>
+        <v>-0.49105472984089227</v>
       </c>
       <c r="F6">
-        <v>-0.24174421005555036</v>
+        <v>-0.24174421005554725</v>
       </c>
       <c r="G6">
-        <v>3.4723866729624824</v>
+        <v>3.4723866729624069</v>
       </c>
     </row>
   </sheetData>
@@ -880,94 +880,94 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>0.2205479906300308</v>
+        <v>0.21222166754916791</v>
       </c>
       <c r="C2">
-        <v>8.7606873002788301E-4</v>
+        <v>8.2670710700671977E-4</v>
       </c>
       <c r="D2">
-        <v>-1.2612304306949079E-5</v>
+        <v>-1.1889967441694152E-5</v>
       </c>
       <c r="E2">
-        <v>5.7203933753832963E-5</v>
+        <v>1.3954253592297309E-4</v>
       </c>
       <c r="F2">
-        <v>-2.7492527798981528E-4</v>
+        <v>-1.5599553235947998E-4</v>
       </c>
       <c r="G2">
-        <v>-3.9077591489354563E-4</v>
+        <v>-2.6702735423156908E-4</v>
       </c>
       <c r="H2">
-        <v>-3.9667073177942016E-4</v>
+        <v>-2.6739376720805869E-4</v>
       </c>
       <c r="I2">
-        <v>-3.4606564722542701E-4</v>
+        <v>-3.3654092924715977E-4</v>
       </c>
       <c r="J2">
-        <v>1.0311150641513066E-4</v>
+        <v>9.8342213252174994E-5</v>
       </c>
       <c r="K2">
-        <v>-2.2420644401471151E-4</v>
+        <v>-1.8877589968322069E-4</v>
       </c>
       <c r="L2">
-        <v>-1.158437650670501E-4</v>
+        <v>-1.0975709844830445E-4</v>
       </c>
       <c r="M2">
-        <v>-9.3756790268602688E-5</v>
+        <v>-8.5185570430833853E-5</v>
       </c>
       <c r="N2">
-        <v>-1.5659633020132912E-4</v>
+        <v>-1.3499536097145645E-4</v>
       </c>
       <c r="O2">
-        <v>-7.0337767346173759E-5</v>
+        <v>7.6912382475424756E-5</v>
       </c>
       <c r="P2">
-        <v>-8.3293698958044129E-5</v>
+        <v>-1.1692880680639565E-4</v>
       </c>
       <c r="Q2">
-        <v>3.4578102928374543E-5</v>
+        <v>-7.3303706793806898E-5</v>
       </c>
       <c r="R2">
-        <v>-3.6255938111653258E-4</v>
+        <v>-2.5130572391913238E-4</v>
       </c>
       <c r="S2">
-        <v>2.0244821819838868E-4</v>
+        <v>1.9243435626443449E-4</v>
       </c>
       <c r="T2">
-        <v>5.1115507346816309E-4</v>
+        <v>4.4902128542772526E-4</v>
       </c>
       <c r="U2">
-        <v>3.1549307267034199E-4</v>
+        <v>2.3257402569426891E-4</v>
       </c>
       <c r="V2">
-        <v>1.0584513860028462E-3</v>
+        <v>1.036745703606724E-3</v>
       </c>
       <c r="W2">
-        <v>7.4799353775416039E-5</v>
+        <v>8.256034511573869E-5</v>
       </c>
       <c r="X2">
-        <v>-2.141965003236079E-5</v>
+        <v>4.255967225028686E-7</v>
       </c>
       <c r="Y2">
-        <v>-4.554678028819998E-5</v>
+        <v>-3.4369943042798063E-5</v>
       </c>
       <c r="Z2">
-        <v>-8.1450460675352955E-6</v>
+        <v>5.7247109565838894E-6</v>
       </c>
       <c r="AA2">
-        <v>-2.7879193309906787E-5</v>
+        <v>-1.5838513064547559E-5</v>
       </c>
       <c r="AB2">
-        <v>5.421659640918793E-6</v>
+        <v>5.9137605493958998E-6</v>
       </c>
       <c r="AC2">
-        <v>6.3579012166735741E-5</v>
+        <v>5.159375546955015E-5</v>
       </c>
       <c r="AD2">
-        <v>2.9825379258316409E-5</v>
+        <v>2.5710270849494711E-5</v>
       </c>
       <c r="AE2">
-        <v>-1.4584258604706191E-2</v>
+        <v>-1.3815079267640334E-2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
@@ -975,94 +975,94 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-4.5718032916531141E-3</v>
+        <v>-4.4664697275741058E-3</v>
       </c>
       <c r="C3">
-        <v>-1.2612304306949079E-5</v>
+        <v>-1.1889967441694152E-5</v>
       </c>
       <c r="D3">
-        <v>1.8369617095442477E-7</v>
+        <v>1.7303393143819542E-7</v>
       </c>
       <c r="E3">
-        <v>-1.074637440690825E-6</v>
+        <v>-2.1698517924429514E-6</v>
       </c>
       <c r="F3">
-        <v>3.7847427887083891E-6</v>
+        <v>2.0828800479358259E-6</v>
       </c>
       <c r="G3">
-        <v>5.4448348769448498E-6</v>
+        <v>3.6712026487779582E-6</v>
       </c>
       <c r="H3">
-        <v>5.3331330610233681E-6</v>
+        <v>3.4809970050741673E-6</v>
       </c>
       <c r="I3">
-        <v>5.0595107769854014E-6</v>
+        <v>4.9164130985844696E-6</v>
       </c>
       <c r="J3">
-        <v>-8.9141453003874205E-7</v>
+        <v>-8.4759990998648817E-7</v>
       </c>
       <c r="K3">
-        <v>3.5792572188501697E-6</v>
+        <v>3.0324858947823705E-6</v>
       </c>
       <c r="L3">
-        <v>2.4529351599740447E-6</v>
+        <v>2.2771119802513846E-6</v>
       </c>
       <c r="M3">
-        <v>2.2713556298081599E-6</v>
+        <v>2.0995616541072575E-6</v>
       </c>
       <c r="N3">
-        <v>3.4703110650433785E-6</v>
+        <v>3.0967256168015677E-6</v>
       </c>
       <c r="O3">
-        <v>7.7548792867082031E-7</v>
+        <v>-1.2798079003760058E-6</v>
       </c>
       <c r="P3">
-        <v>1.5687152503575808E-6</v>
+        <v>2.0231536991994901E-6</v>
       </c>
       <c r="Q3">
-        <v>3.2385531364596213E-7</v>
+        <v>1.7874509792603665E-6</v>
       </c>
       <c r="R3">
-        <v>5.5889643954354528E-6</v>
+        <v>3.9857705274844041E-6</v>
       </c>
       <c r="S3">
-        <v>-2.9949002775572693E-6</v>
+        <v>-2.8319923634328983E-6</v>
       </c>
       <c r="T3">
-        <v>-7.3400097822244224E-6</v>
+        <v>-6.4012366243920116E-6</v>
       </c>
       <c r="U3">
-        <v>-4.1952287011245222E-6</v>
+        <v>-2.9933107869743519E-6</v>
       </c>
       <c r="V3">
-        <v>-1.4422839913809203E-5</v>
+        <v>-1.417677093281909E-5</v>
       </c>
       <c r="W3">
-        <v>-8.3463062452722691E-7</v>
+        <v>-9.7725192968876098E-7</v>
       </c>
       <c r="X3">
-        <v>3.0931627974827824E-7</v>
+        <v>-9.8252358527322638E-9</v>
       </c>
       <c r="Y3">
-        <v>6.1736848323687481E-7</v>
+        <v>4.5168458805109964E-7</v>
       </c>
       <c r="Z3">
-        <v>2.4835838041911808E-7</v>
+        <v>1.5333999195543346E-8</v>
       </c>
       <c r="AA3">
-        <v>4.5290184960610858E-7</v>
+        <v>2.6570736051742815E-7</v>
       </c>
       <c r="AB3">
-        <v>-1.1415322297382747E-7</v>
+        <v>-1.1857098752095007E-7</v>
       </c>
       <c r="AC3">
-        <v>-1.0035496888673715E-6</v>
+        <v>-8.1506749543800876E-7</v>
       </c>
       <c r="AD3">
-        <v>-4.5291039084409304E-7</v>
+        <v>-4.0582316391967095E-7</v>
       </c>
       <c r="AE3">
-        <v>2.064671315070972E-4</v>
+        <v>1.9533488433813129E-4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.45">
@@ -1070,94 +1070,94 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>2.1628070237080979E-2</v>
+        <v>0.31855061702804771</v>
       </c>
       <c r="C4">
-        <v>5.7203933753832963E-5</v>
+        <v>1.3954253592297309E-4</v>
       </c>
       <c r="D4">
-        <v>-1.074637440690825E-6</v>
+        <v>-2.1698517924429514E-6</v>
       </c>
       <c r="E4">
-        <v>1.8990027122999156E-2</v>
+        <v>1.8517432113345257E-2</v>
       </c>
       <c r="F4">
-        <v>1.0872666447577912E-2</v>
+        <v>1.1320569731069548E-2</v>
       </c>
       <c r="G4">
-        <v>1.082696072489981E-2</v>
+        <v>1.1280306269238073E-2</v>
       </c>
       <c r="H4">
-        <v>1.0825920312213234E-2</v>
+        <v>1.1290573524496765E-2</v>
       </c>
       <c r="I4">
-        <v>1.4199133152043974E-5</v>
+        <v>6.7062584488728307E-5</v>
       </c>
       <c r="J4">
-        <v>-1.0831815366020049E-4</v>
+        <v>1.9036617985941987E-5</v>
       </c>
       <c r="K4">
-        <v>4.7787700198174878E-4</v>
+        <v>2.8581898359109591E-4</v>
       </c>
       <c r="L4">
-        <v>8.2262362518761584E-5</v>
+        <v>1.9187935253608566E-4</v>
       </c>
       <c r="M4">
-        <v>-1.1803068169648299E-4</v>
+        <v>2.6102082543709784E-5</v>
       </c>
       <c r="N4">
-        <v>-7.1299028563447976E-5</v>
+        <v>1.4441779640450439E-4</v>
       </c>
       <c r="O4">
-        <v>6.8081113154224316E-4</v>
+        <v>-1.7894663167861979E-3</v>
       </c>
       <c r="P4">
-        <v>-9.0193968064334468E-4</v>
+        <v>-1.2299244315679115E-3</v>
       </c>
       <c r="Q4">
-        <v>-1.4582952767404492E-3</v>
+        <v>8.4570820704380021E-4</v>
       </c>
       <c r="R4">
-        <v>1.4091366691393412E-4</v>
+        <v>7.0392566944827827E-4</v>
       </c>
       <c r="S4">
-        <v>8.9663126885582904E-5</v>
+        <v>9.9688721730346614E-5</v>
       </c>
       <c r="T4">
-        <v>-4.5343016912408301E-4</v>
+        <v>-5.009227910631991E-4</v>
       </c>
       <c r="U4">
-        <v>-1.1003675921391239E-3</v>
+        <v>-1.1482362773312244E-3</v>
       </c>
       <c r="V4">
-        <v>3.3699088986800883E-4</v>
+        <v>1.1254545305906362E-3</v>
       </c>
       <c r="W4">
-        <v>-3.1598519528578881E-5</v>
+        <v>-3.3471972248961439E-5</v>
       </c>
       <c r="X4">
-        <v>-8.6086262950264836E-6</v>
+        <v>2.2856607472792245E-4</v>
       </c>
       <c r="Y4">
-        <v>1.3244535448920088E-4</v>
+        <v>3.1057699376862123E-4</v>
       </c>
       <c r="Z4">
-        <v>8.1730981717657815E-5</v>
+        <v>1.7767527515970575E-4</v>
       </c>
       <c r="AA4">
-        <v>2.4735278980638452E-4</v>
+        <v>2.8429778853909923E-4</v>
       </c>
       <c r="AB4">
-        <v>-6.5953979359414418E-6</v>
+        <v>-1.5808479232049642E-5</v>
       </c>
       <c r="AC4">
-        <v>1.4624587315184437E-4</v>
+        <v>2.3912491505732447E-4</v>
       </c>
       <c r="AD4">
-        <v>2.7947863644263871E-4</v>
+        <v>3.1818351229789257E-4</v>
       </c>
       <c r="AE4">
-        <v>-9.9144180455950151E-3</v>
+        <v>-1.2059508707464417E-2</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
@@ -1165,94 +1165,94 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>6.1391868760145322E-3</v>
+        <v>0.1844490687169042</v>
       </c>
       <c r="C5">
-        <v>-2.7492527798981528E-4</v>
+        <v>-1.5599553235947998E-4</v>
       </c>
       <c r="D5">
-        <v>3.7847427887083891E-6</v>
+        <v>2.0828800479358259E-6</v>
       </c>
       <c r="E5">
-        <v>1.0872666447577912E-2</v>
+        <v>1.1320569731069548E-2</v>
       </c>
       <c r="F5">
-        <v>1.248150620645155E-2</v>
+        <v>1.2872111649297965E-2</v>
       </c>
       <c r="G5">
-        <v>1.1852530204588358E-2</v>
+        <v>1.2292005584855248E-2</v>
       </c>
       <c r="H5">
-        <v>1.1989779517811496E-2</v>
+        <v>1.2426352354062968E-2</v>
       </c>
       <c r="I5">
-        <v>4.0951134060547773E-5</v>
+        <v>7.9250022030465344E-5</v>
       </c>
       <c r="J5">
-        <v>-1.2714464377366159E-4</v>
+        <v>-3.7778947827987134E-5</v>
       </c>
       <c r="K5">
-        <v>-4.1958938066252206E-5</v>
+        <v>-3.2499269089043652E-5</v>
       </c>
       <c r="L5">
-        <v>-7.6396982035131008E-5</v>
+        <v>2.6041787162320654E-5</v>
       </c>
       <c r="M5">
-        <v>-2.1372171325693599E-4</v>
+        <v>-7.0223993073513079E-5</v>
       </c>
       <c r="N5">
-        <v>-1.8989537602078009E-4</v>
+        <v>2.5516700505571251E-5</v>
       </c>
       <c r="O5">
-        <v>1.2960161943818397E-3</v>
+        <v>-3.0266143440537893E-4</v>
       </c>
       <c r="P5">
-        <v>-1.6443897514249782E-3</v>
+        <v>-1.8572697416285927E-3</v>
       </c>
       <c r="Q5">
-        <v>-7.1641241613171203E-6</v>
+        <v>1.3745203024877932E-3</v>
       </c>
       <c r="R5">
-        <v>1.5998660870167845E-3</v>
+        <v>1.9093028696430976E-3</v>
       </c>
       <c r="S5">
-        <v>-1.2523989593404421E-4</v>
+        <v>-5.1143586603134314E-5</v>
       </c>
       <c r="T5">
-        <v>-4.0338892028050661E-4</v>
+        <v>-3.9607453399681308E-4</v>
       </c>
       <c r="U5">
-        <v>-6.4977632204395522E-4</v>
+        <v>-7.9171013475877808E-4</v>
       </c>
       <c r="V5">
-        <v>1.2403882726379173E-3</v>
+        <v>1.7154813598231292E-3</v>
       </c>
       <c r="W5">
-        <v>4.6010790175434661E-4</v>
+        <v>4.3733593379901355E-4</v>
       </c>
       <c r="X5">
-        <v>6.1819002863326071E-5</v>
+        <v>2.2090543634875268E-4</v>
       </c>
       <c r="Y5">
-        <v>1.7307081195449999E-4</v>
+        <v>2.9942339633353343E-4</v>
       </c>
       <c r="Z5">
-        <v>1.371948477585203E-4</v>
+        <v>1.9853308174726752E-4</v>
       </c>
       <c r="AA5">
-        <v>2.6736896723420075E-4</v>
+        <v>2.7598110523056212E-4</v>
       </c>
       <c r="AB5">
-        <v>-1.1020373124667325E-5</v>
+        <v>-1.4929545295904917E-5</v>
       </c>
       <c r="AC5">
-        <v>-1.0493636628469954E-4</v>
+        <v>-3.279483099759891E-5</v>
       </c>
       <c r="AD5">
-        <v>2.0112264304339932E-4</v>
+        <v>2.3388041275380824E-4</v>
       </c>
       <c r="AE5">
-        <v>-6.0147184073278334E-3</v>
+        <v>-8.55532189017464E-3</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
@@ -1260,94 +1260,94 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>0.11042233609158911</v>
+        <v>0.27446037376774834</v>
       </c>
       <c r="C6">
-        <v>-3.9077591489354563E-4</v>
+        <v>-2.6702735423156908E-4</v>
       </c>
       <c r="D6">
-        <v>5.4448348769448498E-6</v>
+        <v>3.6712026487779582E-6</v>
       </c>
       <c r="E6">
-        <v>1.082696072489981E-2</v>
+        <v>1.1280306269238073E-2</v>
       </c>
       <c r="F6">
-        <v>1.1852530204588358E-2</v>
+        <v>1.2292005584855248E-2</v>
       </c>
       <c r="G6">
-        <v>1.2906410864508909E-2</v>
+        <v>1.332486449366245E-2</v>
       </c>
       <c r="H6">
-        <v>1.2491230510278816E-2</v>
+        <v>1.2924970267410255E-2</v>
       </c>
       <c r="I6">
-        <v>1.6951544591098958E-4</v>
+        <v>1.9133704315979017E-4</v>
       </c>
       <c r="J6">
-        <v>-1.7991903404458547E-4</v>
+        <v>-9.2012767221337499E-5</v>
       </c>
       <c r="K6">
-        <v>8.6706727049488605E-4</v>
+        <v>7.6892589997919723E-4</v>
       </c>
       <c r="L6">
-        <v>1.2709541490944646E-4</v>
+        <v>1.7683144426818096E-4</v>
       </c>
       <c r="M6">
-        <v>-8.596955374138562E-5</v>
+        <v>3.0609222464490424E-5</v>
       </c>
       <c r="N6">
-        <v>-5.9627211248247658E-6</v>
+        <v>1.8268207282184663E-4</v>
       </c>
       <c r="O6">
-        <v>1.3997439606959448E-3</v>
+        <v>-3.2937110831517818E-5</v>
       </c>
       <c r="P6">
-        <v>-1.7230880161930914E-3</v>
+        <v>-2.0252793650416588E-3</v>
       </c>
       <c r="Q6">
-        <v>1.6171765766988385E-4</v>
+        <v>1.4044007377681978E-3</v>
       </c>
       <c r="R6">
-        <v>1.8369217587112178E-3</v>
+        <v>2.2619350017223068E-3</v>
       </c>
       <c r="S6">
-        <v>2.3125061386102913E-5</v>
+        <v>7.4599790917970381E-5</v>
       </c>
       <c r="T6">
-        <v>-1.5589201098364371E-4</v>
+        <v>-1.931234465921913E-4</v>
       </c>
       <c r="U6">
-        <v>-6.7572226304235712E-4</v>
+        <v>-8.0763066515607794E-4</v>
       </c>
       <c r="V6">
-        <v>1.3395691097155302E-3</v>
+        <v>1.8108383199628032E-3</v>
       </c>
       <c r="W6">
-        <v>7.9768781211407417E-4</v>
+        <v>7.7486338378691662E-4</v>
       </c>
       <c r="X6">
-        <v>-2.1312236526672057E-5</v>
+        <v>1.4899534601413875E-4</v>
       </c>
       <c r="Y6">
-        <v>2.2998492105185336E-4</v>
+        <v>3.6094664196645993E-4</v>
       </c>
       <c r="Z6">
-        <v>1.5505942709368475E-4</v>
+        <v>2.2530322637951653E-4</v>
       </c>
       <c r="AA6">
-        <v>3.848234405092845E-4</v>
+        <v>3.9546046006957644E-4</v>
       </c>
       <c r="AB6">
-        <v>3.6355828030754206E-6</v>
+        <v>-2.6689480399168821E-6</v>
       </c>
       <c r="AC6">
-        <v>-6.8393568300322526E-5</v>
+        <v>1.3158211822331036E-5</v>
       </c>
       <c r="AD6">
-        <v>1.240966661213564E-4</v>
+        <v>1.7514425447485776E-4</v>
       </c>
       <c r="AE6">
-        <v>-5.1653409435239162E-3</v>
+        <v>-7.707975565897307E-3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
@@ -1355,94 +1355,94 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1973733485394305</v>
+        <v>0.37612250848583589</v>
       </c>
       <c r="C7">
-        <v>-3.9667073177942016E-4</v>
+        <v>-2.6739376720805869E-4</v>
       </c>
       <c r="D7">
-        <v>5.3331330610233681E-6</v>
+        <v>3.4809970050741673E-6</v>
       </c>
       <c r="E7">
-        <v>1.0825920312213234E-2</v>
+        <v>1.1290573524496765E-2</v>
       </c>
       <c r="F7">
-        <v>1.1989779517811496E-2</v>
+        <v>1.2426352354062968E-2</v>
       </c>
       <c r="G7">
-        <v>1.2491230510278816E-2</v>
+        <v>1.2924970267410255E-2</v>
       </c>
       <c r="H7">
-        <v>1.3450393928590208E-2</v>
+        <v>1.3839772299190145E-2</v>
       </c>
       <c r="I7">
-        <v>2.3493725796473492E-4</v>
+        <v>2.6026229509901243E-4</v>
       </c>
       <c r="J7">
-        <v>-1.093627433282375E-4</v>
+        <v>-2.7422635542860996E-5</v>
       </c>
       <c r="K7">
-        <v>6.0167626910920171E-4</v>
+        <v>5.5371939317197961E-4</v>
       </c>
       <c r="L7">
-        <v>1.2967671786000582E-4</v>
+        <v>2.0751314813649601E-4</v>
       </c>
       <c r="M7">
-        <v>-8.9439514976835666E-5</v>
+        <v>4.9513434686500497E-5</v>
       </c>
       <c r="N7">
-        <v>-6.0465431097092917E-5</v>
+        <v>1.4798977583223988E-4</v>
       </c>
       <c r="O7">
-        <v>1.3674507453468585E-3</v>
+        <v>-2.0728071272302102E-4</v>
       </c>
       <c r="P7">
-        <v>-1.5717185738079041E-3</v>
+        <v>-1.9193945033023304E-3</v>
       </c>
       <c r="Q7">
-        <v>2.9551683525382358E-4</v>
+        <v>1.6537914542798754E-3</v>
       </c>
       <c r="R7">
-        <v>2.0960181038547432E-3</v>
+        <v>2.4738952248091104E-3</v>
       </c>
       <c r="S7">
-        <v>2.7536908620592231E-4</v>
+        <v>3.2980722929104134E-4</v>
       </c>
       <c r="T7">
-        <v>8.7741075901533443E-5</v>
+        <v>4.4393048925213049E-5</v>
       </c>
       <c r="U7">
-        <v>-1.144109632787306E-3</v>
+        <v>-1.1885843689452662E-3</v>
       </c>
       <c r="V7">
-        <v>1.3154806320097852E-3</v>
+        <v>1.7954571935368513E-3</v>
       </c>
       <c r="W7">
-        <v>8.9504595964762538E-4</v>
+        <v>8.621738419492082E-4</v>
       </c>
       <c r="X7">
-        <v>-1.6897373774397918E-5</v>
+        <v>1.3861162955907996E-4</v>
       </c>
       <c r="Y7">
-        <v>1.6661274561048732E-4</v>
+        <v>2.8059981020544682E-4</v>
       </c>
       <c r="Z7">
-        <v>2.0846949632933538E-4</v>
+        <v>2.605508110060199E-4</v>
       </c>
       <c r="AA7">
-        <v>4.2271040507972359E-4</v>
+        <v>4.0835041409025886E-4</v>
       </c>
       <c r="AB7">
-        <v>1.2864916744029583E-5</v>
+        <v>6.4342486495588409E-6</v>
       </c>
       <c r="AC7">
-        <v>-2.3451656749649309E-5</v>
+        <v>5.1524792219336413E-5</v>
       </c>
       <c r="AD7">
-        <v>1.0461654827358178E-4</v>
+        <v>1.6785572366683236E-4</v>
       </c>
       <c r="AE7">
-        <v>-4.9083201731670092E-3</v>
+        <v>-7.6562263933973307E-3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
@@ -1450,94 +1450,94 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.40708816118459201</v>
+        <v>-0.41306030413085165</v>
       </c>
       <c r="C8">
-        <v>-3.4606564722542701E-4</v>
+        <v>-3.3654092924715977E-4</v>
       </c>
       <c r="D8">
-        <v>5.0595107769854014E-6</v>
+        <v>4.9164130985844696E-6</v>
       </c>
       <c r="E8">
-        <v>1.4199133152043974E-5</v>
+        <v>6.7062584488728307E-5</v>
       </c>
       <c r="F8">
-        <v>4.0951134060547773E-5</v>
+        <v>7.9250022030465344E-5</v>
       </c>
       <c r="G8">
-        <v>1.6951544591098958E-4</v>
+        <v>1.9133704315979017E-4</v>
       </c>
       <c r="H8">
-        <v>2.3493725796473492E-4</v>
+        <v>2.6026229509901243E-4</v>
       </c>
       <c r="I8">
-        <v>7.1645264278186811E-4</v>
+        <v>7.0922058417701871E-4</v>
       </c>
       <c r="J8">
-        <v>-2.0696958963569779E-4</v>
+        <v>-2.0170762753444441E-4</v>
       </c>
       <c r="K8">
-        <v>7.7142032430185543E-4</v>
+        <v>7.2478399788315729E-4</v>
       </c>
       <c r="L8">
-        <v>-5.5132370724736987E-6</v>
+        <v>4.4363445549170971E-5</v>
       </c>
       <c r="M8">
-        <v>-1.4754279372201982E-5</v>
+        <v>1.4275141007548311E-6</v>
       </c>
       <c r="N8">
-        <v>-9.1321019237858379E-6</v>
+        <v>1.522459078858048E-6</v>
       </c>
       <c r="O8">
-        <v>-3.0217829995954207E-4</v>
+        <v>-3.7220929695892715E-4</v>
       </c>
       <c r="P8">
-        <v>-1.9263254129953241E-4</v>
+        <v>-2.2424052881128437E-4</v>
       </c>
       <c r="Q8">
-        <v>4.5919909747298344E-4</v>
+        <v>5.0848613629210786E-4</v>
       </c>
       <c r="R8">
-        <v>3.9047453887293502E-4</v>
+        <v>4.071472439698908E-4</v>
       </c>
       <c r="S8">
-        <v>-3.5225971980116486E-6</v>
+        <v>3.9436415991214404E-6</v>
       </c>
       <c r="T8">
-        <v>-1.5871967187189886E-4</v>
+        <v>-1.2530241957560461E-4</v>
       </c>
       <c r="U8">
-        <v>5.6143894196196073E-5</v>
+        <v>-4.0315965918530892E-5</v>
       </c>
       <c r="V8">
-        <v>-2.3068582711985265E-4</v>
+        <v>-2.3002156782194079E-4</v>
       </c>
       <c r="W8">
-        <v>-3.4610740409644479E-5</v>
+        <v>-5.3974580672169834E-5</v>
       </c>
       <c r="X8">
-        <v>5.5703011445972905E-5</v>
+        <v>1.596535067560154E-5</v>
       </c>
       <c r="Y8">
-        <v>1.36604349845743E-4</v>
+        <v>1.0238385191772319E-4</v>
       </c>
       <c r="Z8">
-        <v>6.9422452893638323E-5</v>
+        <v>3.4609419491087924E-5</v>
       </c>
       <c r="AA8">
-        <v>7.1359421035897084E-5</v>
+        <v>3.9438556723504873E-5</v>
       </c>
       <c r="AB8">
-        <v>-5.9856865652064842E-6</v>
+        <v>-2.7214548413133252E-6</v>
       </c>
       <c r="AC8">
-        <v>-2.1612612411783675E-5</v>
+        <v>-2.5578364481533339E-5</v>
       </c>
       <c r="AD8">
-        <v>-3.5253330163000085E-5</v>
+        <v>-5.9407444466610905E-5</v>
       </c>
       <c r="AE8">
-        <v>4.7432872193144474E-3</v>
+        <v>4.6719183804137653E-3</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
@@ -1545,94 +1545,94 @@
         <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>0.55654840426804886</v>
+        <v>0.56093378671650429</v>
       </c>
       <c r="C9">
-        <v>1.0311150641513066E-4</v>
+        <v>9.8342213252174994E-5</v>
       </c>
       <c r="D9">
-        <v>-8.9141453003874205E-7</v>
+        <v>-8.4759990998648817E-7</v>
       </c>
       <c r="E9">
-        <v>-1.0831815366020049E-4</v>
+        <v>1.9036617985941987E-5</v>
       </c>
       <c r="F9">
-        <v>-1.2714464377366159E-4</v>
+        <v>-3.7778947827987134E-5</v>
       </c>
       <c r="G9">
-        <v>-1.7991903404458547E-4</v>
+        <v>-9.2012767221337499E-5</v>
       </c>
       <c r="H9">
-        <v>-1.093627433282375E-4</v>
+        <v>-2.7422635542860996E-5</v>
       </c>
       <c r="I9">
-        <v>-2.0696958963569779E-4</v>
+        <v>-2.0170762753444441E-4</v>
       </c>
       <c r="J9">
-        <v>1.1378558345158194E-3</v>
+        <v>1.0699542184820158E-3</v>
       </c>
       <c r="K9">
-        <v>-3.9610780146482174E-4</v>
+        <v>-3.9693372344789049E-4</v>
       </c>
       <c r="L9">
-        <v>1.1451326577535486E-4</v>
+        <v>7.9312139127565699E-5</v>
       </c>
       <c r="M9">
-        <v>2.104149771582197E-5</v>
+        <v>2.0941614992615442E-5</v>
       </c>
       <c r="N9">
-        <v>5.4501188631921808E-5</v>
+        <v>4.2723370883815132E-5</v>
       </c>
       <c r="O9">
-        <v>-8.1631102355720665E-5</v>
+        <v>-3.1072209107085641E-5</v>
       </c>
       <c r="P9">
-        <v>2.9069926556007995E-4</v>
+        <v>2.099508191540614E-4</v>
       </c>
       <c r="Q9">
-        <v>2.4559290259101234E-4</v>
+        <v>2.0846562536907653E-4</v>
       </c>
       <c r="R9">
-        <v>1.075206386883167E-4</v>
+        <v>1.2881571186473638E-4</v>
       </c>
       <c r="S9">
-        <v>1.6390653414245847E-4</v>
+        <v>1.4029386085416724E-4</v>
       </c>
       <c r="T9">
-        <v>2.6277999830140594E-4</v>
+        <v>2.2074305865028154E-4</v>
       </c>
       <c r="U9">
-        <v>7.6766952158743157E-6</v>
+        <v>3.2994248329018538E-5</v>
       </c>
       <c r="V9">
-        <v>-4.2269863612068412E-5</v>
+        <v>-3.1131398564071446E-5</v>
       </c>
       <c r="W9">
-        <v>-1.7390450590261522E-4</v>
+        <v>-1.514370799753645E-4</v>
       </c>
       <c r="X9">
-        <v>-4.0983901604894256E-5</v>
+        <v>-1.51395986420455E-5</v>
       </c>
       <c r="Y9">
-        <v>-1.0323295767327505E-4</v>
+        <v>-7.9660085159065244E-5</v>
       </c>
       <c r="Z9">
-        <v>4.2027742880025124E-5</v>
+        <v>5.1172868672602211E-5</v>
       </c>
       <c r="AA9">
-        <v>-3.1886054298620639E-5</v>
+        <v>-1.7265724705360424E-5</v>
       </c>
       <c r="AB9">
-        <v>-1.7490710265850139E-6</v>
+        <v>-2.7829571149668148E-6</v>
       </c>
       <c r="AC9">
-        <v>-3.2051521032759535E-5</v>
+        <v>-3.9288890784926135E-5</v>
       </c>
       <c r="AD9">
-        <v>-3.3745626086008188E-5</v>
+        <v>-3.1125863325718868E-5</v>
       </c>
       <c r="AE9">
-        <v>-2.4751847126966171E-3</v>
+        <v>-2.4581550854899849E-3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.45">
@@ -1640,94 +1640,94 @@
         <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>-0.65593712483165645</v>
+        <v>-0.64712382259869561</v>
       </c>
       <c r="C10">
-        <v>-2.2420644401471151E-4</v>
+        <v>-1.8877589968322069E-4</v>
       </c>
       <c r="D10">
-        <v>3.5792572188501697E-6</v>
+        <v>3.0324858947823705E-6</v>
       </c>
       <c r="E10">
-        <v>4.7787700198174878E-4</v>
+        <v>2.8581898359109591E-4</v>
       </c>
       <c r="F10">
-        <v>-4.1958938066252206E-5</v>
+        <v>-3.2499269089043652E-5</v>
       </c>
       <c r="G10">
-        <v>8.6706727049488605E-4</v>
+        <v>7.6892589997919723E-4</v>
       </c>
       <c r="H10">
-        <v>6.0167626910920171E-4</v>
+        <v>5.5371939317197961E-4</v>
       </c>
       <c r="I10">
-        <v>7.7142032430185543E-4</v>
+        <v>7.2478399788315729E-4</v>
       </c>
       <c r="J10">
-        <v>-3.9610780146482174E-4</v>
+        <v>-3.9693372344789049E-4</v>
       </c>
       <c r="K10">
-        <v>0.11238311959979209</v>
+        <v>0.11059377411863093</v>
       </c>
       <c r="L10">
-        <v>8.3408563028535554E-2</v>
+        <v>8.3630292960545305E-2</v>
       </c>
       <c r="M10">
-        <v>8.3356417175164385E-2</v>
+        <v>8.3623036902625292E-2</v>
       </c>
       <c r="N10">
-        <v>8.348927995138844E-2</v>
+        <v>8.3746692955021212E-2</v>
       </c>
       <c r="O10">
-        <v>-4.1770566702561962E-4</v>
+        <v>-1.8266617968796389E-4</v>
       </c>
       <c r="P10">
-        <v>-1.579586392915569E-4</v>
+        <v>-2.5036297542995606E-4</v>
       </c>
       <c r="Q10">
-        <v>4.2891509356212179E-4</v>
+        <v>1.9792630229049923E-4</v>
       </c>
       <c r="R10">
-        <v>3.5770944295009793E-4</v>
+        <v>4.0043684536892818E-4</v>
       </c>
       <c r="S10">
-        <v>4.9874497267640965E-4</v>
+        <v>4.6918374592145543E-4</v>
       </c>
       <c r="T10">
-        <v>5.2687166398304036E-5</v>
+        <v>5.5604009335982404E-5</v>
       </c>
       <c r="U10">
-        <v>5.0160279715311118E-4</v>
+        <v>5.5119593287239477E-4</v>
       </c>
       <c r="V10">
-        <v>-2.5140153895613152E-4</v>
+        <v>-1.0509328676614957E-4</v>
       </c>
       <c r="W10">
-        <v>-2.3047462583939901E-4</v>
+        <v>-1.7030843422933747E-4</v>
       </c>
       <c r="X10">
-        <v>-2.9498342873946967E-4</v>
+        <v>-3.8045096765947257E-4</v>
       </c>
       <c r="Y10">
-        <v>-1.8350964829420054E-4</v>
+        <v>-2.4582271198870403E-4</v>
       </c>
       <c r="Z10">
-        <v>-3.1001252241920178E-5</v>
+        <v>-1.284220570935005E-4</v>
       </c>
       <c r="AA10">
-        <v>6.2292476934466129E-4</v>
+        <v>4.6902342506572204E-4</v>
       </c>
       <c r="AB10">
-        <v>-2.6787280646954474E-5</v>
+        <v>-2.8285873803390448E-5</v>
       </c>
       <c r="AC10">
-        <v>1.5355947257847322E-3</v>
+        <v>1.2965498805307535E-3</v>
       </c>
       <c r="AD10">
-        <v>2.0415111251077811E-4</v>
+        <v>1.7246407844620504E-4</v>
       </c>
       <c r="AE10">
-        <v>-8.2115549661650467E-2</v>
+        <v>-8.2742245904287581E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
@@ -1735,94 +1735,94 @@
         <v>24</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.55589023306489593</v>
+        <v>-0.55221004929509876</v>
       </c>
       <c r="C11">
-        <v>-1.158437650670501E-4</v>
+        <v>-1.0975709844830445E-4</v>
       </c>
       <c r="D11">
-        <v>2.4529351599740447E-6</v>
+        <v>2.2771119802513846E-6</v>
       </c>
       <c r="E11">
-        <v>8.2262362518761584E-5</v>
+        <v>1.9187935253608566E-4</v>
       </c>
       <c r="F11">
-        <v>-7.6396982035131008E-5</v>
+        <v>2.6041787162320654E-5</v>
       </c>
       <c r="G11">
-        <v>1.2709541490944646E-4</v>
+        <v>1.7683144426818096E-4</v>
       </c>
       <c r="H11">
-        <v>1.2967671786000582E-4</v>
+        <v>2.0751314813649601E-4</v>
       </c>
       <c r="I11">
-        <v>-5.5132370724736987E-6</v>
+        <v>4.4363445549170971E-5</v>
       </c>
       <c r="J11">
-        <v>1.1451326577535486E-4</v>
+        <v>7.9312139127565699E-5</v>
       </c>
       <c r="K11">
-        <v>8.3408563028535554E-2</v>
+        <v>8.3630292960545305E-2</v>
       </c>
       <c r="L11">
-        <v>8.6106651704431214E-2</v>
+        <v>8.617942676225436E-2</v>
       </c>
       <c r="M11">
-        <v>8.3819081451079358E-2</v>
+        <v>8.4019119390448399E-2</v>
       </c>
       <c r="N11">
-        <v>8.3883546684103014E-2</v>
+        <v>8.4076260911171707E-2</v>
       </c>
       <c r="O11">
-        <v>-6.7058549687165625E-5</v>
+        <v>9.5346709301363797E-6</v>
       </c>
       <c r="P11">
-        <v>1.9525670477280738E-4</v>
+        <v>3.7303760612540648E-5</v>
       </c>
       <c r="Q11">
-        <v>4.728088511282702E-5</v>
+        <v>-4.4398154379718391E-5</v>
       </c>
       <c r="R11">
-        <v>-2.356233457315865E-5</v>
+        <v>1.6280482176972422E-4</v>
       </c>
       <c r="S11">
-        <v>3.3209018976997681E-5</v>
+        <v>4.2441989283114841E-5</v>
       </c>
       <c r="T11">
-        <v>2.8896839069420324E-4</v>
+        <v>2.5658339404524035E-4</v>
       </c>
       <c r="U11">
-        <v>5.0939359587415245E-5</v>
+        <v>-1.6059617628885747E-4</v>
       </c>
       <c r="V11">
-        <v>3.6952569133921406E-4</v>
+        <v>3.7888829995916251E-4</v>
       </c>
       <c r="W11">
-        <v>4.0816138927024861E-4</v>
+        <v>4.0183811021562987E-4</v>
       </c>
       <c r="X11">
-        <v>-3.5661409280766422E-4</v>
+        <v>-3.7671397780852066E-4</v>
       </c>
       <c r="Y11">
-        <v>-3.5498763262628401E-4</v>
+        <v>-3.4137581956191192E-4</v>
       </c>
       <c r="Z11">
-        <v>-9.31338569076616E-5</v>
+        <v>-1.2230621992551528E-4</v>
       </c>
       <c r="AA11">
-        <v>-8.5703873638610581E-5</v>
+        <v>-1.0161682224577289E-4</v>
       </c>
       <c r="AB11">
-        <v>-2.3095956873329156E-5</v>
+        <v>-1.3468760293948025E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.8163658014058032E-5</v>
+        <v>-6.8579148196939999E-5</v>
       </c>
       <c r="AD11">
-        <v>5.5295882842584104E-5</v>
+        <v>-2.1924498427777772E-5</v>
       </c>
       <c r="AE11">
-        <v>-8.259433036280639E-2</v>
+        <v>-8.2753910604096759E-2</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
@@ -1830,94 +1830,94 @@
         <v>25</v>
       </c>
       <c r="B12" s="4">
-        <v>-0.39335495558941203</v>
+        <v>-0.41366978380732133</v>
       </c>
       <c r="C12">
-        <v>-9.3756790268602688E-5</v>
+        <v>-8.5185570430833853E-5</v>
       </c>
       <c r="D12">
-        <v>2.2713556298081599E-6</v>
+        <v>2.0995616541072575E-6</v>
       </c>
       <c r="E12">
-        <v>-1.1803068169648299E-4</v>
+        <v>2.6102082543709784E-5</v>
       </c>
       <c r="F12">
-        <v>-2.1372171325693599E-4</v>
+        <v>-7.0223993073513079E-5</v>
       </c>
       <c r="G12">
-        <v>-8.596955374138562E-5</v>
+        <v>3.0609222464490424E-5</v>
       </c>
       <c r="H12">
-        <v>-8.9439514976835666E-5</v>
+        <v>4.9513434686500497E-5</v>
       </c>
       <c r="I12">
-        <v>-1.4754279372201982E-5</v>
+        <v>1.4275141007548311E-6</v>
       </c>
       <c r="J12">
-        <v>2.104149771582197E-5</v>
+        <v>2.0941614992615442E-5</v>
       </c>
       <c r="K12">
-        <v>8.3356417175164385E-2</v>
+        <v>8.3623036902625292E-2</v>
       </c>
       <c r="L12">
-        <v>8.3819081451079358E-2</v>
+        <v>8.4019119390448399E-2</v>
       </c>
       <c r="M12">
-        <v>8.4328738790195118E-2</v>
+        <v>8.4511826872225915E-2</v>
       </c>
       <c r="N12">
-        <v>8.4099734434106233E-2</v>
+        <v>8.4288846745117718E-2</v>
       </c>
       <c r="O12">
-        <v>1.2106335254669087E-4</v>
+        <v>1.1969336146926135E-4</v>
       </c>
       <c r="P12">
-        <v>5.9956195877155366E-4</v>
+        <v>5.0855648844080198E-4</v>
       </c>
       <c r="Q12">
-        <v>-7.793156919214117E-5</v>
+        <v>-8.549177615355813E-5</v>
       </c>
       <c r="R12">
-        <v>-9.0901459688264019E-5</v>
+        <v>-7.739434985204463E-5</v>
       </c>
       <c r="S12">
-        <v>8.9269379990214535E-5</v>
+        <v>1.113668778462131E-4</v>
       </c>
       <c r="T12">
-        <v>5.3414085498131036E-4</v>
+        <v>5.1059293718817671E-4</v>
       </c>
       <c r="U12">
-        <v>6.5229693387577892E-4</v>
+        <v>7.3705097809739772E-4</v>
       </c>
       <c r="V12">
-        <v>2.228112377216547E-4</v>
+        <v>2.5820894272164316E-4</v>
       </c>
       <c r="W12">
-        <v>4.4627528852833782E-4</v>
+        <v>4.4745943156195706E-4</v>
       </c>
       <c r="X12">
-        <v>-4.5531603851499229E-4</v>
+        <v>-4.6427709508903119E-4</v>
       </c>
       <c r="Y12">
-        <v>-1.9196081110558344E-4</v>
+        <v>-1.9277684255405948E-4</v>
       </c>
       <c r="Z12">
-        <v>-1.4499512629527218E-4</v>
+        <v>-1.3906646043800389E-4</v>
       </c>
       <c r="AA12">
-        <v>-5.1542098648878036E-5</v>
+        <v>-4.9608189989342431E-5</v>
       </c>
       <c r="AB12">
-        <v>-4.0237440784966511E-5</v>
+        <v>-3.8728019827620447E-5</v>
       </c>
       <c r="AC12">
-        <v>-5.3477398588887282E-5</v>
+        <v>-5.9849585982117703E-5</v>
       </c>
       <c r="AD12">
-        <v>1.3815132907012834E-4</v>
+        <v>1.2623628609969434E-4</v>
       </c>
       <c r="AE12">
-        <v>-8.3674929689867894E-2</v>
+        <v>-8.4244609024092143E-2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
@@ -1925,94 +1925,94 @@
         <v>26</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.42167878542724613</v>
+        <v>-0.44881433206752941</v>
       </c>
       <c r="C13">
-        <v>-1.5659633020132912E-4</v>
+        <v>-1.3499536097145645E-4</v>
       </c>
       <c r="D13">
-        <v>3.4703110650433785E-6</v>
+        <v>3.0967256168015677E-6</v>
       </c>
       <c r="E13">
-        <v>-7.1299028563447976E-5</v>
+        <v>1.4441779640450439E-4</v>
       </c>
       <c r="F13">
-        <v>-1.8989537602078009E-4</v>
+        <v>2.5516700505571251E-5</v>
       </c>
       <c r="G13">
-        <v>-5.9627211248247658E-6</v>
+        <v>1.8268207282184663E-4</v>
       </c>
       <c r="H13">
-        <v>-6.0465431097092917E-5</v>
+        <v>1.4798977583223988E-4</v>
       </c>
       <c r="I13">
-        <v>-9.1321019237858379E-6</v>
+        <v>1.522459078858048E-6</v>
       </c>
       <c r="J13">
-        <v>5.4501188631921808E-5</v>
+        <v>4.2723370883815132E-5</v>
       </c>
       <c r="K13">
-        <v>8.348927995138844E-2</v>
+        <v>8.3746692955021212E-2</v>
       </c>
       <c r="L13">
-        <v>8.3883546684103014E-2</v>
+        <v>8.4076260911171707E-2</v>
       </c>
       <c r="M13">
-        <v>8.4099734434106233E-2</v>
+        <v>8.4288846745117718E-2</v>
       </c>
       <c r="N13">
-        <v>8.5099531458320415E-2</v>
+        <v>8.5234064808457105E-2</v>
       </c>
       <c r="O13">
-        <v>3.2004891603197583E-4</v>
+        <v>4.7484290588423184E-4</v>
       </c>
       <c r="P13">
-        <v>6.823721907931804E-4</v>
+        <v>5.9352234694221712E-4</v>
       </c>
       <c r="Q13">
-        <v>-2.3470830768380219E-4</v>
+        <v>-3.7995597374610585E-4</v>
       </c>
       <c r="R13">
-        <v>6.0584531920815365E-5</v>
+        <v>5.2295763002838808E-5</v>
       </c>
       <c r="S13">
-        <v>9.9495820303539297E-5</v>
+        <v>1.1437322066732022E-4</v>
       </c>
       <c r="T13">
-        <v>6.1061363287487694E-4</v>
+        <v>5.7813511922817987E-4</v>
       </c>
       <c r="U13">
-        <v>4.8811599514153592E-4</v>
+        <v>5.5518875917112687E-4</v>
       </c>
       <c r="V13">
-        <v>1.1556462561882613E-4</v>
+        <v>2.4249225575666625E-4</v>
       </c>
       <c r="W13">
-        <v>4.9452823199923508E-4</v>
+        <v>4.9592163070215529E-4</v>
       </c>
       <c r="X13">
-        <v>-3.9417206637571561E-4</v>
+        <v>-3.9430563060456614E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.614051387855359E-4</v>
+        <v>-1.7100302444384395E-4</v>
       </c>
       <c r="Z13">
-        <v>-1.428579643992095E-4</v>
+        <v>-1.4266392760561245E-4</v>
       </c>
       <c r="AA13">
-        <v>3.5902416460376584E-5</v>
+        <v>3.8489258457458618E-5</v>
       </c>
       <c r="AB13">
-        <v>-3.754389811499656E-5</v>
+        <v>-3.7190050698999972E-5</v>
       </c>
       <c r="AC13">
-        <v>-1.0959209065759118E-4</v>
+        <v>-1.1601445814387462E-4</v>
       </c>
       <c r="AD13">
-        <v>1.3834937854787302E-4</v>
+        <v>1.4057615879197946E-4</v>
       </c>
       <c r="AE13">
-        <v>-8.3014960296850515E-2</v>
+        <v>-8.3793811011936059E-2</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
@@ -2020,94 +2020,94 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>-1.3905505176012805</v>
+        <v>-1.356913036515945</v>
       </c>
       <c r="C14">
-        <v>-7.0337767346173759E-5</v>
+        <v>7.6912382475424756E-5</v>
       </c>
       <c r="D14">
-        <v>7.7548792867082031E-7</v>
+        <v>-1.2798079003760058E-6</v>
       </c>
       <c r="E14">
-        <v>6.8081113154224316E-4</v>
+        <v>-1.7894663167861979E-3</v>
       </c>
       <c r="F14">
-        <v>1.2960161943818397E-3</v>
+        <v>-3.0266143440537893E-4</v>
       </c>
       <c r="G14">
-        <v>1.3997439606959448E-3</v>
+        <v>-3.2937110831517818E-5</v>
       </c>
       <c r="H14">
-        <v>1.3674507453468585E-3</v>
+        <v>-2.0728071272302102E-4</v>
       </c>
       <c r="I14">
-        <v>-3.0217829995954207E-4</v>
+        <v>-3.7220929695892715E-4</v>
       </c>
       <c r="J14">
-        <v>-8.1631102355720665E-5</v>
+        <v>-3.1072209107085641E-5</v>
       </c>
       <c r="K14">
-        <v>-4.1770566702561962E-4</v>
+        <v>-1.8266617968796389E-4</v>
       </c>
       <c r="L14">
-        <v>-6.7058549687165625E-5</v>
+        <v>9.5346709301363797E-6</v>
       </c>
       <c r="M14">
-        <v>1.2106335254669087E-4</v>
+        <v>1.1969336146926135E-4</v>
       </c>
       <c r="N14">
-        <v>3.2004891603197583E-4</v>
+        <v>4.7484290588423184E-4</v>
       </c>
       <c r="O14">
-        <v>3.0019837900602697E-2</v>
+        <v>3.1729585625160643E-2</v>
       </c>
       <c r="P14">
-        <v>7.3715171803905967E-3</v>
+        <v>6.6023205155492934E-3</v>
       </c>
       <c r="Q14">
-        <v>-2.6089285681614782E-2</v>
+        <v>-2.7469863201270164E-2</v>
       </c>
       <c r="R14">
-        <v>-5.8045829185234864E-3</v>
+        <v>-4.7857464266051588E-3</v>
       </c>
       <c r="S14">
-        <v>-1.7028883384515988E-4</v>
+        <v>-2.1134127580801423E-6</v>
       </c>
       <c r="T14">
-        <v>4.8112766369078774E-4</v>
+        <v>4.811464463765682E-4</v>
       </c>
       <c r="U14">
-        <v>6.6462186514621574E-4</v>
+        <v>-5.0795982176589762E-4</v>
       </c>
       <c r="V14">
-        <v>2.8711583551464364E-4</v>
+        <v>6.9032131691097189E-4</v>
       </c>
       <c r="W14">
-        <v>1.5979472672772191E-4</v>
+        <v>1.4831380963284302E-4</v>
       </c>
       <c r="X14">
-        <v>-1.5665502466423312E-4</v>
+        <v>7.6876093061210106E-5</v>
       </c>
       <c r="Y14">
-        <v>1.0321597835227728E-4</v>
+        <v>1.0344903868390441E-4</v>
       </c>
       <c r="Z14">
-        <v>2.6566951125058727E-5</v>
+        <v>8.3212268812885487E-5</v>
       </c>
       <c r="AA14">
-        <v>-2.3280769800746809E-6</v>
+        <v>4.962905437433277E-5</v>
       </c>
       <c r="AB14">
-        <v>-5.742081227232421E-6</v>
+        <v>4.1569522667938513E-5</v>
       </c>
       <c r="AC14">
-        <v>-1.6479736535241987E-4</v>
+        <v>-5.2681368138991151E-4</v>
       </c>
       <c r="AD14">
-        <v>1.203300114543026E-4</v>
+        <v>-1.1693663405852828E-4</v>
       </c>
       <c r="AE14">
-        <v>-3.4052143995714004E-4</v>
+        <v>-6.2254617512547822E-4</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
@@ -2115,94 +2115,94 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>-0.782357772092662</v>
+        <v>-0.91765994945200646</v>
       </c>
       <c r="C15">
-        <v>-8.3293698958044129E-5</v>
+        <v>-1.1692880680639565E-4</v>
       </c>
       <c r="D15">
-        <v>1.5687152503575808E-6</v>
+        <v>2.0231536991994901E-6</v>
       </c>
       <c r="E15">
-        <v>-9.0193968064334468E-4</v>
+        <v>-1.2299244315679115E-3</v>
       </c>
       <c r="F15">
-        <v>-1.6443897514249782E-3</v>
+        <v>-1.8572697416285927E-3</v>
       </c>
       <c r="G15">
-        <v>-1.7230880161930914E-3</v>
+        <v>-2.0252793650416588E-3</v>
       </c>
       <c r="H15">
-        <v>-1.5717185738079041E-3</v>
+        <v>-1.9193945033023304E-3</v>
       </c>
       <c r="I15">
-        <v>-1.9263254129953241E-4</v>
+        <v>-2.2424052881128437E-4</v>
       </c>
       <c r="J15">
-        <v>2.9069926556007995E-4</v>
+        <v>2.099508191540614E-4</v>
       </c>
       <c r="K15">
-        <v>-1.579586392915569E-4</v>
+        <v>-2.5036297542995606E-4</v>
       </c>
       <c r="L15">
-        <v>1.9525670477280738E-4</v>
+        <v>3.7303760612540648E-5</v>
       </c>
       <c r="M15">
-        <v>5.9956195877155366E-4</v>
+        <v>5.0855648844080198E-4</v>
       </c>
       <c r="N15">
-        <v>6.823721907931804E-4</v>
+        <v>5.9352234694221712E-4</v>
       </c>
       <c r="O15">
-        <v>7.3715171803905967E-3</v>
+        <v>6.6023205155492934E-3</v>
       </c>
       <c r="P15">
-        <v>2.469931032555894E-2</v>
+        <v>2.205402467012002E-2</v>
       </c>
       <c r="Q15">
-        <v>-7.8117618688699712E-3</v>
+        <v>-7.0301688258032312E-3</v>
       </c>
       <c r="R15">
-        <v>-1.9844727632498678E-2</v>
+        <v>-1.7580472239878811E-2</v>
       </c>
       <c r="S15">
-        <v>6.0954458646771386E-5</v>
+        <v>-1.32841498703681E-4</v>
       </c>
       <c r="T15">
-        <v>5.8362318386861816E-4</v>
+        <v>4.8786060506086958E-4</v>
       </c>
       <c r="U15">
-        <v>1.7852280796275145E-3</v>
+        <v>2.1220970524371673E-3</v>
       </c>
       <c r="V15">
-        <v>2.8659560442748463E-4</v>
+        <v>4.3644292906844982E-5</v>
       </c>
       <c r="W15">
-        <v>2.8554611482415389E-4</v>
+        <v>2.7818894293340899E-4</v>
       </c>
       <c r="X15">
-        <v>-1.2347906443622259E-4</v>
+        <v>-9.6934724572757524E-5</v>
       </c>
       <c r="Y15">
-        <v>5.0528443117587012E-4</v>
+        <v>4.9287291610111998E-4</v>
       </c>
       <c r="Z15">
-        <v>2.2830426423424535E-4</v>
+        <v>2.1397395422366526E-4</v>
       </c>
       <c r="AA15">
-        <v>5.3483554656324805E-5</v>
+        <v>-4.8228911015247774E-6</v>
       </c>
       <c r="AB15">
-        <v>-2.5569093645597616E-5</v>
+        <v>-3.8323392250187401E-5</v>
       </c>
       <c r="AC15">
-        <v>7.2954643292397398E-5</v>
+        <v>1.7784775603164904E-4</v>
       </c>
       <c r="AD15">
-        <v>6.3742160318513768E-5</v>
+        <v>1.2564404886540901E-4</v>
       </c>
       <c r="AE15">
-        <v>-8.0226506502288544E-5</v>
+        <v>8.6616340823723252E-4</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
@@ -2210,94 +2210,94 @@
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>1.2514357061375931</v>
+        <v>1.2195717217396631</v>
       </c>
       <c r="C16">
-        <v>3.4578102928374543E-5</v>
+        <v>-7.3303706793806898E-5</v>
       </c>
       <c r="D16">
-        <v>3.2385531364596213E-7</v>
+        <v>1.7874509792603665E-6</v>
       </c>
       <c r="E16">
-        <v>-1.4582952767404492E-3</v>
+        <v>8.4570820704380021E-4</v>
       </c>
       <c r="F16">
-        <v>-7.1641241613171203E-6</v>
+        <v>1.3745203024877932E-3</v>
       </c>
       <c r="G16">
-        <v>1.6171765766988385E-4</v>
+        <v>1.4044007377681978E-3</v>
       </c>
       <c r="H16">
-        <v>2.9551683525382358E-4</v>
+        <v>1.6537914542798754E-3</v>
       </c>
       <c r="I16">
-        <v>4.5919909747298344E-4</v>
+        <v>5.0848613629210786E-4</v>
       </c>
       <c r="J16">
-        <v>2.4559290259101234E-4</v>
+        <v>2.0846562536907653E-4</v>
       </c>
       <c r="K16">
-        <v>4.2891509356212179E-4</v>
+        <v>1.9792630229049923E-4</v>
       </c>
       <c r="L16">
-        <v>4.728088511282702E-5</v>
+        <v>-4.4398154379718391E-5</v>
       </c>
       <c r="M16">
-        <v>-7.793156919214117E-5</v>
+        <v>-8.549177615355813E-5</v>
       </c>
       <c r="N16">
-        <v>-2.3470830768380219E-4</v>
+        <v>-3.7995597374610585E-4</v>
       </c>
       <c r="O16">
-        <v>-2.6089285681614782E-2</v>
+        <v>-2.7469863201270164E-2</v>
       </c>
       <c r="P16">
-        <v>-7.8117618688699712E-3</v>
+        <v>-7.0301688258032312E-3</v>
       </c>
       <c r="Q16">
-        <v>2.7176385252101313E-2</v>
+        <v>2.8221062299334711E-2</v>
       </c>
       <c r="R16">
-        <v>6.8573393068152447E-3</v>
+        <v>5.8929398015794702E-3</v>
       </c>
       <c r="S16">
-        <v>6.6510798759006988E-5</v>
+        <v>-4.0754449678660542E-5</v>
       </c>
       <c r="T16">
-        <v>-7.9942511813590328E-4</v>
+        <v>-7.2425620442973676E-4</v>
       </c>
       <c r="U16">
-        <v>-1.255235196077723E-3</v>
+        <v>-2.9147874716058033E-4</v>
       </c>
       <c r="V16">
-        <v>-1.0407610541415459E-3</v>
+        <v>-1.4736186988996832E-3</v>
       </c>
       <c r="W16">
-        <v>1.9637868908789757E-4</v>
+        <v>1.6550412430280532E-4</v>
       </c>
       <c r="X16">
-        <v>-6.7455200221197542E-5</v>
+        <v>-2.661655520219098E-4</v>
       </c>
       <c r="Y16">
-        <v>-1.2934470279799183E-4</v>
+        <v>-1.5986730426279362E-4</v>
       </c>
       <c r="Z16">
-        <v>-4.0423775953017053E-6</v>
+        <v>-8.3156147322452931E-5</v>
       </c>
       <c r="AA16">
-        <v>1.1543495768952456E-5</v>
+        <v>-5.6907486115411382E-5</v>
       </c>
       <c r="AB16">
-        <v>-2.1703148503561558E-6</v>
+        <v>-3.8230551777755741E-5</v>
       </c>
       <c r="AC16">
-        <v>1.3371961543185763E-4</v>
+        <v>4.545165394622421E-4</v>
       </c>
       <c r="AD16">
-        <v>-1.9846476691890574E-4</v>
+        <v>-8.3217073198970336E-6</v>
       </c>
       <c r="AE16">
-        <v>-8.3700124395734085E-4</v>
+        <v>-8.4558287762910578E-4</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.45">
@@ -2305,94 +2305,94 @@
         <v>28</v>
       </c>
       <c r="B17" s="4">
-        <v>0.4991038964092826</v>
+        <v>0.61948063204069437</v>
       </c>
       <c r="C17">
-        <v>-3.6255938111653258E-4</v>
+        <v>-2.5130572391913238E-4</v>
       </c>
       <c r="D17">
-        <v>5.5889643954354528E-6</v>
+        <v>3.9857705274844041E-6</v>
       </c>
       <c r="E17">
-        <v>1.4091366691393412E-4</v>
+        <v>7.0392566944827827E-4</v>
       </c>
       <c r="F17">
-        <v>1.5998660870167845E-3</v>
+        <v>1.9093028696430976E-3</v>
       </c>
       <c r="G17">
-        <v>1.8369217587112178E-3</v>
+        <v>2.2619350017223068E-3</v>
       </c>
       <c r="H17">
-        <v>2.0960181038547432E-3</v>
+        <v>2.4738952248091104E-3</v>
       </c>
       <c r="I17">
-        <v>3.9047453887293502E-4</v>
+        <v>4.071472439698908E-4</v>
       </c>
       <c r="J17">
-        <v>1.075206386883167E-4</v>
+        <v>1.2881571186473638E-4</v>
       </c>
       <c r="K17">
-        <v>3.5770944295009793E-4</v>
+        <v>4.0043684536892818E-4</v>
       </c>
       <c r="L17">
-        <v>-2.356233457315865E-5</v>
+        <v>1.6280482176972422E-4</v>
       </c>
       <c r="M17">
-        <v>-9.0901459688264019E-5</v>
+        <v>-7.739434985204463E-5</v>
       </c>
       <c r="N17">
-        <v>6.0584531920815365E-5</v>
+        <v>5.2295763002838808E-5</v>
       </c>
       <c r="O17">
-        <v>-5.8045829185234864E-3</v>
+        <v>-4.7857464266051588E-3</v>
       </c>
       <c r="P17">
-        <v>-1.9844727632498678E-2</v>
+        <v>-1.7580472239878811E-2</v>
       </c>
       <c r="Q17">
-        <v>6.8573393068152447E-3</v>
+        <v>5.8929398015794702E-3</v>
       </c>
       <c r="R17">
-        <v>2.126296197141872E-2</v>
+        <v>1.8414443920753601E-2</v>
       </c>
       <c r="S17">
-        <v>-5.7878883310831614E-5</v>
+        <v>6.9101004117114772E-5</v>
       </c>
       <c r="T17">
-        <v>-2.981116417850087E-4</v>
+        <v>-3.7907013253733887E-4</v>
       </c>
       <c r="U17">
-        <v>-2.273584430046893E-3</v>
+        <v>-2.5543451940962122E-3</v>
       </c>
       <c r="V17">
-        <v>-5.2506883980776929E-4</v>
+        <v>-1.8369318955659765E-4</v>
       </c>
       <c r="W17">
-        <v>-8.13393983407668E-5</v>
+        <v>-6.4661622260776255E-6</v>
       </c>
       <c r="X17">
-        <v>1.6796314600488828E-4</v>
+        <v>1.7546977267600099E-4</v>
       </c>
       <c r="Y17">
-        <v>-2.0332203625611188E-4</v>
+        <v>-2.2846398251503505E-4</v>
       </c>
       <c r="Z17">
-        <v>-1.4726659844930241E-4</v>
+        <v>-8.2324881837983325E-5</v>
       </c>
       <c r="AA17">
-        <v>1.3214594824524208E-4</v>
+        <v>1.7121583925899119E-4</v>
       </c>
       <c r="AB17">
-        <v>1.3681385188342712E-5</v>
+        <v>3.086857548289209E-5</v>
       </c>
       <c r="AC17">
-        <v>-2.0739589873307464E-4</v>
+        <v>-3.1174316931970438E-4</v>
       </c>
       <c r="AD17">
-        <v>-2.1692115241732168E-4</v>
+        <v>-2.4049389922529464E-4</v>
       </c>
       <c r="AE17">
-        <v>6.0643790476199123E-3</v>
+        <v>3.7602632527530353E-3</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.45">
@@ -2400,94 +2400,94 @@
         <v>29</v>
       </c>
       <c r="B18" s="4">
-        <v>-0.11895989789393525</v>
+        <v>-0.1205474725943646</v>
       </c>
       <c r="C18">
-        <v>2.0244821819838868E-4</v>
+        <v>1.9243435626443449E-4</v>
       </c>
       <c r="D18">
-        <v>-2.9949002775572693E-6</v>
+        <v>-2.8319923634328983E-6</v>
       </c>
       <c r="E18">
-        <v>8.9663126885582904E-5</v>
+        <v>9.9688721730346614E-5</v>
       </c>
       <c r="F18">
-        <v>-1.2523989593404421E-4</v>
+        <v>-5.1143586603134314E-5</v>
       </c>
       <c r="G18">
-        <v>2.3125061386102913E-5</v>
+        <v>7.4599790917970381E-5</v>
       </c>
       <c r="H18">
-        <v>2.7536908620592231E-4</v>
+        <v>3.2980722929104134E-4</v>
       </c>
       <c r="I18">
-        <v>-3.5225971980116486E-6</v>
+        <v>3.9436415991214404E-6</v>
       </c>
       <c r="J18">
-        <v>1.6390653414245847E-4</v>
+        <v>1.4029386085416724E-4</v>
       </c>
       <c r="K18">
-        <v>4.9874497267640965E-4</v>
+        <v>4.6918374592145543E-4</v>
       </c>
       <c r="L18">
-        <v>3.3209018976997681E-5</v>
+        <v>4.2441989283114841E-5</v>
       </c>
       <c r="M18">
-        <v>8.9269379990214535E-5</v>
+        <v>1.113668778462131E-4</v>
       </c>
       <c r="N18">
-        <v>9.9495820303539297E-5</v>
+        <v>1.1437322066732022E-4</v>
       </c>
       <c r="O18">
-        <v>-1.7028883384515988E-4</v>
+        <v>-2.1134127580801423E-6</v>
       </c>
       <c r="P18">
-        <v>6.0954458646771386E-5</v>
+        <v>-1.32841498703681E-4</v>
       </c>
       <c r="Q18">
-        <v>6.6510798759006988E-5</v>
+        <v>-4.0754449678660542E-5</v>
       </c>
       <c r="R18">
-        <v>-5.7878883310831614E-5</v>
+        <v>6.9101004117114772E-5</v>
       </c>
       <c r="S18">
-        <v>1.137594078613077E-3</v>
+        <v>1.0828448908609188E-3</v>
       </c>
       <c r="T18">
-        <v>8.8063731253770555E-4</v>
+        <v>8.152753097305799E-4</v>
       </c>
       <c r="U18">
-        <v>1.3902382611647411E-4</v>
+        <v>-5.0083306979949518E-6</v>
       </c>
       <c r="V18">
-        <v>1.4710589904572569E-4</v>
+        <v>1.9592037078065437E-4</v>
       </c>
       <c r="W18">
-        <v>-1.6462157696393756E-4</v>
+        <v>-1.3280603289883791E-4</v>
       </c>
       <c r="X18">
-        <v>-1.3270636512702059E-4</v>
+        <v>-1.0403971901812124E-4</v>
       </c>
       <c r="Y18">
-        <v>-5.2945164681329705E-5</v>
+        <v>-5.4826601102152367E-5</v>
       </c>
       <c r="Z18">
-        <v>-3.0940804837179784E-5</v>
+        <v>-2.3388965619314977E-5</v>
       </c>
       <c r="AA18">
-        <v>4.578867480759102E-5</v>
+        <v>4.2485836602178115E-5</v>
       </c>
       <c r="AB18">
-        <v>1.6104011822982094E-5</v>
+        <v>1.5451025931629641E-5</v>
       </c>
       <c r="AC18">
-        <v>1.4169447776430223E-4</v>
+        <v>1.1634006715949784E-4</v>
       </c>
       <c r="AD18">
-        <v>8.9914177586291992E-6</v>
+        <v>1.2973870902276401E-6</v>
       </c>
       <c r="AE18">
-        <v>-4.5603044500566493E-3</v>
+        <v>-4.2793830195181314E-3</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
@@ -2495,94 +2495,94 @@
         <v>30</v>
       </c>
       <c r="B19" s="4">
-        <v>7.7582214540788771E-2</v>
+        <v>5.9088557073164148E-2</v>
       </c>
       <c r="C19">
-        <v>5.1115507346816309E-4</v>
+        <v>4.4902128542772526E-4</v>
       </c>
       <c r="D19">
-        <v>-7.3400097822244224E-6</v>
+        <v>-6.4012366243920116E-6</v>
       </c>
       <c r="E19">
-        <v>-4.5343016912408301E-4</v>
+        <v>-5.009227910631991E-4</v>
       </c>
       <c r="F19">
-        <v>-4.0338892028050661E-4</v>
+        <v>-3.9607453399681308E-4</v>
       </c>
       <c r="G19">
-        <v>-1.5589201098364371E-4</v>
+        <v>-1.931234465921913E-4</v>
       </c>
       <c r="H19">
-        <v>8.7741075901533443E-5</v>
+        <v>4.4393048925213049E-5</v>
       </c>
       <c r="I19">
-        <v>-1.5871967187189886E-4</v>
+        <v>-1.2530241957560461E-4</v>
       </c>
       <c r="J19">
-        <v>2.6277999830140594E-4</v>
+        <v>2.2074305865028154E-4</v>
       </c>
       <c r="K19">
-        <v>5.2687166398304036E-5</v>
+        <v>5.5604009335982404E-5</v>
       </c>
       <c r="L19">
-        <v>2.8896839069420324E-4</v>
+        <v>2.5658339404524035E-4</v>
       </c>
       <c r="M19">
-        <v>5.3414085498131036E-4</v>
+        <v>5.1059293718817671E-4</v>
       </c>
       <c r="N19">
-        <v>6.1061363287487694E-4</v>
+        <v>5.7813511922817987E-4</v>
       </c>
       <c r="O19">
-        <v>4.8112766369078774E-4</v>
+        <v>4.811464463765682E-4</v>
       </c>
       <c r="P19">
-        <v>5.8362318386861816E-4</v>
+        <v>4.8786060506086958E-4</v>
       </c>
       <c r="Q19">
-        <v>-7.9942511813590328E-4</v>
+        <v>-7.2425620442973676E-4</v>
       </c>
       <c r="R19">
-        <v>-2.981116417850087E-4</v>
+        <v>-3.7907013253733887E-4</v>
       </c>
       <c r="S19">
-        <v>8.8063731253770555E-4</v>
+        <v>8.152753097305799E-4</v>
       </c>
       <c r="T19">
-        <v>5.5692533987320852E-3</v>
+        <v>4.9797153633169495E-3</v>
       </c>
       <c r="U19">
-        <v>7.0255513293782448E-4</v>
+        <v>6.1396227502930056E-4</v>
       </c>
       <c r="V19">
-        <v>1.5289174867102106E-4</v>
+        <v>1.9810284272930552E-4</v>
       </c>
       <c r="W19">
-        <v>-2.4289571105343144E-4</v>
+        <v>-1.8447870122822346E-4</v>
       </c>
       <c r="X19">
-        <v>-3.0207062735271815E-4</v>
+        <v>-2.4145573694213059E-4</v>
       </c>
       <c r="Y19">
-        <v>6.2342945728170263E-5</v>
+        <v>8.0057584316888057E-5</v>
       </c>
       <c r="Z19">
-        <v>-3.4334907251378952E-4</v>
+        <v>-2.6731577784837058E-4</v>
       </c>
       <c r="AA19">
-        <v>-1.2798129174576643E-5</v>
+        <v>7.9096730570043443E-6</v>
       </c>
       <c r="AB19">
-        <v>3.228905098529677E-5</v>
+        <v>2.7116128091147975E-5</v>
       </c>
       <c r="AC19">
-        <v>7.1530833624467837E-5</v>
+        <v>4.5098671527915232E-5</v>
       </c>
       <c r="AD19">
-        <v>1.0549778538135107E-5</v>
+        <v>3.9161793982513213E-6</v>
       </c>
       <c r="AE19">
-        <v>-1.0971584647945974E-2</v>
+        <v>-9.7520024108732409E-3</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.45">
@@ -2590,94 +2590,94 @@
         <v>31</v>
       </c>
       <c r="B20" s="4">
-        <v>0.14448540653345693</v>
+        <v>0.138613214277678</v>
       </c>
       <c r="C20">
-        <v>3.1549307267034199E-4</v>
+        <v>2.3257402569426891E-4</v>
       </c>
       <c r="D20">
-        <v>-4.1952287011245222E-6</v>
+        <v>-2.9933107869743519E-6</v>
       </c>
       <c r="E20">
-        <v>-1.1003675921391239E-3</v>
+        <v>-1.1482362773312244E-3</v>
       </c>
       <c r="F20">
-        <v>-6.4977632204395522E-4</v>
+        <v>-7.9171013475877808E-4</v>
       </c>
       <c r="G20">
-        <v>-6.7572226304235712E-4</v>
+        <v>-8.0763066515607794E-4</v>
       </c>
       <c r="H20">
-        <v>-1.144109632787306E-3</v>
+        <v>-1.1885843689452662E-3</v>
       </c>
       <c r="I20">
-        <v>5.6143894196196073E-5</v>
+        <v>-4.0315965918530892E-5</v>
       </c>
       <c r="J20">
-        <v>7.6766952158743157E-6</v>
+        <v>3.2994248329018538E-5</v>
       </c>
       <c r="K20">
-        <v>5.0160279715311118E-4</v>
+        <v>5.5119593287239477E-4</v>
       </c>
       <c r="L20">
-        <v>5.0939359587415245E-5</v>
+        <v>-1.6059617628885747E-4</v>
       </c>
       <c r="M20">
-        <v>6.5229693387577892E-4</v>
+        <v>7.3705097809739772E-4</v>
       </c>
       <c r="N20">
-        <v>4.8811599514153592E-4</v>
+        <v>5.5518875917112687E-4</v>
       </c>
       <c r="O20">
-        <v>6.6462186514621574E-4</v>
+        <v>-5.0795982176589762E-4</v>
       </c>
       <c r="P20">
-        <v>1.7852280796275145E-3</v>
+        <v>2.1220970524371673E-3</v>
       </c>
       <c r="Q20">
-        <v>-1.255235196077723E-3</v>
+        <v>-2.9147874716058033E-4</v>
       </c>
       <c r="R20">
-        <v>-2.273584430046893E-3</v>
+        <v>-2.5543451940962122E-3</v>
       </c>
       <c r="S20">
-        <v>1.3902382611647411E-4</v>
+        <v>-5.0083306979949518E-6</v>
       </c>
       <c r="T20">
-        <v>7.0255513293782448E-4</v>
+        <v>6.1396227502930056E-4</v>
       </c>
       <c r="U20">
-        <v>6.5651319754219034E-2</v>
+        <v>6.2611610896891795E-2</v>
       </c>
       <c r="V20">
-        <v>-1.3498242125529678E-4</v>
+        <v>-8.4543211326497392E-5</v>
       </c>
       <c r="W20">
-        <v>-2.6248904534658529E-4</v>
+        <v>-1.2299409285449533E-4</v>
       </c>
       <c r="X20">
-        <v>3.4789616885904685E-5</v>
+        <v>-1.1906319902616792E-4</v>
       </c>
       <c r="Y20">
-        <v>4.3336293474365451E-4</v>
+        <v>4.5266018432429337E-4</v>
       </c>
       <c r="Z20">
-        <v>4.2237190165875455E-4</v>
+        <v>3.8195269640143442E-4</v>
       </c>
       <c r="AA20">
-        <v>5.2334233900151609E-4</v>
+        <v>5.0330488759703189E-4</v>
       </c>
       <c r="AB20">
-        <v>-4.0549270223684655E-4</v>
+        <v>-3.9745613158252062E-4</v>
       </c>
       <c r="AC20">
-        <v>-7.8785914883360703E-4</v>
+        <v>-6.5513384018372339E-4</v>
       </c>
       <c r="AD20">
-        <v>3.6610256137662861E-3</v>
+        <v>3.5986587515630906E-3</v>
       </c>
       <c r="AE20">
-        <v>-8.8577819672190861E-2</v>
+        <v>-8.2991507920076202E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.45">
@@ -2685,94 +2685,94 @@
         <v>32</v>
       </c>
       <c r="B21" s="4">
-        <v>8.1386377636812543E-2</v>
+        <v>7.6400911560965096E-2</v>
       </c>
       <c r="C21">
-        <v>1.0584513860028462E-3</v>
+        <v>1.036745703606724E-3</v>
       </c>
       <c r="D21">
-        <v>-1.4422839913809203E-5</v>
+        <v>-1.417677093281909E-5</v>
       </c>
       <c r="E21">
-        <v>3.3699088986800883E-4</v>
+        <v>1.1254545305906362E-3</v>
       </c>
       <c r="F21">
-        <v>1.2403882726379173E-3</v>
+        <v>1.7154813598231292E-3</v>
       </c>
       <c r="G21">
-        <v>1.3395691097155302E-3</v>
+        <v>1.8108383199628032E-3</v>
       </c>
       <c r="H21">
-        <v>1.3154806320097852E-3</v>
+        <v>1.7954571935368513E-3</v>
       </c>
       <c r="I21">
-        <v>-2.3068582711985265E-4</v>
+        <v>-2.3002156782194079E-4</v>
       </c>
       <c r="J21">
-        <v>-4.2269863612068412E-5</v>
+        <v>-3.1131398564071446E-5</v>
       </c>
       <c r="K21">
-        <v>-2.5140153895613152E-4</v>
+        <v>-1.0509328676614957E-4</v>
       </c>
       <c r="L21">
-        <v>3.6952569133921406E-4</v>
+        <v>3.7888829995916251E-4</v>
       </c>
       <c r="M21">
-        <v>2.228112377216547E-4</v>
+        <v>2.5820894272164316E-4</v>
       </c>
       <c r="N21">
-        <v>1.1556462561882613E-4</v>
+        <v>2.4249225575666625E-4</v>
       </c>
       <c r="O21">
-        <v>2.8711583551464364E-4</v>
+        <v>6.9032131691097189E-4</v>
       </c>
       <c r="P21">
-        <v>2.8659560442748463E-4</v>
+        <v>4.3644292906844982E-5</v>
       </c>
       <c r="Q21">
-        <v>-1.0407610541415459E-3</v>
+        <v>-1.4736186988996832E-3</v>
       </c>
       <c r="R21">
-        <v>-5.2506883980776929E-4</v>
+        <v>-1.8369318955659765E-4</v>
       </c>
       <c r="S21">
-        <v>1.4710589904572569E-4</v>
+        <v>1.9592037078065437E-4</v>
       </c>
       <c r="T21">
-        <v>1.5289174867102106E-4</v>
+        <v>1.9810284272930552E-4</v>
       </c>
       <c r="U21">
-        <v>-1.3498242125529678E-4</v>
+        <v>-8.4543211326497392E-5</v>
       </c>
       <c r="V21">
-        <v>2.5513084365640416E-2</v>
+        <v>2.5186470893142965E-2</v>
       </c>
       <c r="W21">
-        <v>9.208017939467514E-4</v>
+        <v>8.6605452987036698E-4</v>
       </c>
       <c r="X21">
-        <v>8.0017973537814535E-5</v>
+        <v>6.4511188072241326E-5</v>
       </c>
       <c r="Y21">
-        <v>-2.5248743567831224E-4</v>
+        <v>-2.1972528175086799E-4</v>
       </c>
       <c r="Z21">
-        <v>9.7163229883987434E-5</v>
+        <v>9.1546500222922404E-5</v>
       </c>
       <c r="AA21">
-        <v>7.7618509730101445E-5</v>
+        <v>6.6245223789805196E-5</v>
       </c>
       <c r="AB21">
-        <v>2.1679146108655712E-5</v>
+        <v>2.3522284162458171E-5</v>
       </c>
       <c r="AC21">
-        <v>-5.8726776009524265E-6</v>
+        <v>-3.6485347385505074E-7</v>
       </c>
       <c r="AD21">
-        <v>3.4567471619621065E-5</v>
+        <v>4.2352086338522978E-5</v>
       </c>
       <c r="AE21">
-        <v>-2.0703109780716655E-2</v>
+        <v>-2.0888084053528877E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.45">
@@ -2780,94 +2780,94 @@
         <v>33</v>
       </c>
       <c r="B22" s="4">
-        <v>-0.10958072772627631</v>
+        <v>-0.10837932836804987</v>
       </c>
       <c r="C22">
-        <v>7.4799353775416039E-5</v>
+        <v>8.256034511573869E-5</v>
       </c>
       <c r="D22">
-        <v>-8.3463062452722691E-7</v>
+        <v>-9.7725192968876098E-7</v>
       </c>
       <c r="E22">
-        <v>-3.1598519528578881E-5</v>
+        <v>-3.3471972248961439E-5</v>
       </c>
       <c r="F22">
-        <v>4.6010790175434661E-4</v>
+        <v>4.3733593379901355E-4</v>
       </c>
       <c r="G22">
-        <v>7.9768781211407417E-4</v>
+        <v>7.7486338378691662E-4</v>
       </c>
       <c r="H22">
-        <v>8.9504595964762538E-4</v>
+        <v>8.621738419492082E-4</v>
       </c>
       <c r="I22">
-        <v>-3.4610740409644479E-5</v>
+        <v>-5.3974580672169834E-5</v>
       </c>
       <c r="J22">
-        <v>-1.7390450590261522E-4</v>
+        <v>-1.514370799753645E-4</v>
       </c>
       <c r="K22">
-        <v>-2.3047462583939901E-4</v>
+        <v>-1.7030843422933747E-4</v>
       </c>
       <c r="L22">
-        <v>4.0816138927024861E-4</v>
+        <v>4.0183811021562987E-4</v>
       </c>
       <c r="M22">
-        <v>4.4627528852833782E-4</v>
+        <v>4.4745943156195706E-4</v>
       </c>
       <c r="N22">
-        <v>4.9452823199923508E-4</v>
+        <v>4.9592163070215529E-4</v>
       </c>
       <c r="O22">
-        <v>1.5979472672772191E-4</v>
+        <v>1.4831380963284302E-4</v>
       </c>
       <c r="P22">
-        <v>2.8554611482415389E-4</v>
+        <v>2.7818894293340899E-4</v>
       </c>
       <c r="Q22">
-        <v>1.9637868908789757E-4</v>
+        <v>1.6550412430280532E-4</v>
       </c>
       <c r="R22">
-        <v>-8.13393983407668E-5</v>
+        <v>-6.4661622260776255E-6</v>
       </c>
       <c r="S22">
-        <v>-1.6462157696393756E-4</v>
+        <v>-1.3280603289883791E-4</v>
       </c>
       <c r="T22">
-        <v>-2.4289571105343144E-4</v>
+        <v>-1.8447870122822346E-4</v>
       </c>
       <c r="U22">
-        <v>-2.6248904534658529E-4</v>
+        <v>-1.2299409285449533E-4</v>
       </c>
       <c r="V22">
-        <v>9.208017939467514E-4</v>
+        <v>8.6605452987036698E-4</v>
       </c>
       <c r="W22">
-        <v>1.4342445815262294E-3</v>
+        <v>1.3926431850952248E-3</v>
       </c>
       <c r="X22">
-        <v>6.4076411211942306E-5</v>
+        <v>4.5726485996641208E-5</v>
       </c>
       <c r="Y22">
-        <v>1.3654345751414995E-4</v>
+        <v>1.2236270062001225E-4</v>
       </c>
       <c r="Z22">
-        <v>1.1598520803813443E-4</v>
+        <v>9.0385805348541825E-5</v>
       </c>
       <c r="AA22">
-        <v>8.6666969157887569E-5</v>
+        <v>6.3410483441622473E-5</v>
       </c>
       <c r="AB22">
-        <v>5.5313052118987556E-6</v>
+        <v>5.4576414940648319E-6</v>
       </c>
       <c r="AC22">
-        <v>-1.2439440974154766E-4</v>
+        <v>-8.1539065810655041E-5</v>
       </c>
       <c r="AD22">
-        <v>-1.7986701012400364E-5</v>
+        <v>5.568759610072283E-6</v>
       </c>
       <c r="AE22">
-        <v>-2.7540267658700476E-3</v>
+        <v>-2.9693769645715174E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.45">
@@ -2875,94 +2875,94 @@
         <v>36</v>
       </c>
       <c r="B23" s="4">
-        <v>-0.11201617428072587</v>
+        <v>-9.3015094325197584E-2</v>
       </c>
       <c r="C23">
-        <v>-2.141965003236079E-5</v>
+        <v>4.255967225028686E-7</v>
       </c>
       <c r="D23">
-        <v>3.0931627974827824E-7</v>
+        <v>-9.8252358527322638E-9</v>
       </c>
       <c r="E23">
-        <v>-8.6086262950264836E-6</v>
+        <v>2.2856607472792245E-4</v>
       </c>
       <c r="F23">
-        <v>6.1819002863326071E-5</v>
+        <v>2.2090543634875268E-4</v>
       </c>
       <c r="G23">
-        <v>-2.1312236526672057E-5</v>
+        <v>1.4899534601413875E-4</v>
       </c>
       <c r="H23">
-        <v>-1.6897373774397918E-5</v>
+        <v>1.3861162955907996E-4</v>
       </c>
       <c r="I23">
-        <v>5.5703011445972905E-5</v>
+        <v>1.596535067560154E-5</v>
       </c>
       <c r="J23">
-        <v>-4.0983901604894256E-5</v>
+        <v>-1.51395986420455E-5</v>
       </c>
       <c r="K23">
-        <v>-2.9498342873946967E-4</v>
+        <v>-3.8045096765947257E-4</v>
       </c>
       <c r="L23">
-        <v>-3.5661409280766422E-4</v>
+        <v>-3.7671397780852066E-4</v>
       </c>
       <c r="M23">
-        <v>-4.5531603851499229E-4</v>
+        <v>-4.6427709508903119E-4</v>
       </c>
       <c r="N23">
-        <v>-3.9417206637571561E-4</v>
+        <v>-3.9430563060456614E-4</v>
       </c>
       <c r="O23">
-        <v>-1.5665502466423312E-4</v>
+        <v>7.6876093061210106E-5</v>
       </c>
       <c r="P23">
-        <v>-1.2347906443622259E-4</v>
+        <v>-9.6934724572757524E-5</v>
       </c>
       <c r="Q23">
-        <v>-6.7455200221197542E-5</v>
+        <v>-2.661655520219098E-4</v>
       </c>
       <c r="R23">
-        <v>1.6796314600488828E-4</v>
+        <v>1.7546977267600099E-4</v>
       </c>
       <c r="S23">
-        <v>-1.3270636512702059E-4</v>
+        <v>-1.0403971901812124E-4</v>
       </c>
       <c r="T23">
-        <v>-3.0207062735271815E-4</v>
+        <v>-2.4145573694213059E-4</v>
       </c>
       <c r="U23">
-        <v>3.4789616885904685E-5</v>
+        <v>-1.1906319902616792E-4</v>
       </c>
       <c r="V23">
-        <v>8.0017973537814535E-5</v>
+        <v>6.4511188072241326E-5</v>
       </c>
       <c r="W23">
-        <v>6.4076411211942306E-5</v>
+        <v>4.5726485996641208E-5</v>
       </c>
       <c r="X23">
-        <v>2.5649205471039173E-3</v>
+        <v>2.3963036145122109E-3</v>
       </c>
       <c r="Y23">
-        <v>1.2313576985818427E-3</v>
+        <v>1.1394132423619282E-3</v>
       </c>
       <c r="Z23">
-        <v>1.2318360547448994E-3</v>
+        <v>1.14180093045091E-3</v>
       </c>
       <c r="AA23">
-        <v>1.2170742779416765E-3</v>
+        <v>1.128617649464017E-3</v>
       </c>
       <c r="AB23">
-        <v>-1.7516237114680483E-5</v>
+        <v>-1.2986655483020808E-5</v>
       </c>
       <c r="AC23">
-        <v>-2.8662482840621155E-6</v>
+        <v>-4.7846737407848965E-6</v>
       </c>
       <c r="AD23">
-        <v>5.6265968278130097E-5</v>
+        <v>4.7319190284916661E-5</v>
       </c>
       <c r="AE23">
-        <v>-1.8059689487154133E-4</v>
+        <v>-4.4250594001484303E-4</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
@@ -2970,94 +2970,94 @@
         <v>37</v>
       </c>
       <c r="B24" s="4">
-        <v>-9.4988644502095501E-2</v>
+        <v>-8.8056629631783623E-2</v>
       </c>
       <c r="C24">
-        <v>-4.554678028819998E-5</v>
+        <v>-3.4369943042798063E-5</v>
       </c>
       <c r="D24">
-        <v>6.1736848323687481E-7</v>
+        <v>4.5168458805109964E-7</v>
       </c>
       <c r="E24">
-        <v>1.3244535448920088E-4</v>
+        <v>3.1057699376862123E-4</v>
       </c>
       <c r="F24">
-        <v>1.7307081195449999E-4</v>
+        <v>2.9942339633353343E-4</v>
       </c>
       <c r="G24">
-        <v>2.2998492105185336E-4</v>
+        <v>3.6094664196645993E-4</v>
       </c>
       <c r="H24">
-        <v>1.6661274561048732E-4</v>
+        <v>2.8059981020544682E-4</v>
       </c>
       <c r="I24">
-        <v>1.36604349845743E-4</v>
+        <v>1.0238385191772319E-4</v>
       </c>
       <c r="J24">
-        <v>-1.0323295767327505E-4</v>
+        <v>-7.9660085159065244E-5</v>
       </c>
       <c r="K24">
-        <v>-1.8350964829420054E-4</v>
+        <v>-2.4582271198870403E-4</v>
       </c>
       <c r="L24">
-        <v>-3.5498763262628401E-4</v>
+        <v>-3.4137581956191192E-4</v>
       </c>
       <c r="M24">
-        <v>-1.9196081110558344E-4</v>
+        <v>-1.9277684255405948E-4</v>
       </c>
       <c r="N24">
-        <v>-1.614051387855359E-4</v>
+        <v>-1.7100302444384395E-4</v>
       </c>
       <c r="O24">
-        <v>1.0321597835227728E-4</v>
+        <v>1.0344903868390441E-4</v>
       </c>
       <c r="P24">
-        <v>5.0528443117587012E-4</v>
+        <v>4.9287291610111998E-4</v>
       </c>
       <c r="Q24">
-        <v>-1.2934470279799183E-4</v>
+        <v>-1.5986730426279362E-4</v>
       </c>
       <c r="R24">
-        <v>-2.0332203625611188E-4</v>
+        <v>-2.2846398251503505E-4</v>
       </c>
       <c r="S24">
-        <v>-5.2945164681329705E-5</v>
+        <v>-5.4826601102152367E-5</v>
       </c>
       <c r="T24">
-        <v>6.2342945728170263E-5</v>
+        <v>8.0057584316888057E-5</v>
       </c>
       <c r="U24">
-        <v>4.3336293474365451E-4</v>
+        <v>4.5266018432429337E-4</v>
       </c>
       <c r="V24">
-        <v>-2.5248743567831224E-4</v>
+        <v>-2.1972528175086799E-4</v>
       </c>
       <c r="W24">
-        <v>1.3654345751414995E-4</v>
+        <v>1.2236270062001225E-4</v>
       </c>
       <c r="X24">
-        <v>1.2313576985818427E-3</v>
+        <v>1.1394132423619282E-3</v>
       </c>
       <c r="Y24">
-        <v>3.5362662149054352E-3</v>
+        <v>3.3146367685923141E-3</v>
       </c>
       <c r="Z24">
-        <v>1.2190058216788777E-3</v>
+        <v>1.126972949342196E-3</v>
       </c>
       <c r="AA24">
-        <v>1.2332353184284725E-3</v>
+        <v>1.1399084708895184E-3</v>
       </c>
       <c r="AB24">
-        <v>-1.2067402734889788E-5</v>
+        <v>-1.1819314082355626E-5</v>
       </c>
       <c r="AC24">
-        <v>-1.3666947866350148E-4</v>
+        <v>-1.0156273015465917E-4</v>
       </c>
       <c r="AD24">
-        <v>2.9670126582058595E-5</v>
+        <v>4.5358370753200562E-5</v>
       </c>
       <c r="AE24">
-        <v>-9.4394229366565117E-4</v>
+        <v>-1.1450566768274675E-3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.45">
@@ -3065,94 +3065,94 @@
         <v>38</v>
       </c>
       <c r="B25" s="4">
-        <v>7.8156145117614529E-3</v>
+        <v>1.306812135078203E-2</v>
       </c>
       <c r="C25">
-        <v>-8.1450460675352955E-6</v>
+        <v>5.7247109565838894E-6</v>
       </c>
       <c r="D25">
-        <v>2.4835838041911808E-7</v>
+        <v>1.5333999195543346E-8</v>
       </c>
       <c r="E25">
-        <v>8.1730981717657815E-5</v>
+        <v>1.7767527515970575E-4</v>
       </c>
       <c r="F25">
-        <v>1.371948477585203E-4</v>
+        <v>1.9853308174726752E-4</v>
       </c>
       <c r="G25">
-        <v>1.5505942709368475E-4</v>
+        <v>2.2530322637951653E-4</v>
       </c>
       <c r="H25">
-        <v>2.0846949632933538E-4</v>
+        <v>2.605508110060199E-4</v>
       </c>
       <c r="I25">
-        <v>6.9422452893638323E-5</v>
+        <v>3.4609419491087924E-5</v>
       </c>
       <c r="J25">
-        <v>4.2027742880025124E-5</v>
+        <v>5.1172868672602211E-5</v>
       </c>
       <c r="K25">
-        <v>-3.1001252241920178E-5</v>
+        <v>-1.284220570935005E-4</v>
       </c>
       <c r="L25">
-        <v>-9.31338569076616E-5</v>
+        <v>-1.2230621992551528E-4</v>
       </c>
       <c r="M25">
-        <v>-1.4499512629527218E-4</v>
+        <v>-1.3906646043800389E-4</v>
       </c>
       <c r="N25">
-        <v>-1.428579643992095E-4</v>
+        <v>-1.4266392760561245E-4</v>
       </c>
       <c r="O25">
-        <v>2.6566951125058727E-5</v>
+        <v>8.3212268812885487E-5</v>
       </c>
       <c r="P25">
-        <v>2.2830426423424535E-4</v>
+        <v>2.1397395422366526E-4</v>
       </c>
       <c r="Q25">
-        <v>-4.0423775953017053E-6</v>
+        <v>-8.3156147322452931E-5</v>
       </c>
       <c r="R25">
-        <v>-1.4726659844930241E-4</v>
+        <v>-8.2324881837983325E-5</v>
       </c>
       <c r="S25">
-        <v>-3.0940804837179784E-5</v>
+        <v>-2.3388965619314977E-5</v>
       </c>
       <c r="T25">
-        <v>-3.4334907251378952E-4</v>
+        <v>-2.6731577784837058E-4</v>
       </c>
       <c r="U25">
-        <v>4.2237190165875455E-4</v>
+        <v>3.8195269640143442E-4</v>
       </c>
       <c r="V25">
-        <v>9.7163229883987434E-5</v>
+        <v>9.1546500222922404E-5</v>
       </c>
       <c r="W25">
-        <v>1.1598520803813443E-4</v>
+        <v>9.0385805348541825E-5</v>
       </c>
       <c r="X25">
-        <v>1.2318360547448994E-3</v>
+        <v>1.14180093045091E-3</v>
       </c>
       <c r="Y25">
-        <v>1.2190058216788777E-3</v>
+        <v>1.126972949342196E-3</v>
       </c>
       <c r="Z25">
-        <v>2.5413437244037407E-3</v>
+        <v>2.4034957567781387E-3</v>
       </c>
       <c r="AA25">
-        <v>1.2293734696990767E-3</v>
+        <v>1.136619478606092E-3</v>
       </c>
       <c r="AB25">
-        <v>-2.6036381208637715E-5</v>
+        <v>-2.4725432462594121E-5</v>
       </c>
       <c r="AC25">
-        <v>-1.8163016032944038E-5</v>
+        <v>2.7851526926298562E-5</v>
       </c>
       <c r="AD25">
-        <v>7.2852561481653747E-5</v>
+        <v>9.8701359849394127E-5</v>
       </c>
       <c r="AE25">
-        <v>-1.5296689369368489E-3</v>
+        <v>-1.6252374383883749E-3</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.45">
@@ -3160,94 +3160,94 @@
         <v>40</v>
       </c>
       <c r="B26" s="4">
-        <v>-4.9462149892548116E-2</v>
+        <v>-4.3127899685774435E-2</v>
       </c>
       <c r="C26">
-        <v>-2.7879193309906787E-5</v>
+        <v>-1.5838513064547559E-5</v>
       </c>
       <c r="D26">
-        <v>4.5290184960610858E-7</v>
+        <v>2.6570736051742815E-7</v>
       </c>
       <c r="E26">
-        <v>2.4735278980638452E-4</v>
+        <v>2.8429778853909923E-4</v>
       </c>
       <c r="F26">
-        <v>2.6736896723420075E-4</v>
+        <v>2.7598110523056212E-4</v>
       </c>
       <c r="G26">
-        <v>3.848234405092845E-4</v>
+        <v>3.9546046006957644E-4</v>
       </c>
       <c r="H26">
-        <v>4.2271040507972359E-4</v>
+        <v>4.0835041409025886E-4</v>
       </c>
       <c r="I26">
-        <v>7.1359421035897084E-5</v>
+        <v>3.9438556723504873E-5</v>
       </c>
       <c r="J26">
-        <v>-3.1886054298620639E-5</v>
+        <v>-1.7265724705360424E-5</v>
       </c>
       <c r="K26">
-        <v>6.2292476934466129E-4</v>
+        <v>4.6902342506572204E-4</v>
       </c>
       <c r="L26">
-        <v>-8.5703873638610581E-5</v>
+        <v>-1.0161682224577289E-4</v>
       </c>
       <c r="M26">
-        <v>-5.1542098648878036E-5</v>
+        <v>-4.9608189989342431E-5</v>
       </c>
       <c r="N26">
-        <v>3.5902416460376584E-5</v>
+        <v>3.8489258457458618E-5</v>
       </c>
       <c r="O26">
-        <v>-2.3280769800746809E-6</v>
+        <v>4.962905437433277E-5</v>
       </c>
       <c r="P26">
-        <v>5.3483554656324805E-5</v>
+        <v>-4.8228911015247774E-6</v>
       </c>
       <c r="Q26">
-        <v>1.1543495768952456E-5</v>
+        <v>-5.6907486115411382E-5</v>
       </c>
       <c r="R26">
-        <v>1.3214594824524208E-4</v>
+        <v>1.7121583925899119E-4</v>
       </c>
       <c r="S26">
-        <v>4.578867480759102E-5</v>
+        <v>4.2485836602178115E-5</v>
       </c>
       <c r="T26">
-        <v>-1.2798129174576643E-5</v>
+        <v>7.9096730570043443E-6</v>
       </c>
       <c r="U26">
-        <v>5.2334233900151609E-4</v>
+        <v>5.0330488759703189E-4</v>
       </c>
       <c r="V26">
-        <v>7.7618509730101445E-5</v>
+        <v>6.6245223789805196E-5</v>
       </c>
       <c r="W26">
-        <v>8.6666969157887569E-5</v>
+        <v>6.3410483441622473E-5</v>
       </c>
       <c r="X26">
-        <v>1.2170742779416765E-3</v>
+        <v>1.128617649464017E-3</v>
       </c>
       <c r="Y26">
-        <v>1.2332353184284725E-3</v>
+        <v>1.1399084708895184E-3</v>
       </c>
       <c r="Z26">
-        <v>1.2293734696990767E-3</v>
+        <v>1.136619478606092E-3</v>
       </c>
       <c r="AA26">
-        <v>1.7889128027494335E-3</v>
+        <v>1.6759501026546804E-3</v>
       </c>
       <c r="AB26">
-        <v>-1.2942064213776946E-5</v>
+        <v>-1.3352418916546307E-5</v>
       </c>
       <c r="AC26">
-        <v>-7.7060794019654278E-6</v>
+        <v>2.4982273494333625E-5</v>
       </c>
       <c r="AD26">
-        <v>1.5007129640255982E-5</v>
+        <v>5.3013328795380545E-5</v>
       </c>
       <c r="AE26">
-        <v>-1.7863110535419318E-3</v>
+        <v>-1.8101207599157086E-3</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.45">
@@ -3255,94 +3255,94 @@
         <v>34</v>
       </c>
       <c r="B27" s="4">
-        <v>1.8028110051913279E-2</v>
+        <v>1.8471480415839833E-2</v>
       </c>
       <c r="C27">
-        <v>5.421659640918793E-6</v>
+        <v>5.9137605493958998E-6</v>
       </c>
       <c r="D27">
-        <v>-1.1415322297382747E-7</v>
+        <v>-1.1857098752095007E-7</v>
       </c>
       <c r="E27">
-        <v>-6.5953979359414418E-6</v>
+        <v>-1.5808479232049642E-5</v>
       </c>
       <c r="F27">
-        <v>-1.1020373124667325E-5</v>
+        <v>-1.4929545295904917E-5</v>
       </c>
       <c r="G27">
-        <v>3.6355828030754206E-6</v>
+        <v>-2.6689480399168821E-6</v>
       </c>
       <c r="H27">
-        <v>1.2864916744029583E-5</v>
+        <v>6.4342486495588409E-6</v>
       </c>
       <c r="I27">
-        <v>-5.9856865652064842E-6</v>
+        <v>-2.7214548413133252E-6</v>
       </c>
       <c r="J27">
-        <v>-1.7490710265850139E-6</v>
+        <v>-2.7829571149668148E-6</v>
       </c>
       <c r="K27">
-        <v>-2.6787280646954474E-5</v>
+        <v>-2.8285873803390448E-5</v>
       </c>
       <c r="L27">
-        <v>-2.3095956873329156E-5</v>
+        <v>-1.3468760293948025E-5</v>
       </c>
       <c r="M27">
-        <v>-4.0237440784966511E-5</v>
+        <v>-3.8728019827620447E-5</v>
       </c>
       <c r="N27">
-        <v>-3.754389811499656E-5</v>
+        <v>-3.7190050698999972E-5</v>
       </c>
       <c r="O27">
-        <v>-5.742081227232421E-6</v>
+        <v>4.1569522667938513E-5</v>
       </c>
       <c r="P27">
-        <v>-2.5569093645597616E-5</v>
+        <v>-3.8323392250187401E-5</v>
       </c>
       <c r="Q27">
-        <v>-2.1703148503561558E-6</v>
+        <v>-3.8230551777755741E-5</v>
       </c>
       <c r="R27">
-        <v>1.3681385188342712E-5</v>
+        <v>3.086857548289209E-5</v>
       </c>
       <c r="S27">
-        <v>1.6104011822982094E-5</v>
+        <v>1.5451025931629641E-5</v>
       </c>
       <c r="T27">
-        <v>3.228905098529677E-5</v>
+        <v>2.7116128091147975E-5</v>
       </c>
       <c r="U27">
-        <v>-4.0549270223684655E-4</v>
+        <v>-3.9745613158252062E-4</v>
       </c>
       <c r="V27">
-        <v>2.1679146108655712E-5</v>
+        <v>2.3522284162458171E-5</v>
       </c>
       <c r="W27">
-        <v>5.5313052118987556E-6</v>
+        <v>5.4576414940648319E-6</v>
       </c>
       <c r="X27">
-        <v>-1.7516237114680483E-5</v>
+        <v>-1.2986655483020808E-5</v>
       </c>
       <c r="Y27">
-        <v>-1.2067402734889788E-5</v>
+        <v>-1.1819314082355626E-5</v>
       </c>
       <c r="Z27">
-        <v>-2.6036381208637715E-5</v>
+        <v>-2.4725432462594121E-5</v>
       </c>
       <c r="AA27">
-        <v>-1.2942064213776946E-5</v>
+        <v>-1.3352418916546307E-5</v>
       </c>
       <c r="AB27">
-        <v>2.7940665740346409E-5</v>
+        <v>2.6983569595569837E-5</v>
       </c>
       <c r="AC27">
-        <v>-1.0749992749718718E-4</v>
+        <v>-1.0462852695158201E-4</v>
       </c>
       <c r="AD27">
-        <v>-1.6024384939049334E-4</v>
+        <v>-1.555754373125941E-4</v>
       </c>
       <c r="AE27">
-        <v>1.1405120870786739E-4</v>
+        <v>1.0539250620569688E-4</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.45">
@@ -3350,94 +3350,94 @@
         <v>35</v>
       </c>
       <c r="B28" s="4">
-        <v>5.3852723069694394E-2</v>
+        <v>3.7713558541715229E-2</v>
       </c>
       <c r="C28">
-        <v>6.3579012166735741E-5</v>
+        <v>5.159375546955015E-5</v>
       </c>
       <c r="D28">
-        <v>-1.0035496888673715E-6</v>
+        <v>-8.1506749543800876E-7</v>
       </c>
       <c r="E28">
-        <v>1.4624587315184437E-4</v>
+        <v>2.3912491505732447E-4</v>
       </c>
       <c r="F28">
-        <v>-1.0493636628469954E-4</v>
+        <v>-3.279483099759891E-5</v>
       </c>
       <c r="G28">
-        <v>-6.8393568300322526E-5</v>
+        <v>1.3158211822331036E-5</v>
       </c>
       <c r="H28">
-        <v>-2.3451656749649309E-5</v>
+        <v>5.1524792219336413E-5</v>
       </c>
       <c r="I28">
-        <v>-2.1612612411783675E-5</v>
+        <v>-2.5578364481533339E-5</v>
       </c>
       <c r="J28">
-        <v>-3.2051521032759535E-5</v>
+        <v>-3.9288890784926135E-5</v>
       </c>
       <c r="K28">
-        <v>1.5355947257847322E-3</v>
+        <v>1.2965498805307535E-3</v>
       </c>
       <c r="L28">
-        <v>-1.8163658014058032E-5</v>
+        <v>-6.8579148196939999E-5</v>
       </c>
       <c r="M28">
-        <v>-5.3477398588887282E-5</v>
+        <v>-5.9849585982117703E-5</v>
       </c>
       <c r="N28">
-        <v>-1.0959209065759118E-4</v>
+        <v>-1.1601445814387462E-4</v>
       </c>
       <c r="O28">
-        <v>-1.6479736535241987E-4</v>
+        <v>-5.2681368138991151E-4</v>
       </c>
       <c r="P28">
-        <v>7.2954643292397398E-5</v>
+        <v>1.7784775603164904E-4</v>
       </c>
       <c r="Q28">
-        <v>1.3371961543185763E-4</v>
+        <v>4.545165394622421E-4</v>
       </c>
       <c r="R28">
-        <v>-2.0739589873307464E-4</v>
+        <v>-3.1174316931970438E-4</v>
       </c>
       <c r="S28">
-        <v>1.4169447776430223E-4</v>
+        <v>1.1634006715949784E-4</v>
       </c>
       <c r="T28">
-        <v>7.1530833624467837E-5</v>
+        <v>4.5098671527915232E-5</v>
       </c>
       <c r="U28">
-        <v>-7.8785914883360703E-4</v>
+        <v>-6.5513384018372339E-4</v>
       </c>
       <c r="V28">
-        <v>-5.8726776009524265E-6</v>
+        <v>-3.6485347385505074E-7</v>
       </c>
       <c r="W28">
-        <v>-1.2439440974154766E-4</v>
+        <v>-8.1539065810655041E-5</v>
       </c>
       <c r="X28">
-        <v>-2.8662482840621155E-6</v>
+        <v>-4.7846737407848965E-6</v>
       </c>
       <c r="Y28">
-        <v>-1.3666947866350148E-4</v>
+        <v>-1.0156273015465917E-4</v>
       </c>
       <c r="Z28">
-        <v>-1.8163016032944038E-5</v>
+        <v>2.7851526926298562E-5</v>
       </c>
       <c r="AA28">
-        <v>-7.7060794019654278E-6</v>
+        <v>2.4982273494333625E-5</v>
       </c>
       <c r="AB28">
-        <v>-1.0749992749718718E-4</v>
+        <v>-1.0462852695158201E-4</v>
       </c>
       <c r="AC28">
-        <v>3.5295908680828504E-3</v>
+        <v>3.2376679397965007E-3</v>
       </c>
       <c r="AD28">
-        <v>8.6607560860356317E-4</v>
+        <v>8.3715384164173752E-4</v>
       </c>
       <c r="AE28">
-        <v>1.6200200712007968E-3</v>
+        <v>1.5120088370187438E-3</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.45">
@@ -3445,94 +3445,94 @@
         <v>14</v>
       </c>
       <c r="B29" s="4">
-        <v>1.5990723947326247E-2</v>
+        <v>1.0680613465932139E-2</v>
       </c>
       <c r="C29">
-        <v>2.9825379258316409E-5</v>
+        <v>2.5710270849494711E-5</v>
       </c>
       <c r="D29">
-        <v>-4.5291039084409304E-7</v>
+        <v>-4.0582316391967095E-7</v>
       </c>
       <c r="E29">
-        <v>2.7947863644263871E-4</v>
+        <v>3.1818351229789257E-4</v>
       </c>
       <c r="F29">
-        <v>2.0112264304339932E-4</v>
+        <v>2.3388041275380824E-4</v>
       </c>
       <c r="G29">
-        <v>1.240966661213564E-4</v>
+        <v>1.7514425447485776E-4</v>
       </c>
       <c r="H29">
-        <v>1.0461654827358178E-4</v>
+        <v>1.6785572366683236E-4</v>
       </c>
       <c r="I29">
-        <v>-3.5253330163000085E-5</v>
+        <v>-5.9407444466610905E-5</v>
       </c>
       <c r="J29">
-        <v>-3.3745626086008188E-5</v>
+        <v>-3.1125863325718868E-5</v>
       </c>
       <c r="K29">
-        <v>2.0415111251077811E-4</v>
+        <v>1.7246407844620504E-4</v>
       </c>
       <c r="L29">
-        <v>5.5295882842584104E-5</v>
+        <v>-2.1924498427777772E-5</v>
       </c>
       <c r="M29">
-        <v>1.3815132907012834E-4</v>
+        <v>1.2623628609969434E-4</v>
       </c>
       <c r="N29">
-        <v>1.3834937854787302E-4</v>
+        <v>1.4057615879197946E-4</v>
       </c>
       <c r="O29">
-        <v>1.203300114543026E-4</v>
+        <v>-1.1693663405852828E-4</v>
       </c>
       <c r="P29">
-        <v>6.3742160318513768E-5</v>
+        <v>1.2564404886540901E-4</v>
       </c>
       <c r="Q29">
-        <v>-1.9846476691890574E-4</v>
+        <v>-8.3217073198970336E-6</v>
       </c>
       <c r="R29">
-        <v>-2.1692115241732168E-4</v>
+        <v>-2.4049389922529464E-4</v>
       </c>
       <c r="S29">
-        <v>8.9914177586291992E-6</v>
+        <v>1.2973870902276401E-6</v>
       </c>
       <c r="T29">
-        <v>1.0549778538135107E-5</v>
+        <v>3.9161793982513213E-6</v>
       </c>
       <c r="U29">
-        <v>3.6610256137662861E-3</v>
+        <v>3.5986587515630906E-3</v>
       </c>
       <c r="V29">
-        <v>3.4567471619621065E-5</v>
+        <v>4.2352086338522978E-5</v>
       </c>
       <c r="W29">
-        <v>-1.7986701012400364E-5</v>
+        <v>5.568759610072283E-6</v>
       </c>
       <c r="X29">
-        <v>5.6265968278130097E-5</v>
+        <v>4.7319190284916661E-5</v>
       </c>
       <c r="Y29">
-        <v>2.9670126582058595E-5</v>
+        <v>4.5358370753200562E-5</v>
       </c>
       <c r="Z29">
-        <v>7.2852561481653747E-5</v>
+        <v>9.8701359849394127E-5</v>
       </c>
       <c r="AA29">
-        <v>1.5007129640255982E-5</v>
+        <v>5.3013328795380545E-5</v>
       </c>
       <c r="AB29">
-        <v>-1.6024384939049334E-4</v>
+        <v>-1.555754373125941E-4</v>
       </c>
       <c r="AC29">
-        <v>8.6607560860356317E-4</v>
+        <v>8.3715384164173752E-4</v>
       </c>
       <c r="AD29">
-        <v>3.4326412466764581E-3</v>
+        <v>3.3083323387292302E-3</v>
       </c>
       <c r="AE29">
-        <v>-3.4649688000100501E-3</v>
+        <v>-3.3889965547701691E-3</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.45">
@@ -3540,94 +3540,94 @@
         <v>15</v>
       </c>
       <c r="B30" s="4">
-        <v>-2.913409408550844</v>
+        <v>-2.9088969591501219</v>
       </c>
       <c r="C30">
-        <v>-1.4584258604706191E-2</v>
+        <v>-1.3815079267640334E-2</v>
       </c>
       <c r="D30">
-        <v>2.064671315070972E-4</v>
+        <v>1.9533488433813129E-4</v>
       </c>
       <c r="E30">
-        <v>-9.9144180455950151E-3</v>
+        <v>-1.2059508707464417E-2</v>
       </c>
       <c r="F30">
-        <v>-6.0147184073278334E-3</v>
+        <v>-8.55532189017464E-3</v>
       </c>
       <c r="G30">
-        <v>-5.1653409435239162E-3</v>
+        <v>-7.707975565897307E-3</v>
       </c>
       <c r="H30">
-        <v>-4.9083201731670092E-3</v>
+        <v>-7.6562263933973307E-3</v>
       </c>
       <c r="I30">
-        <v>4.7432872193144474E-3</v>
+        <v>4.6719183804137653E-3</v>
       </c>
       <c r="J30">
-        <v>-2.4751847126966171E-3</v>
+        <v>-2.4581550854899849E-3</v>
       </c>
       <c r="K30">
-        <v>-8.2115549661650467E-2</v>
+        <v>-8.2742245904287581E-2</v>
       </c>
       <c r="L30">
-        <v>-8.259433036280639E-2</v>
+        <v>-8.2753910604096759E-2</v>
       </c>
       <c r="M30">
-        <v>-8.3674929689867894E-2</v>
+        <v>-8.4244609024092143E-2</v>
       </c>
       <c r="N30">
-        <v>-8.3014960296850515E-2</v>
+        <v>-8.3793811011936059E-2</v>
       </c>
       <c r="O30">
-        <v>-3.4052143995714004E-4</v>
+        <v>-6.2254617512547822E-4</v>
       </c>
       <c r="P30">
-        <v>-8.0226506502288544E-5</v>
+        <v>8.6616340823723252E-4</v>
       </c>
       <c r="Q30">
-        <v>-8.3700124395734085E-4</v>
+        <v>-8.4558287762910578E-4</v>
       </c>
       <c r="R30">
-        <v>6.0643790476199123E-3</v>
+        <v>3.7602632527530353E-3</v>
       </c>
       <c r="S30">
-        <v>-4.5603044500566493E-3</v>
+        <v>-4.2793830195181314E-3</v>
       </c>
       <c r="T30">
-        <v>-1.0971584647945974E-2</v>
+        <v>-9.7520024108732409E-3</v>
       </c>
       <c r="U30">
-        <v>-8.8577819672190861E-2</v>
+        <v>-8.2991507920076202E-2</v>
       </c>
       <c r="V30">
-        <v>-2.0703109780716655E-2</v>
+        <v>-2.0888084053528877E-2</v>
       </c>
       <c r="W30">
-        <v>-2.7540267658700476E-3</v>
+        <v>-2.9693769645715174E-3</v>
       </c>
       <c r="X30">
-        <v>-1.8059689487154133E-4</v>
+        <v>-4.4250594001484303E-4</v>
       </c>
       <c r="Y30">
-        <v>-9.4394229366565117E-4</v>
+        <v>-1.1450566768274675E-3</v>
       </c>
       <c r="Z30">
-        <v>-1.5296689369368489E-3</v>
+        <v>-1.6252374383883749E-3</v>
       </c>
       <c r="AA30">
-        <v>-1.7863110535419318E-3</v>
+        <v>-1.8101207599157086E-3</v>
       </c>
       <c r="AB30">
-        <v>1.1405120870786739E-4</v>
+        <v>1.0539250620569688E-4</v>
       </c>
       <c r="AC30">
-        <v>1.6200200712007968E-3</v>
+        <v>1.5120088370187438E-3</v>
       </c>
       <c r="AD30">
-        <v>-3.4649688000100501E-3</v>
+        <v>-3.3889965547701691E-3</v>
       </c>
       <c r="AE30">
-        <v>0.45724871212192753</v>
+        <v>0.44023385203122389</v>
       </c>
     </row>
   </sheetData>
